--- a/data/Base_codigos.xlsx
+++ b/data/Base_codigos.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29505"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29704"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Mi unidad\Proyecto_Asistencias\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44D6DCA4-3D1A-4E65-8A77-0A94744937C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2F90780-005F-467F-85BD-7A19852E7622}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{C1BC7D56-F8D4-42E6-AD1C-5E067A261636}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Base_codigos" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Base_codigos!$A$1:$F$694</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Base_codigos!$A$1:$F$709</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2778" uniqueCount="802">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2838" uniqueCount="818">
   <si>
     <t>c_tienda</t>
   </si>
@@ -2310,12 +2310,6 @@
     <t>Supervisora</t>
   </si>
   <si>
-    <t>ZONA SAN FRANCISCO</t>
-  </si>
-  <si>
-    <t>MANTRA CENTRO</t>
-  </si>
-  <si>
     <t>FLORIDA - PIEDECUESTA</t>
   </si>
   <si>
@@ -2340,9 +2334,6 @@
     <t>LIZETH SUAREZ</t>
   </si>
   <si>
-    <t>PAULA MARQUEZ</t>
-  </si>
-  <si>
     <t>GINA SUAREZ</t>
   </si>
   <si>
@@ -2364,9 +2355,6 @@
     <t>COMERCIAL BOGOTA SUR</t>
   </si>
   <si>
-    <t>DORANI ASENCIO</t>
-  </si>
-  <si>
     <t>ZONA VDUPAR</t>
   </si>
   <si>
@@ -2434,6 +2422,66 @@
   </si>
   <si>
     <t>COMERCIAL ZONA SUR</t>
+  </si>
+  <si>
+    <t>MANTRA SAN GIL PLAZA</t>
+  </si>
+  <si>
+    <t>MOMA LA MONEDA</t>
+  </si>
+  <si>
+    <t>Superv MTA SAN GIL P</t>
+  </si>
+  <si>
+    <t>Admin MTA SAN GIL P</t>
+  </si>
+  <si>
+    <t>Asesora1 MTA SAN GIL P</t>
+  </si>
+  <si>
+    <t>Asesora2 MTA SAN GIL P</t>
+  </si>
+  <si>
+    <t>Asesora3 MTA SAN GIL P</t>
+  </si>
+  <si>
+    <t>Aux1 MTA SAN GIL P</t>
+  </si>
+  <si>
+    <t>Aux2 MTA SAN GIL P</t>
+  </si>
+  <si>
+    <t>Aux3 MTA SAN GIL P</t>
+  </si>
+  <si>
+    <t>Superv LA MONEDA</t>
+  </si>
+  <si>
+    <t>Admin LA MONEDA</t>
+  </si>
+  <si>
+    <t>Asesora1 LA MONEDA</t>
+  </si>
+  <si>
+    <t>Asesora2 LA MONEDA</t>
+  </si>
+  <si>
+    <t>Asesora3 LA MONEDA</t>
+  </si>
+  <si>
+    <t>Aux1 LA MONEDA</t>
+  </si>
+  <si>
+    <t>Aux2 LA MONEDA</t>
+  </si>
+  <si>
+    <t>COMERCIAL ZONA VDUPAR</t>
+  </si>
+  <si>
+    <t>COMERCIAL NEIVA</t>
+  </si>
+  <si>
+    <t>MANTRA CENTRO - SFCO</t>
   </si>
 </sst>
 </file>
@@ -2794,10 +2842,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2D9567B5-8E48-47DC-894B-1D36F3C8AF52}">
-  <dimension ref="A1:F694"/>
+  <dimension ref="A1:F709"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A682" workbookViewId="0">
-      <selection activeCell="A692" sqref="A692"/>
+    <sheetView tabSelected="1" topLeftCell="A675" workbookViewId="0">
+      <selection activeCell="A709" sqref="A709"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2806,8 +2854,8 @@
     <col min="2" max="2" width="33.5703125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="19.85546875" customWidth="1"/>
     <col min="4" max="4" width="23.140625" customWidth="1"/>
-    <col min="5" max="5" width="22.140625" customWidth="1"/>
-    <col min="6" max="6" width="25.140625" customWidth="1"/>
+    <col min="5" max="5" width="22.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="27.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
@@ -2844,10 +2892,10 @@
         <v>4</v>
       </c>
       <c r="E2" t="s">
-        <v>775</v>
+        <v>772</v>
       </c>
       <c r="F2" t="s">
-        <v>769</v>
+        <v>767</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -2864,10 +2912,10 @@
         <v>5</v>
       </c>
       <c r="E3" t="s">
-        <v>775</v>
+        <v>772</v>
       </c>
       <c r="F3" t="s">
-        <v>769</v>
+        <v>767</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -2884,10 +2932,10 @@
         <v>6</v>
       </c>
       <c r="E4" t="s">
-        <v>775</v>
+        <v>772</v>
       </c>
       <c r="F4" t="s">
-        <v>769</v>
+        <v>767</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -2904,10 +2952,10 @@
         <v>7</v>
       </c>
       <c r="E5" t="s">
-        <v>775</v>
+        <v>772</v>
       </c>
       <c r="F5" t="s">
-        <v>769</v>
+        <v>767</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
@@ -2924,10 +2972,10 @@
         <v>8</v>
       </c>
       <c r="E6" t="s">
-        <v>775</v>
+        <v>772</v>
       </c>
       <c r="F6" t="s">
-        <v>769</v>
+        <v>767</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
@@ -2944,10 +2992,10 @@
         <v>9</v>
       </c>
       <c r="E7" t="s">
-        <v>775</v>
+        <v>772</v>
       </c>
       <c r="F7" t="s">
-        <v>769</v>
+        <v>767</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
@@ -2964,10 +3012,10 @@
         <v>10</v>
       </c>
       <c r="E8" t="s">
-        <v>775</v>
+        <v>772</v>
       </c>
       <c r="F8" t="s">
-        <v>769</v>
+        <v>767</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
@@ -2984,10 +3032,10 @@
         <v>11</v>
       </c>
       <c r="E9" t="s">
-        <v>775</v>
+        <v>772</v>
       </c>
       <c r="F9" t="s">
-        <v>769</v>
+        <v>767</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
@@ -3004,10 +3052,10 @@
         <v>12</v>
       </c>
       <c r="E10" t="s">
-        <v>775</v>
+        <v>772</v>
       </c>
       <c r="F10" t="s">
-        <v>769</v>
+        <v>767</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
@@ -3024,10 +3072,10 @@
         <v>13</v>
       </c>
       <c r="E11" t="s">
-        <v>775</v>
+        <v>772</v>
       </c>
       <c r="F11" t="s">
-        <v>769</v>
+        <v>767</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
@@ -3044,10 +3092,10 @@
         <v>14</v>
       </c>
       <c r="E12" t="s">
-        <v>775</v>
+        <v>772</v>
       </c>
       <c r="F12" t="s">
-        <v>769</v>
+        <v>767</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
@@ -3064,10 +3112,10 @@
         <v>15</v>
       </c>
       <c r="E13" t="s">
-        <v>775</v>
+        <v>772</v>
       </c>
       <c r="F13" t="s">
-        <v>769</v>
+        <v>767</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
@@ -3084,10 +3132,10 @@
         <v>16</v>
       </c>
       <c r="E14" t="s">
-        <v>775</v>
+        <v>772</v>
       </c>
       <c r="F14" t="s">
-        <v>769</v>
+        <v>767</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
@@ -3104,10 +3152,10 @@
         <v>17</v>
       </c>
       <c r="E15" t="s">
-        <v>775</v>
+        <v>772</v>
       </c>
       <c r="F15" t="s">
-        <v>769</v>
+        <v>767</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
@@ -3124,10 +3172,10 @@
         <v>18</v>
       </c>
       <c r="E16" t="s">
-        <v>775</v>
+        <v>772</v>
       </c>
       <c r="F16" t="s">
-        <v>769</v>
+        <v>767</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
@@ -3144,10 +3192,10 @@
         <v>19</v>
       </c>
       <c r="E17" t="s">
-        <v>775</v>
+        <v>772</v>
       </c>
       <c r="F17" t="s">
-        <v>769</v>
+        <v>767</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
@@ -3164,10 +3212,10 @@
         <v>20</v>
       </c>
       <c r="E18" t="s">
-        <v>775</v>
+        <v>772</v>
       </c>
       <c r="F18" t="s">
-        <v>769</v>
+        <v>767</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
@@ -3184,10 +3232,10 @@
         <v>21</v>
       </c>
       <c r="E19" t="s">
-        <v>775</v>
+        <v>772</v>
       </c>
       <c r="F19" t="s">
-        <v>769</v>
+        <v>767</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
@@ -3204,10 +3252,10 @@
         <v>22</v>
       </c>
       <c r="E20" t="s">
-        <v>775</v>
+        <v>772</v>
       </c>
       <c r="F20" t="s">
-        <v>769</v>
+        <v>767</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
@@ -3224,10 +3272,10 @@
         <v>23</v>
       </c>
       <c r="E21" t="s">
-        <v>775</v>
+        <v>772</v>
       </c>
       <c r="F21" t="s">
-        <v>769</v>
+        <v>767</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
@@ -3244,10 +3292,10 @@
         <v>24</v>
       </c>
       <c r="E22" t="s">
-        <v>775</v>
+        <v>772</v>
       </c>
       <c r="F22" t="s">
-        <v>769</v>
+        <v>767</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
@@ -3264,10 +3312,10 @@
         <v>25</v>
       </c>
       <c r="E23" t="s">
-        <v>775</v>
+        <v>772</v>
       </c>
       <c r="F23" t="s">
-        <v>769</v>
+        <v>767</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
@@ -3284,10 +3332,10 @@
         <v>26</v>
       </c>
       <c r="E24" t="s">
-        <v>775</v>
+        <v>772</v>
       </c>
       <c r="F24" t="s">
-        <v>769</v>
+        <v>767</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
@@ -3304,10 +3352,10 @@
         <v>27</v>
       </c>
       <c r="E25" t="s">
-        <v>775</v>
+        <v>772</v>
       </c>
       <c r="F25" t="s">
-        <v>769</v>
+        <v>767</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
@@ -3324,10 +3372,10 @@
         <v>28</v>
       </c>
       <c r="E26" t="s">
-        <v>775</v>
+        <v>772</v>
       </c>
       <c r="F26" t="s">
-        <v>769</v>
+        <v>767</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
@@ -3344,10 +3392,10 @@
         <v>29</v>
       </c>
       <c r="E27" t="s">
-        <v>775</v>
+        <v>772</v>
       </c>
       <c r="F27" t="s">
-        <v>769</v>
+        <v>767</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
@@ -3364,10 +3412,10 @@
         <v>30</v>
       </c>
       <c r="E28" t="s">
-        <v>775</v>
+        <v>772</v>
       </c>
       <c r="F28" t="s">
-        <v>769</v>
+        <v>767</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
@@ -3384,10 +3432,10 @@
         <v>31</v>
       </c>
       <c r="E29" t="s">
-        <v>775</v>
+        <v>772</v>
       </c>
       <c r="F29" t="s">
-        <v>769</v>
+        <v>767</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
@@ -3404,10 +3452,10 @@
         <v>32</v>
       </c>
       <c r="E30" t="s">
-        <v>775</v>
+        <v>772</v>
       </c>
       <c r="F30" t="s">
-        <v>769</v>
+        <v>767</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
@@ -3424,10 +3472,10 @@
         <v>33</v>
       </c>
       <c r="E31" t="s">
-        <v>775</v>
+        <v>772</v>
       </c>
       <c r="F31" t="s">
-        <v>769</v>
+        <v>767</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
@@ -3444,10 +3492,10 @@
         <v>34</v>
       </c>
       <c r="E32" t="s">
-        <v>775</v>
+        <v>772</v>
       </c>
       <c r="F32" t="s">
-        <v>769</v>
+        <v>767</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
@@ -3464,10 +3512,10 @@
         <v>35</v>
       </c>
       <c r="E33" t="s">
-        <v>775</v>
+        <v>772</v>
       </c>
       <c r="F33" t="s">
-        <v>769</v>
+        <v>767</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
@@ -3484,10 +3532,10 @@
         <v>36</v>
       </c>
       <c r="E34" t="s">
-        <v>775</v>
+        <v>772</v>
       </c>
       <c r="F34" t="s">
-        <v>769</v>
+        <v>767</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
@@ -3504,10 +3552,10 @@
         <v>37</v>
       </c>
       <c r="E35" t="s">
-        <v>775</v>
+        <v>772</v>
       </c>
       <c r="F35" t="s">
-        <v>769</v>
+        <v>767</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
@@ -3524,10 +3572,10 @@
         <v>38</v>
       </c>
       <c r="E36" t="s">
-        <v>775</v>
+        <v>772</v>
       </c>
       <c r="F36" t="s">
-        <v>769</v>
+        <v>767</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
@@ -3544,10 +3592,10 @@
         <v>39</v>
       </c>
       <c r="E37" t="s">
-        <v>775</v>
+        <v>772</v>
       </c>
       <c r="F37" t="s">
-        <v>769</v>
+        <v>767</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
@@ -3564,10 +3612,10 @@
         <v>40</v>
       </c>
       <c r="E38" t="s">
-        <v>775</v>
+        <v>772</v>
       </c>
       <c r="F38" t="s">
-        <v>769</v>
+        <v>767</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
@@ -3584,10 +3632,10 @@
         <v>41</v>
       </c>
       <c r="E39" t="s">
-        <v>775</v>
+        <v>772</v>
       </c>
       <c r="F39" t="s">
-        <v>769</v>
+        <v>767</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
@@ -3604,10 +3652,10 @@
         <v>42</v>
       </c>
       <c r="E40" t="s">
-        <v>775</v>
+        <v>772</v>
       </c>
       <c r="F40" t="s">
-        <v>769</v>
+        <v>767</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
@@ -3624,10 +3672,10 @@
         <v>43</v>
       </c>
       <c r="E41" t="s">
-        <v>775</v>
+        <v>772</v>
       </c>
       <c r="F41" t="s">
-        <v>769</v>
+        <v>767</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
@@ -3644,10 +3692,10 @@
         <v>44</v>
       </c>
       <c r="E42" t="s">
-        <v>775</v>
+        <v>772</v>
       </c>
       <c r="F42" t="s">
-        <v>769</v>
+        <v>767</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
@@ -3664,10 +3712,10 @@
         <v>45</v>
       </c>
       <c r="E43" t="s">
-        <v>775</v>
+        <v>772</v>
       </c>
       <c r="F43" t="s">
-        <v>769</v>
+        <v>767</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
@@ -3684,10 +3732,10 @@
         <v>46</v>
       </c>
       <c r="E44" t="s">
-        <v>775</v>
+        <v>772</v>
       </c>
       <c r="F44" t="s">
-        <v>769</v>
+        <v>767</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
@@ -3704,10 +3752,10 @@
         <v>47</v>
       </c>
       <c r="E45" t="s">
-        <v>775</v>
+        <v>772</v>
       </c>
       <c r="F45" t="s">
-        <v>769</v>
+        <v>767</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
@@ -3724,10 +3772,10 @@
         <v>48</v>
       </c>
       <c r="E46" t="s">
-        <v>775</v>
+        <v>772</v>
       </c>
       <c r="F46" t="s">
-        <v>769</v>
+        <v>767</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
@@ -3744,10 +3792,10 @@
         <v>49</v>
       </c>
       <c r="E47" t="s">
-        <v>775</v>
+        <v>772</v>
       </c>
       <c r="F47" t="s">
-        <v>769</v>
+        <v>767</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
@@ -3764,10 +3812,10 @@
         <v>50</v>
       </c>
       <c r="E48" t="s">
-        <v>775</v>
+        <v>772</v>
       </c>
       <c r="F48" t="s">
-        <v>769</v>
+        <v>767</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.25">
@@ -3784,10 +3832,10 @@
         <v>51</v>
       </c>
       <c r="E49" t="s">
-        <v>775</v>
+        <v>772</v>
       </c>
       <c r="F49" t="s">
-        <v>769</v>
+        <v>767</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.25">
@@ -3804,10 +3852,10 @@
         <v>52</v>
       </c>
       <c r="E50" t="s">
-        <v>775</v>
+        <v>772</v>
       </c>
       <c r="F50" t="s">
-        <v>769</v>
+        <v>767</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.25">
@@ -3824,10 +3872,10 @@
         <v>53</v>
       </c>
       <c r="E51" t="s">
-        <v>775</v>
+        <v>772</v>
       </c>
       <c r="F51" t="s">
-        <v>769</v>
+        <v>767</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.25">
@@ -3844,10 +3892,10 @@
         <v>54</v>
       </c>
       <c r="E52" t="s">
-        <v>775</v>
+        <v>772</v>
       </c>
       <c r="F52" t="s">
-        <v>769</v>
+        <v>767</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.25">
@@ -3864,10 +3912,10 @@
         <v>55</v>
       </c>
       <c r="E53" t="s">
-        <v>775</v>
+        <v>772</v>
       </c>
       <c r="F53" t="s">
-        <v>769</v>
+        <v>767</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.25">
@@ -3884,10 +3932,10 @@
         <v>56</v>
       </c>
       <c r="E54" t="s">
-        <v>775</v>
+        <v>772</v>
       </c>
       <c r="F54" t="s">
-        <v>769</v>
+        <v>767</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.25">
@@ -3904,10 +3952,10 @@
         <v>57</v>
       </c>
       <c r="E55" t="s">
-        <v>775</v>
+        <v>772</v>
       </c>
       <c r="F55" t="s">
-        <v>769</v>
+        <v>767</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.25">
@@ -3924,10 +3972,10 @@
         <v>58</v>
       </c>
       <c r="E56" t="s">
-        <v>760</v>
+        <v>817</v>
       </c>
       <c r="F56" t="s">
-        <v>770</v>
+        <v>768</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.25">
@@ -3944,10 +3992,10 @@
         <v>59</v>
       </c>
       <c r="E57" t="s">
-        <v>760</v>
+        <v>817</v>
       </c>
       <c r="F57" t="s">
-        <v>770</v>
+        <v>768</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.25">
@@ -3964,10 +4012,10 @@
         <v>60</v>
       </c>
       <c r="E58" t="s">
-        <v>760</v>
+        <v>817</v>
       </c>
       <c r="F58" t="s">
-        <v>770</v>
+        <v>768</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.25">
@@ -3984,10 +4032,10 @@
         <v>61</v>
       </c>
       <c r="E59" t="s">
-        <v>760</v>
+        <v>817</v>
       </c>
       <c r="F59" t="s">
-        <v>770</v>
+        <v>768</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.25">
@@ -4004,10 +4052,10 @@
         <v>62</v>
       </c>
       <c r="E60" t="s">
-        <v>760</v>
+        <v>817</v>
       </c>
       <c r="F60" t="s">
-        <v>770</v>
+        <v>768</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.25">
@@ -4024,10 +4072,10 @@
         <v>63</v>
       </c>
       <c r="E61" t="s">
-        <v>760</v>
+        <v>817</v>
       </c>
       <c r="F61" t="s">
-        <v>770</v>
+        <v>768</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.25">
@@ -4044,10 +4092,10 @@
         <v>64</v>
       </c>
       <c r="E62" t="s">
-        <v>760</v>
+        <v>817</v>
       </c>
       <c r="F62" t="s">
-        <v>770</v>
+        <v>768</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.25">
@@ -4064,10 +4112,10 @@
         <v>65</v>
       </c>
       <c r="E63" t="s">
-        <v>760</v>
+        <v>817</v>
       </c>
       <c r="F63" t="s">
-        <v>770</v>
+        <v>768</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.25">
@@ -4084,10 +4132,10 @@
         <v>66</v>
       </c>
       <c r="E64" t="s">
-        <v>760</v>
+        <v>817</v>
       </c>
       <c r="F64" t="s">
-        <v>770</v>
+        <v>768</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.25">
@@ -4104,10 +4152,10 @@
         <v>67</v>
       </c>
       <c r="E65" t="s">
-        <v>760</v>
+        <v>817</v>
       </c>
       <c r="F65" t="s">
-        <v>770</v>
+        <v>768</v>
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.25">
@@ -4124,10 +4172,10 @@
         <v>68</v>
       </c>
       <c r="E66" t="s">
-        <v>760</v>
+        <v>817</v>
       </c>
       <c r="F66" t="s">
-        <v>770</v>
+        <v>768</v>
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.25">
@@ -4144,10 +4192,10 @@
         <v>69</v>
       </c>
       <c r="E67" t="s">
-        <v>760</v>
+        <v>817</v>
       </c>
       <c r="F67" t="s">
-        <v>770</v>
+        <v>768</v>
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.25">
@@ -4164,10 +4212,10 @@
         <v>70</v>
       </c>
       <c r="E68" t="s">
-        <v>760</v>
+        <v>817</v>
       </c>
       <c r="F68" t="s">
-        <v>770</v>
+        <v>768</v>
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.25">
@@ -4184,10 +4232,10 @@
         <v>71</v>
       </c>
       <c r="E69" t="s">
-        <v>760</v>
+        <v>817</v>
       </c>
       <c r="F69" t="s">
-        <v>770</v>
+        <v>768</v>
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.25">
@@ -4204,10 +4252,10 @@
         <v>72</v>
       </c>
       <c r="E70" t="s">
-        <v>760</v>
+        <v>817</v>
       </c>
       <c r="F70" t="s">
-        <v>770</v>
+        <v>768</v>
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.25">
@@ -4224,10 +4272,10 @@
         <v>73</v>
       </c>
       <c r="E71" t="s">
-        <v>760</v>
+        <v>817</v>
       </c>
       <c r="F71" t="s">
-        <v>770</v>
+        <v>768</v>
       </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.25">
@@ -4244,10 +4292,10 @@
         <v>74</v>
       </c>
       <c r="E72" t="s">
-        <v>760</v>
+        <v>817</v>
       </c>
       <c r="F72" t="s">
-        <v>770</v>
+        <v>768</v>
       </c>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.25">
@@ -4264,10 +4312,10 @@
         <v>75</v>
       </c>
       <c r="E73" t="s">
-        <v>760</v>
+        <v>817</v>
       </c>
       <c r="F73" t="s">
-        <v>770</v>
+        <v>768</v>
       </c>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.25">
@@ -4284,10 +4332,10 @@
         <v>76</v>
       </c>
       <c r="E74" t="s">
-        <v>775</v>
+        <v>772</v>
       </c>
       <c r="F74" t="s">
-        <v>769</v>
+        <v>767</v>
       </c>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.25">
@@ -4304,10 +4352,10 @@
         <v>77</v>
       </c>
       <c r="E75" t="s">
-        <v>775</v>
+        <v>772</v>
       </c>
       <c r="F75" t="s">
-        <v>769</v>
+        <v>767</v>
       </c>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.25">
@@ -4324,10 +4372,10 @@
         <v>78</v>
       </c>
       <c r="E76" t="s">
-        <v>775</v>
+        <v>772</v>
       </c>
       <c r="F76" t="s">
-        <v>769</v>
+        <v>767</v>
       </c>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.25">
@@ -4344,10 +4392,10 @@
         <v>79</v>
       </c>
       <c r="E77" t="s">
-        <v>775</v>
+        <v>772</v>
       </c>
       <c r="F77" t="s">
-        <v>769</v>
+        <v>767</v>
       </c>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.25">
@@ -4364,10 +4412,10 @@
         <v>80</v>
       </c>
       <c r="E78" t="s">
-        <v>775</v>
+        <v>772</v>
       </c>
       <c r="F78" t="s">
-        <v>769</v>
+        <v>767</v>
       </c>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.25">
@@ -4384,10 +4432,10 @@
         <v>81</v>
       </c>
       <c r="E79" t="s">
-        <v>775</v>
+        <v>772</v>
       </c>
       <c r="F79" t="s">
-        <v>769</v>
+        <v>767</v>
       </c>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.25">
@@ -4404,10 +4452,10 @@
         <v>82</v>
       </c>
       <c r="E80" t="s">
-        <v>775</v>
+        <v>772</v>
       </c>
       <c r="F80" t="s">
-        <v>769</v>
+        <v>767</v>
       </c>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.25">
@@ -4424,10 +4472,10 @@
         <v>83</v>
       </c>
       <c r="E81" t="s">
-        <v>775</v>
+        <v>772</v>
       </c>
       <c r="F81" t="s">
-        <v>769</v>
+        <v>767</v>
       </c>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.25">
@@ -4444,10 +4492,10 @@
         <v>84</v>
       </c>
       <c r="E82" t="s">
-        <v>775</v>
+        <v>772</v>
       </c>
       <c r="F82" t="s">
-        <v>769</v>
+        <v>767</v>
       </c>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.25">
@@ -4464,10 +4512,10 @@
         <v>85</v>
       </c>
       <c r="E83" t="s">
-        <v>775</v>
+        <v>772</v>
       </c>
       <c r="F83" t="s">
-        <v>769</v>
+        <v>767</v>
       </c>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.25">
@@ -4484,10 +4532,10 @@
         <v>86</v>
       </c>
       <c r="E84" t="s">
-        <v>775</v>
+        <v>772</v>
       </c>
       <c r="F84" t="s">
-        <v>769</v>
+        <v>767</v>
       </c>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.25">
@@ -4504,10 +4552,10 @@
         <v>87</v>
       </c>
       <c r="E85" t="s">
-        <v>775</v>
+        <v>772</v>
       </c>
       <c r="F85" t="s">
-        <v>769</v>
+        <v>767</v>
       </c>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.25">
@@ -4524,10 +4572,10 @@
         <v>88</v>
       </c>
       <c r="E86" t="s">
-        <v>775</v>
+        <v>772</v>
       </c>
       <c r="F86" t="s">
-        <v>769</v>
+        <v>767</v>
       </c>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.25">
@@ -4544,10 +4592,10 @@
         <v>89</v>
       </c>
       <c r="E87" t="s">
-        <v>775</v>
+        <v>772</v>
       </c>
       <c r="F87" t="s">
-        <v>769</v>
+        <v>767</v>
       </c>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.25">
@@ -4564,10 +4612,10 @@
         <v>90</v>
       </c>
       <c r="E88" t="s">
-        <v>775</v>
+        <v>772</v>
       </c>
       <c r="F88" t="s">
-        <v>769</v>
+        <v>767</v>
       </c>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.25">
@@ -4584,10 +4632,10 @@
         <v>91</v>
       </c>
       <c r="E89" t="s">
-        <v>775</v>
+        <v>772</v>
       </c>
       <c r="F89" t="s">
-        <v>769</v>
+        <v>767</v>
       </c>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.25">
@@ -4604,10 +4652,10 @@
         <v>92</v>
       </c>
       <c r="E90" t="s">
-        <v>775</v>
+        <v>772</v>
       </c>
       <c r="F90" t="s">
-        <v>769</v>
+        <v>767</v>
       </c>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.25">
@@ -4624,10 +4672,10 @@
         <v>93</v>
       </c>
       <c r="E91" t="s">
-        <v>775</v>
+        <v>772</v>
       </c>
       <c r="F91" t="s">
-        <v>769</v>
+        <v>767</v>
       </c>
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.25">
@@ -4644,10 +4692,10 @@
         <v>94</v>
       </c>
       <c r="E92" t="s">
-        <v>761</v>
+        <v>817</v>
       </c>
       <c r="F92" t="s">
-        <v>771</v>
+        <v>768</v>
       </c>
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.25">
@@ -4664,10 +4712,10 @@
         <v>95</v>
       </c>
       <c r="E93" t="s">
-        <v>761</v>
+        <v>817</v>
       </c>
       <c r="F93" t="s">
-        <v>771</v>
+        <v>768</v>
       </c>
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.25">
@@ -4684,10 +4732,10 @@
         <v>96</v>
       </c>
       <c r="E94" t="s">
-        <v>761</v>
+        <v>817</v>
       </c>
       <c r="F94" t="s">
-        <v>771</v>
+        <v>768</v>
       </c>
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.25">
@@ -4704,10 +4752,10 @@
         <v>97</v>
       </c>
       <c r="E95" t="s">
-        <v>761</v>
+        <v>817</v>
       </c>
       <c r="F95" t="s">
-        <v>771</v>
+        <v>768</v>
       </c>
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.25">
@@ -4724,10 +4772,10 @@
         <v>98</v>
       </c>
       <c r="E96" t="s">
-        <v>761</v>
+        <v>817</v>
       </c>
       <c r="F96" t="s">
-        <v>771</v>
+        <v>768</v>
       </c>
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.25">
@@ -4744,10 +4792,10 @@
         <v>99</v>
       </c>
       <c r="E97" t="s">
-        <v>761</v>
+        <v>817</v>
       </c>
       <c r="F97" t="s">
-        <v>771</v>
+        <v>768</v>
       </c>
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.25">
@@ -4764,10 +4812,10 @@
         <v>100</v>
       </c>
       <c r="E98" t="s">
-        <v>761</v>
+        <v>817</v>
       </c>
       <c r="F98" t="s">
-        <v>771</v>
+        <v>768</v>
       </c>
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.25">
@@ -4784,10 +4832,10 @@
         <v>101</v>
       </c>
       <c r="E99" t="s">
-        <v>761</v>
+        <v>817</v>
       </c>
       <c r="F99" t="s">
-        <v>771</v>
+        <v>768</v>
       </c>
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.25">
@@ -4804,10 +4852,10 @@
         <v>102</v>
       </c>
       <c r="E100" t="s">
-        <v>761</v>
+        <v>817</v>
       </c>
       <c r="F100" t="s">
-        <v>771</v>
+        <v>768</v>
       </c>
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.25">
@@ -4824,10 +4872,10 @@
         <v>103</v>
       </c>
       <c r="E101" t="s">
-        <v>775</v>
+        <v>772</v>
       </c>
       <c r="F101" t="s">
-        <v>769</v>
+        <v>767</v>
       </c>
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.25">
@@ -4844,10 +4892,10 @@
         <v>104</v>
       </c>
       <c r="E102" t="s">
-        <v>775</v>
+        <v>772</v>
       </c>
       <c r="F102" t="s">
-        <v>769</v>
+        <v>767</v>
       </c>
     </row>
     <row r="103" spans="1:6" x14ac:dyDescent="0.25">
@@ -4864,10 +4912,10 @@
         <v>105</v>
       </c>
       <c r="E103" t="s">
-        <v>775</v>
+        <v>772</v>
       </c>
       <c r="F103" t="s">
-        <v>769</v>
+        <v>767</v>
       </c>
     </row>
     <row r="104" spans="1:6" x14ac:dyDescent="0.25">
@@ -4884,10 +4932,10 @@
         <v>106</v>
       </c>
       <c r="E104" t="s">
-        <v>775</v>
+        <v>772</v>
       </c>
       <c r="F104" t="s">
-        <v>769</v>
+        <v>767</v>
       </c>
     </row>
     <row r="105" spans="1:6" x14ac:dyDescent="0.25">
@@ -4904,10 +4952,10 @@
         <v>107</v>
       </c>
       <c r="E105" t="s">
-        <v>775</v>
+        <v>772</v>
       </c>
       <c r="F105" t="s">
-        <v>769</v>
+        <v>767</v>
       </c>
     </row>
     <row r="106" spans="1:6" x14ac:dyDescent="0.25">
@@ -4924,10 +4972,10 @@
         <v>108</v>
       </c>
       <c r="E106" t="s">
-        <v>775</v>
+        <v>772</v>
       </c>
       <c r="F106" t="s">
-        <v>769</v>
+        <v>767</v>
       </c>
     </row>
     <row r="107" spans="1:6" x14ac:dyDescent="0.25">
@@ -4944,10 +4992,10 @@
         <v>109</v>
       </c>
       <c r="E107" t="s">
-        <v>775</v>
+        <v>772</v>
       </c>
       <c r="F107" t="s">
-        <v>769</v>
+        <v>767</v>
       </c>
     </row>
     <row r="108" spans="1:6" x14ac:dyDescent="0.25">
@@ -4964,10 +5012,10 @@
         <v>110</v>
       </c>
       <c r="E108" t="s">
-        <v>775</v>
+        <v>772</v>
       </c>
       <c r="F108" t="s">
-        <v>769</v>
+        <v>767</v>
       </c>
     </row>
     <row r="109" spans="1:6" x14ac:dyDescent="0.25">
@@ -4984,10 +5032,10 @@
         <v>111</v>
       </c>
       <c r="E109" t="s">
-        <v>775</v>
+        <v>772</v>
       </c>
       <c r="F109" t="s">
-        <v>769</v>
+        <v>767</v>
       </c>
     </row>
     <row r="110" spans="1:6" x14ac:dyDescent="0.25">
@@ -5004,10 +5052,10 @@
         <v>112</v>
       </c>
       <c r="E110" t="s">
-        <v>775</v>
+        <v>772</v>
       </c>
       <c r="F110" t="s">
-        <v>769</v>
+        <v>767</v>
       </c>
     </row>
     <row r="111" spans="1:6" x14ac:dyDescent="0.25">
@@ -5024,10 +5072,10 @@
         <v>113</v>
       </c>
       <c r="E111" t="s">
-        <v>775</v>
+        <v>772</v>
       </c>
       <c r="F111" t="s">
-        <v>769</v>
+        <v>767</v>
       </c>
     </row>
     <row r="112" spans="1:6" x14ac:dyDescent="0.25">
@@ -5044,10 +5092,10 @@
         <v>114</v>
       </c>
       <c r="E112" t="s">
-        <v>775</v>
+        <v>772</v>
       </c>
       <c r="F112" t="s">
-        <v>769</v>
+        <v>767</v>
       </c>
     </row>
     <row r="113" spans="1:6" x14ac:dyDescent="0.25">
@@ -5064,10 +5112,10 @@
         <v>115</v>
       </c>
       <c r="E113" t="s">
-        <v>775</v>
+        <v>772</v>
       </c>
       <c r="F113" t="s">
-        <v>769</v>
+        <v>767</v>
       </c>
     </row>
     <row r="114" spans="1:6" x14ac:dyDescent="0.25">
@@ -5084,10 +5132,10 @@
         <v>116</v>
       </c>
       <c r="E114" t="s">
-        <v>775</v>
+        <v>772</v>
       </c>
       <c r="F114" t="s">
-        <v>769</v>
+        <v>767</v>
       </c>
     </row>
     <row r="115" spans="1:6" x14ac:dyDescent="0.25">
@@ -5104,10 +5152,10 @@
         <v>117</v>
       </c>
       <c r="E115" t="s">
-        <v>775</v>
+        <v>772</v>
       </c>
       <c r="F115" t="s">
-        <v>769</v>
+        <v>767</v>
       </c>
     </row>
     <row r="116" spans="1:6" x14ac:dyDescent="0.25">
@@ -5124,10 +5172,10 @@
         <v>118</v>
       </c>
       <c r="E116" t="s">
-        <v>775</v>
+        <v>772</v>
       </c>
       <c r="F116" t="s">
-        <v>769</v>
+        <v>767</v>
       </c>
     </row>
     <row r="117" spans="1:6" x14ac:dyDescent="0.25">
@@ -5144,10 +5192,10 @@
         <v>119</v>
       </c>
       <c r="E117" t="s">
-        <v>775</v>
+        <v>772</v>
       </c>
       <c r="F117" t="s">
-        <v>769</v>
+        <v>767</v>
       </c>
     </row>
     <row r="118" spans="1:6" x14ac:dyDescent="0.25">
@@ -5164,10 +5212,10 @@
         <v>120</v>
       </c>
       <c r="E118" t="s">
-        <v>775</v>
+        <v>772</v>
       </c>
       <c r="F118" t="s">
-        <v>769</v>
+        <v>767</v>
       </c>
     </row>
     <row r="119" spans="1:6" x14ac:dyDescent="0.25">
@@ -5184,10 +5232,10 @@
         <v>121</v>
       </c>
       <c r="E119" t="s">
-        <v>775</v>
+        <v>772</v>
       </c>
       <c r="F119" t="s">
-        <v>769</v>
+        <v>767</v>
       </c>
     </row>
     <row r="120" spans="1:6" x14ac:dyDescent="0.25">
@@ -5204,10 +5252,10 @@
         <v>122</v>
       </c>
       <c r="E120" t="s">
-        <v>775</v>
+        <v>772</v>
       </c>
       <c r="F120" t="s">
-        <v>769</v>
+        <v>767</v>
       </c>
     </row>
     <row r="121" spans="1:6" x14ac:dyDescent="0.25">
@@ -5224,10 +5272,10 @@
         <v>123</v>
       </c>
       <c r="E121" t="s">
-        <v>775</v>
+        <v>772</v>
       </c>
       <c r="F121" t="s">
-        <v>769</v>
+        <v>767</v>
       </c>
     </row>
     <row r="122" spans="1:6" x14ac:dyDescent="0.25">
@@ -5244,10 +5292,10 @@
         <v>124</v>
       </c>
       <c r="E122" t="s">
-        <v>775</v>
+        <v>772</v>
       </c>
       <c r="F122" t="s">
-        <v>769</v>
+        <v>767</v>
       </c>
     </row>
     <row r="123" spans="1:6" x14ac:dyDescent="0.25">
@@ -5264,10 +5312,10 @@
         <v>125</v>
       </c>
       <c r="E123" t="s">
-        <v>775</v>
+        <v>772</v>
       </c>
       <c r="F123" t="s">
-        <v>769</v>
+        <v>767</v>
       </c>
     </row>
     <row r="124" spans="1:6" x14ac:dyDescent="0.25">
@@ -5284,10 +5332,10 @@
         <v>126</v>
       </c>
       <c r="E124" t="s">
-        <v>775</v>
+        <v>772</v>
       </c>
       <c r="F124" t="s">
-        <v>769</v>
+        <v>767</v>
       </c>
     </row>
     <row r="125" spans="1:6" x14ac:dyDescent="0.25">
@@ -5304,10 +5352,10 @@
         <v>127</v>
       </c>
       <c r="E125" t="s">
-        <v>775</v>
+        <v>772</v>
       </c>
       <c r="F125" t="s">
-        <v>769</v>
+        <v>767</v>
       </c>
     </row>
     <row r="126" spans="1:6" x14ac:dyDescent="0.25">
@@ -5324,10 +5372,10 @@
         <v>128</v>
       </c>
       <c r="E126" t="s">
-        <v>775</v>
+        <v>772</v>
       </c>
       <c r="F126" t="s">
-        <v>769</v>
+        <v>767</v>
       </c>
     </row>
     <row r="127" spans="1:6" x14ac:dyDescent="0.25">
@@ -5344,10 +5392,10 @@
         <v>129</v>
       </c>
       <c r="E127" t="s">
-        <v>775</v>
+        <v>772</v>
       </c>
       <c r="F127" t="s">
-        <v>769</v>
+        <v>767</v>
       </c>
     </row>
     <row r="128" spans="1:6" x14ac:dyDescent="0.25">
@@ -5364,10 +5412,10 @@
         <v>130</v>
       </c>
       <c r="E128" t="s">
-        <v>775</v>
+        <v>772</v>
       </c>
       <c r="F128" t="s">
-        <v>769</v>
+        <v>767</v>
       </c>
     </row>
     <row r="129" spans="1:6" x14ac:dyDescent="0.25">
@@ -5384,10 +5432,10 @@
         <v>131</v>
       </c>
       <c r="E129" t="s">
-        <v>775</v>
+        <v>772</v>
       </c>
       <c r="F129" t="s">
-        <v>769</v>
+        <v>767</v>
       </c>
     </row>
     <row r="130" spans="1:6" x14ac:dyDescent="0.25">
@@ -5404,10 +5452,10 @@
         <v>132</v>
       </c>
       <c r="E130" t="s">
-        <v>775</v>
+        <v>772</v>
       </c>
       <c r="F130" t="s">
-        <v>769</v>
+        <v>767</v>
       </c>
     </row>
     <row r="131" spans="1:6" x14ac:dyDescent="0.25">
@@ -5424,10 +5472,10 @@
         <v>133</v>
       </c>
       <c r="E131" t="s">
-        <v>775</v>
+        <v>772</v>
       </c>
       <c r="F131" t="s">
-        <v>769</v>
+        <v>767</v>
       </c>
     </row>
     <row r="132" spans="1:6" x14ac:dyDescent="0.25">
@@ -5444,10 +5492,10 @@
         <v>134</v>
       </c>
       <c r="E132" t="s">
-        <v>775</v>
+        <v>772</v>
       </c>
       <c r="F132" t="s">
-        <v>769</v>
+        <v>767</v>
       </c>
     </row>
     <row r="133" spans="1:6" x14ac:dyDescent="0.25">
@@ -5464,10 +5512,10 @@
         <v>135</v>
       </c>
       <c r="E133" t="s">
-        <v>775</v>
+        <v>772</v>
       </c>
       <c r="F133" t="s">
-        <v>769</v>
+        <v>767</v>
       </c>
     </row>
     <row r="134" spans="1:6" x14ac:dyDescent="0.25">
@@ -5484,10 +5532,10 @@
         <v>136</v>
       </c>
       <c r="E134" t="s">
-        <v>775</v>
+        <v>772</v>
       </c>
       <c r="F134" t="s">
-        <v>769</v>
+        <v>767</v>
       </c>
     </row>
     <row r="135" spans="1:6" x14ac:dyDescent="0.25">
@@ -5504,10 +5552,10 @@
         <v>137</v>
       </c>
       <c r="E135" t="s">
-        <v>775</v>
+        <v>772</v>
       </c>
       <c r="F135" t="s">
-        <v>769</v>
+        <v>767</v>
       </c>
     </row>
     <row r="136" spans="1:6" x14ac:dyDescent="0.25">
@@ -5524,10 +5572,10 @@
         <v>138</v>
       </c>
       <c r="E136" t="s">
-        <v>775</v>
+        <v>772</v>
       </c>
       <c r="F136" t="s">
-        <v>769</v>
+        <v>767</v>
       </c>
     </row>
     <row r="137" spans="1:6" x14ac:dyDescent="0.25">
@@ -5544,10 +5592,10 @@
         <v>139</v>
       </c>
       <c r="E137" t="s">
-        <v>762</v>
+        <v>760</v>
       </c>
       <c r="F137" t="s">
-        <v>801</v>
+        <v>797</v>
       </c>
     </row>
     <row r="138" spans="1:6" x14ac:dyDescent="0.25">
@@ -5564,10 +5612,10 @@
         <v>140</v>
       </c>
       <c r="E138" t="s">
-        <v>762</v>
+        <v>760</v>
       </c>
       <c r="F138" t="s">
-        <v>801</v>
+        <v>797</v>
       </c>
     </row>
     <row r="139" spans="1:6" x14ac:dyDescent="0.25">
@@ -5584,10 +5632,10 @@
         <v>141</v>
       </c>
       <c r="E139" t="s">
-        <v>762</v>
+        <v>760</v>
       </c>
       <c r="F139" t="s">
-        <v>801</v>
+        <v>797</v>
       </c>
     </row>
     <row r="140" spans="1:6" x14ac:dyDescent="0.25">
@@ -5604,10 +5652,10 @@
         <v>142</v>
       </c>
       <c r="E140" t="s">
-        <v>762</v>
+        <v>760</v>
       </c>
       <c r="F140" t="s">
-        <v>801</v>
+        <v>797</v>
       </c>
     </row>
     <row r="141" spans="1:6" x14ac:dyDescent="0.25">
@@ -5624,10 +5672,10 @@
         <v>143</v>
       </c>
       <c r="E141" t="s">
-        <v>762</v>
+        <v>760</v>
       </c>
       <c r="F141" t="s">
-        <v>801</v>
+        <v>797</v>
       </c>
     </row>
     <row r="142" spans="1:6" x14ac:dyDescent="0.25">
@@ -5644,10 +5692,10 @@
         <v>144</v>
       </c>
       <c r="E142" t="s">
-        <v>762</v>
+        <v>760</v>
       </c>
       <c r="F142" t="s">
-        <v>801</v>
+        <v>797</v>
       </c>
     </row>
     <row r="143" spans="1:6" x14ac:dyDescent="0.25">
@@ -5664,10 +5712,10 @@
         <v>145</v>
       </c>
       <c r="E143" t="s">
-        <v>762</v>
+        <v>760</v>
       </c>
       <c r="F143" t="s">
-        <v>801</v>
+        <v>797</v>
       </c>
     </row>
     <row r="144" spans="1:6" x14ac:dyDescent="0.25">
@@ -5684,10 +5732,10 @@
         <v>146</v>
       </c>
       <c r="E144" t="s">
-        <v>762</v>
+        <v>760</v>
       </c>
       <c r="F144" t="s">
-        <v>801</v>
+        <v>797</v>
       </c>
     </row>
     <row r="145" spans="1:6" x14ac:dyDescent="0.25">
@@ -5704,10 +5752,10 @@
         <v>147</v>
       </c>
       <c r="E145" t="s">
-        <v>762</v>
+        <v>760</v>
       </c>
       <c r="F145" t="s">
-        <v>801</v>
+        <v>797</v>
       </c>
     </row>
     <row r="146" spans="1:6" x14ac:dyDescent="0.25">
@@ -5724,10 +5772,10 @@
         <v>148</v>
       </c>
       <c r="E146" t="s">
-        <v>762</v>
+        <v>760</v>
       </c>
       <c r="F146" t="s">
-        <v>801</v>
+        <v>797</v>
       </c>
     </row>
     <row r="147" spans="1:6" x14ac:dyDescent="0.25">
@@ -5744,10 +5792,10 @@
         <v>149</v>
       </c>
       <c r="E147" t="s">
-        <v>762</v>
+        <v>760</v>
       </c>
       <c r="F147" t="s">
-        <v>801</v>
+        <v>797</v>
       </c>
     </row>
     <row r="148" spans="1:6" x14ac:dyDescent="0.25">
@@ -5764,10 +5812,10 @@
         <v>150</v>
       </c>
       <c r="E148" t="s">
-        <v>762</v>
+        <v>760</v>
       </c>
       <c r="F148" t="s">
-        <v>801</v>
+        <v>797</v>
       </c>
     </row>
     <row r="149" spans="1:6" x14ac:dyDescent="0.25">
@@ -5784,10 +5832,10 @@
         <v>151</v>
       </c>
       <c r="E149" t="s">
-        <v>762</v>
+        <v>760</v>
       </c>
       <c r="F149" t="s">
-        <v>801</v>
+        <v>797</v>
       </c>
     </row>
     <row r="150" spans="1:6" x14ac:dyDescent="0.25">
@@ -5804,10 +5852,10 @@
         <v>152</v>
       </c>
       <c r="E150" t="s">
-        <v>762</v>
+        <v>760</v>
       </c>
       <c r="F150" t="s">
-        <v>801</v>
+        <v>797</v>
       </c>
     </row>
     <row r="151" spans="1:6" x14ac:dyDescent="0.25">
@@ -5824,10 +5872,10 @@
         <v>153</v>
       </c>
       <c r="E151" t="s">
-        <v>762</v>
+        <v>760</v>
       </c>
       <c r="F151" t="s">
-        <v>801</v>
+        <v>797</v>
       </c>
     </row>
     <row r="152" spans="1:6" x14ac:dyDescent="0.25">
@@ -5844,10 +5892,10 @@
         <v>154</v>
       </c>
       <c r="E152" t="s">
-        <v>762</v>
+        <v>760</v>
       </c>
       <c r="F152" t="s">
-        <v>801</v>
+        <v>797</v>
       </c>
     </row>
     <row r="153" spans="1:6" x14ac:dyDescent="0.25">
@@ -5864,10 +5912,10 @@
         <v>155</v>
       </c>
       <c r="E153" t="s">
-        <v>762</v>
+        <v>760</v>
       </c>
       <c r="F153" t="s">
-        <v>801</v>
+        <v>797</v>
       </c>
     </row>
     <row r="154" spans="1:6" x14ac:dyDescent="0.25">
@@ -5884,10 +5932,10 @@
         <v>156</v>
       </c>
       <c r="E154" t="s">
-        <v>762</v>
+        <v>760</v>
       </c>
       <c r="F154" t="s">
-        <v>801</v>
+        <v>797</v>
       </c>
     </row>
     <row r="155" spans="1:6" x14ac:dyDescent="0.25">
@@ -5904,10 +5952,10 @@
         <v>157</v>
       </c>
       <c r="E155" t="s">
-        <v>762</v>
+        <v>760</v>
       </c>
       <c r="F155" t="s">
-        <v>801</v>
+        <v>797</v>
       </c>
     </row>
     <row r="156" spans="1:6" x14ac:dyDescent="0.25">
@@ -5924,10 +5972,10 @@
         <v>158</v>
       </c>
       <c r="E156" t="s">
-        <v>762</v>
+        <v>760</v>
       </c>
       <c r="F156" t="s">
-        <v>801</v>
+        <v>797</v>
       </c>
     </row>
     <row r="157" spans="1:6" x14ac:dyDescent="0.25">
@@ -5944,10 +5992,10 @@
         <v>159</v>
       </c>
       <c r="E157" t="s">
-        <v>762</v>
+        <v>760</v>
       </c>
       <c r="F157" t="s">
-        <v>801</v>
+        <v>797</v>
       </c>
     </row>
     <row r="158" spans="1:6" x14ac:dyDescent="0.25">
@@ -5964,10 +6012,10 @@
         <v>160</v>
       </c>
       <c r="E158" t="s">
-        <v>762</v>
+        <v>760</v>
       </c>
       <c r="F158" t="s">
-        <v>801</v>
+        <v>797</v>
       </c>
     </row>
     <row r="159" spans="1:6" x14ac:dyDescent="0.25">
@@ -5984,10 +6032,10 @@
         <v>161</v>
       </c>
       <c r="E159" t="s">
-        <v>762</v>
+        <v>760</v>
       </c>
       <c r="F159" t="s">
-        <v>801</v>
+        <v>797</v>
       </c>
     </row>
     <row r="160" spans="1:6" x14ac:dyDescent="0.25">
@@ -6004,10 +6052,10 @@
         <v>162</v>
       </c>
       <c r="E160" t="s">
-        <v>762</v>
+        <v>760</v>
       </c>
       <c r="F160" t="s">
-        <v>801</v>
+        <v>797</v>
       </c>
     </row>
     <row r="161" spans="1:6" x14ac:dyDescent="0.25">
@@ -6024,10 +6072,10 @@
         <v>163</v>
       </c>
       <c r="E161" t="s">
-        <v>762</v>
+        <v>760</v>
       </c>
       <c r="F161" t="s">
-        <v>801</v>
+        <v>797</v>
       </c>
     </row>
     <row r="162" spans="1:6" x14ac:dyDescent="0.25">
@@ -6044,10 +6092,10 @@
         <v>164</v>
       </c>
       <c r="E162" t="s">
-        <v>762</v>
+        <v>760</v>
       </c>
       <c r="F162" t="s">
-        <v>801</v>
+        <v>797</v>
       </c>
     </row>
     <row r="163" spans="1:6" x14ac:dyDescent="0.25">
@@ -6064,10 +6112,10 @@
         <v>165</v>
       </c>
       <c r="E163" t="s">
-        <v>762</v>
+        <v>760</v>
       </c>
       <c r="F163" t="s">
-        <v>801</v>
+        <v>797</v>
       </c>
     </row>
     <row r="164" spans="1:6" x14ac:dyDescent="0.25">
@@ -6084,10 +6132,10 @@
         <v>166</v>
       </c>
       <c r="E164" t="s">
-        <v>762</v>
+        <v>760</v>
       </c>
       <c r="F164" t="s">
-        <v>801</v>
+        <v>797</v>
       </c>
     </row>
     <row r="165" spans="1:6" x14ac:dyDescent="0.25">
@@ -6104,10 +6152,10 @@
         <v>167</v>
       </c>
       <c r="E165" t="s">
-        <v>762</v>
+        <v>760</v>
       </c>
       <c r="F165" t="s">
-        <v>801</v>
+        <v>797</v>
       </c>
     </row>
     <row r="166" spans="1:6" x14ac:dyDescent="0.25">
@@ -6124,10 +6172,10 @@
         <v>168</v>
       </c>
       <c r="E166" t="s">
-        <v>762</v>
+        <v>760</v>
       </c>
       <c r="F166" t="s">
-        <v>801</v>
+        <v>797</v>
       </c>
     </row>
     <row r="167" spans="1:6" x14ac:dyDescent="0.25">
@@ -6144,10 +6192,10 @@
         <v>169</v>
       </c>
       <c r="E167" t="s">
-        <v>762</v>
+        <v>760</v>
       </c>
       <c r="F167" t="s">
-        <v>801</v>
+        <v>797</v>
       </c>
     </row>
     <row r="168" spans="1:6" x14ac:dyDescent="0.25">
@@ -6164,10 +6212,10 @@
         <v>170</v>
       </c>
       <c r="E168" t="s">
-        <v>762</v>
+        <v>760</v>
       </c>
       <c r="F168" t="s">
-        <v>801</v>
+        <v>797</v>
       </c>
     </row>
     <row r="169" spans="1:6" x14ac:dyDescent="0.25">
@@ -6184,10 +6232,10 @@
         <v>171</v>
       </c>
       <c r="E169" t="s">
-        <v>762</v>
+        <v>760</v>
       </c>
       <c r="F169" t="s">
-        <v>801</v>
+        <v>797</v>
       </c>
     </row>
     <row r="170" spans="1:6" x14ac:dyDescent="0.25">
@@ -6204,10 +6252,10 @@
         <v>172</v>
       </c>
       <c r="E170" t="s">
-        <v>762</v>
+        <v>760</v>
       </c>
       <c r="F170" t="s">
-        <v>801</v>
+        <v>797</v>
       </c>
     </row>
     <row r="171" spans="1:6" x14ac:dyDescent="0.25">
@@ -6224,10 +6272,10 @@
         <v>173</v>
       </c>
       <c r="E171" t="s">
-        <v>762</v>
+        <v>760</v>
       </c>
       <c r="F171" t="s">
-        <v>801</v>
+        <v>797</v>
       </c>
     </row>
     <row r="172" spans="1:6" x14ac:dyDescent="0.25">
@@ -6244,10 +6292,10 @@
         <v>174</v>
       </c>
       <c r="E172" t="s">
-        <v>762</v>
+        <v>760</v>
       </c>
       <c r="F172" t="s">
-        <v>801</v>
+        <v>797</v>
       </c>
     </row>
     <row r="173" spans="1:6" x14ac:dyDescent="0.25">
@@ -6264,10 +6312,10 @@
         <v>175</v>
       </c>
       <c r="E173" t="s">
-        <v>762</v>
+        <v>760</v>
       </c>
       <c r="F173" t="s">
-        <v>801</v>
+        <v>797</v>
       </c>
     </row>
     <row r="174" spans="1:6" x14ac:dyDescent="0.25">
@@ -6284,10 +6332,10 @@
         <v>176</v>
       </c>
       <c r="E174" t="s">
-        <v>762</v>
+        <v>760</v>
       </c>
       <c r="F174" t="s">
-        <v>801</v>
+        <v>797</v>
       </c>
     </row>
     <row r="175" spans="1:6" x14ac:dyDescent="0.25">
@@ -6304,10 +6352,10 @@
         <v>177</v>
       </c>
       <c r="E175" t="s">
-        <v>762</v>
+        <v>760</v>
       </c>
       <c r="F175" t="s">
-        <v>801</v>
+        <v>797</v>
       </c>
     </row>
     <row r="176" spans="1:6" x14ac:dyDescent="0.25">
@@ -6324,10 +6372,10 @@
         <v>178</v>
       </c>
       <c r="E176" t="s">
-        <v>762</v>
+        <v>760</v>
       </c>
       <c r="F176" t="s">
-        <v>801</v>
+        <v>797</v>
       </c>
     </row>
     <row r="177" spans="1:6" x14ac:dyDescent="0.25">
@@ -6344,10 +6392,10 @@
         <v>179</v>
       </c>
       <c r="E177" t="s">
-        <v>762</v>
+        <v>760</v>
       </c>
       <c r="F177" t="s">
-        <v>801</v>
+        <v>797</v>
       </c>
     </row>
     <row r="178" spans="1:6" x14ac:dyDescent="0.25">
@@ -6364,10 +6412,10 @@
         <v>180</v>
       </c>
       <c r="E178" t="s">
-        <v>762</v>
+        <v>760</v>
       </c>
       <c r="F178" t="s">
-        <v>801</v>
+        <v>797</v>
       </c>
     </row>
     <row r="179" spans="1:6" x14ac:dyDescent="0.25">
@@ -6384,10 +6432,10 @@
         <v>181</v>
       </c>
       <c r="E179" t="s">
-        <v>762</v>
+        <v>760</v>
       </c>
       <c r="F179" t="s">
-        <v>801</v>
+        <v>797</v>
       </c>
     </row>
     <row r="180" spans="1:6" x14ac:dyDescent="0.25">
@@ -6404,10 +6452,10 @@
         <v>182</v>
       </c>
       <c r="E180" t="s">
-        <v>762</v>
+        <v>760</v>
       </c>
       <c r="F180" t="s">
-        <v>801</v>
+        <v>797</v>
       </c>
     </row>
     <row r="181" spans="1:6" x14ac:dyDescent="0.25">
@@ -6424,10 +6472,10 @@
         <v>183</v>
       </c>
       <c r="E181" t="s">
-        <v>762</v>
+        <v>760</v>
       </c>
       <c r="F181" t="s">
-        <v>801</v>
+        <v>797</v>
       </c>
     </row>
     <row r="182" spans="1:6" x14ac:dyDescent="0.25">
@@ -6444,10 +6492,10 @@
         <v>184</v>
       </c>
       <c r="E182" t="s">
-        <v>762</v>
+        <v>760</v>
       </c>
       <c r="F182" t="s">
-        <v>801</v>
+        <v>797</v>
       </c>
     </row>
     <row r="183" spans="1:6" x14ac:dyDescent="0.25">
@@ -6464,10 +6512,10 @@
         <v>185</v>
       </c>
       <c r="E183" t="s">
-        <v>762</v>
+        <v>760</v>
       </c>
       <c r="F183" t="s">
-        <v>801</v>
+        <v>797</v>
       </c>
     </row>
     <row r="184" spans="1:6" x14ac:dyDescent="0.25">
@@ -6484,10 +6532,10 @@
         <v>186</v>
       </c>
       <c r="E184" t="s">
-        <v>762</v>
+        <v>760</v>
       </c>
       <c r="F184" t="s">
-        <v>801</v>
+        <v>797</v>
       </c>
     </row>
     <row r="185" spans="1:6" x14ac:dyDescent="0.25">
@@ -6504,10 +6552,10 @@
         <v>187</v>
       </c>
       <c r="E185" t="s">
-        <v>762</v>
+        <v>760</v>
       </c>
       <c r="F185" t="s">
-        <v>801</v>
+        <v>797</v>
       </c>
     </row>
     <row r="186" spans="1:6" x14ac:dyDescent="0.25">
@@ -6524,10 +6572,10 @@
         <v>188</v>
       </c>
       <c r="E186" t="s">
-        <v>762</v>
+        <v>760</v>
       </c>
       <c r="F186" t="s">
-        <v>801</v>
+        <v>797</v>
       </c>
     </row>
     <row r="187" spans="1:6" x14ac:dyDescent="0.25">
@@ -6544,10 +6592,10 @@
         <v>189</v>
       </c>
       <c r="E187" t="s">
-        <v>762</v>
+        <v>760</v>
       </c>
       <c r="F187" t="s">
-        <v>801</v>
+        <v>797</v>
       </c>
     </row>
     <row r="188" spans="1:6" x14ac:dyDescent="0.25">
@@ -6564,10 +6612,10 @@
         <v>190</v>
       </c>
       <c r="E188" t="s">
-        <v>762</v>
+        <v>760</v>
       </c>
       <c r="F188" t="s">
-        <v>801</v>
+        <v>797</v>
       </c>
     </row>
     <row r="189" spans="1:6" x14ac:dyDescent="0.25">
@@ -6584,10 +6632,10 @@
         <v>191</v>
       </c>
       <c r="E189" t="s">
-        <v>762</v>
+        <v>760</v>
       </c>
       <c r="F189" t="s">
-        <v>801</v>
+        <v>797</v>
       </c>
     </row>
     <row r="190" spans="1:6" x14ac:dyDescent="0.25">
@@ -6604,10 +6652,10 @@
         <v>192</v>
       </c>
       <c r="E190" t="s">
-        <v>762</v>
+        <v>760</v>
       </c>
       <c r="F190" t="s">
-        <v>801</v>
+        <v>797</v>
       </c>
     </row>
     <row r="191" spans="1:6" x14ac:dyDescent="0.25">
@@ -6624,10 +6672,10 @@
         <v>193</v>
       </c>
       <c r="E191" t="s">
-        <v>762</v>
+        <v>760</v>
       </c>
       <c r="F191" t="s">
-        <v>801</v>
+        <v>797</v>
       </c>
     </row>
     <row r="192" spans="1:6" x14ac:dyDescent="0.25">
@@ -6644,10 +6692,10 @@
         <v>194</v>
       </c>
       <c r="E192" t="s">
-        <v>762</v>
+        <v>760</v>
       </c>
       <c r="F192" t="s">
-        <v>801</v>
+        <v>797</v>
       </c>
     </row>
     <row r="193" spans="1:6" x14ac:dyDescent="0.25">
@@ -6664,10 +6712,10 @@
         <v>195</v>
       </c>
       <c r="E193" t="s">
-        <v>762</v>
+        <v>760</v>
       </c>
       <c r="F193" t="s">
-        <v>801</v>
+        <v>797</v>
       </c>
     </row>
     <row r="194" spans="1:6" x14ac:dyDescent="0.25">
@@ -6684,10 +6732,10 @@
         <v>196</v>
       </c>
       <c r="E194" t="s">
-        <v>762</v>
+        <v>760</v>
       </c>
       <c r="F194" t="s">
-        <v>801</v>
+        <v>797</v>
       </c>
     </row>
     <row r="195" spans="1:6" x14ac:dyDescent="0.25">
@@ -6704,10 +6752,10 @@
         <v>197</v>
       </c>
       <c r="E195" t="s">
-        <v>762</v>
+        <v>760</v>
       </c>
       <c r="F195" t="s">
-        <v>801</v>
+        <v>797</v>
       </c>
     </row>
     <row r="196" spans="1:6" x14ac:dyDescent="0.25">
@@ -6724,10 +6772,10 @@
         <v>198</v>
       </c>
       <c r="E196" t="s">
-        <v>762</v>
+        <v>760</v>
       </c>
       <c r="F196" t="s">
-        <v>801</v>
+        <v>797</v>
       </c>
     </row>
     <row r="197" spans="1:6" x14ac:dyDescent="0.25">
@@ -6744,10 +6792,10 @@
         <v>199</v>
       </c>
       <c r="E197" t="s">
-        <v>762</v>
+        <v>760</v>
       </c>
       <c r="F197" t="s">
-        <v>801</v>
+        <v>797</v>
       </c>
     </row>
     <row r="198" spans="1:6" x14ac:dyDescent="0.25">
@@ -6764,10 +6812,10 @@
         <v>200</v>
       </c>
       <c r="E198" t="s">
-        <v>762</v>
+        <v>760</v>
       </c>
       <c r="F198" t="s">
-        <v>801</v>
+        <v>797</v>
       </c>
     </row>
     <row r="199" spans="1:6" x14ac:dyDescent="0.25">
@@ -6784,10 +6832,10 @@
         <v>201</v>
       </c>
       <c r="E199" t="s">
-        <v>762</v>
+        <v>760</v>
       </c>
       <c r="F199" t="s">
-        <v>801</v>
+        <v>797</v>
       </c>
     </row>
     <row r="200" spans="1:6" x14ac:dyDescent="0.25">
@@ -6804,10 +6852,10 @@
         <v>202</v>
       </c>
       <c r="E200" t="s">
-        <v>762</v>
+        <v>760</v>
       </c>
       <c r="F200" t="s">
-        <v>801</v>
+        <v>797</v>
       </c>
     </row>
     <row r="201" spans="1:6" x14ac:dyDescent="0.25">
@@ -6824,10 +6872,10 @@
         <v>203</v>
       </c>
       <c r="E201" t="s">
-        <v>762</v>
+        <v>760</v>
       </c>
       <c r="F201" t="s">
-        <v>801</v>
+        <v>797</v>
       </c>
     </row>
     <row r="202" spans="1:6" x14ac:dyDescent="0.25">
@@ -6844,10 +6892,10 @@
         <v>204</v>
       </c>
       <c r="E202" t="s">
-        <v>762</v>
+        <v>760</v>
       </c>
       <c r="F202" t="s">
-        <v>801</v>
+        <v>797</v>
       </c>
     </row>
     <row r="203" spans="1:6" x14ac:dyDescent="0.25">
@@ -6864,10 +6912,10 @@
         <v>205</v>
       </c>
       <c r="E203" t="s">
-        <v>762</v>
+        <v>760</v>
       </c>
       <c r="F203" t="s">
-        <v>801</v>
+        <v>797</v>
       </c>
     </row>
     <row r="204" spans="1:6" x14ac:dyDescent="0.25">
@@ -6884,10 +6932,10 @@
         <v>206</v>
       </c>
       <c r="E204" t="s">
-        <v>762</v>
+        <v>760</v>
       </c>
       <c r="F204" t="s">
-        <v>801</v>
+        <v>797</v>
       </c>
     </row>
     <row r="205" spans="1:6" x14ac:dyDescent="0.25">
@@ -6904,10 +6952,10 @@
         <v>207</v>
       </c>
       <c r="E205" t="s">
-        <v>762</v>
+        <v>760</v>
       </c>
       <c r="F205" t="s">
-        <v>801</v>
+        <v>797</v>
       </c>
     </row>
     <row r="206" spans="1:6" x14ac:dyDescent="0.25">
@@ -6924,10 +6972,10 @@
         <v>208</v>
       </c>
       <c r="E206" t="s">
-        <v>762</v>
+        <v>760</v>
       </c>
       <c r="F206" t="s">
-        <v>801</v>
+        <v>797</v>
       </c>
     </row>
     <row r="207" spans="1:6" x14ac:dyDescent="0.25">
@@ -6944,10 +6992,10 @@
         <v>209</v>
       </c>
       <c r="E207" t="s">
-        <v>762</v>
+        <v>760</v>
       </c>
       <c r="F207" t="s">
-        <v>801</v>
+        <v>797</v>
       </c>
     </row>
     <row r="208" spans="1:6" x14ac:dyDescent="0.25">
@@ -6964,10 +7012,10 @@
         <v>210</v>
       </c>
       <c r="E208" t="s">
-        <v>762</v>
+        <v>760</v>
       </c>
       <c r="F208" t="s">
-        <v>801</v>
+        <v>797</v>
       </c>
     </row>
     <row r="209" spans="1:6" x14ac:dyDescent="0.25">
@@ -6984,10 +7032,10 @@
         <v>211</v>
       </c>
       <c r="E209" t="s">
-        <v>762</v>
+        <v>760</v>
       </c>
       <c r="F209" t="s">
-        <v>801</v>
+        <v>797</v>
       </c>
     </row>
     <row r="210" spans="1:6" x14ac:dyDescent="0.25">
@@ -7004,10 +7052,10 @@
         <v>212</v>
       </c>
       <c r="E210" t="s">
-        <v>762</v>
+        <v>760</v>
       </c>
       <c r="F210" t="s">
-        <v>801</v>
+        <v>797</v>
       </c>
     </row>
     <row r="211" spans="1:6" x14ac:dyDescent="0.25">
@@ -7024,10 +7072,10 @@
         <v>213</v>
       </c>
       <c r="E211" t="s">
-        <v>762</v>
+        <v>760</v>
       </c>
       <c r="F211" t="s">
-        <v>801</v>
+        <v>797</v>
       </c>
     </row>
     <row r="212" spans="1:6" x14ac:dyDescent="0.25">
@@ -7044,10 +7092,10 @@
         <v>214</v>
       </c>
       <c r="E212" t="s">
-        <v>762</v>
+        <v>760</v>
       </c>
       <c r="F212" t="s">
-        <v>801</v>
+        <v>797</v>
       </c>
     </row>
     <row r="213" spans="1:6" x14ac:dyDescent="0.25">
@@ -7064,10 +7112,10 @@
         <v>215</v>
       </c>
       <c r="E213" t="s">
-        <v>762</v>
+        <v>760</v>
       </c>
       <c r="F213" t="s">
-        <v>801</v>
+        <v>797</v>
       </c>
     </row>
     <row r="214" spans="1:6" x14ac:dyDescent="0.25">
@@ -7084,10 +7132,10 @@
         <v>216</v>
       </c>
       <c r="E214" t="s">
-        <v>762</v>
+        <v>760</v>
       </c>
       <c r="F214" t="s">
-        <v>801</v>
+        <v>797</v>
       </c>
     </row>
     <row r="215" spans="1:6" x14ac:dyDescent="0.25">
@@ -7104,10 +7152,10 @@
         <v>217</v>
       </c>
       <c r="E215" t="s">
-        <v>762</v>
+        <v>760</v>
       </c>
       <c r="F215" t="s">
-        <v>801</v>
+        <v>797</v>
       </c>
     </row>
     <row r="216" spans="1:6" x14ac:dyDescent="0.25">
@@ -7124,10 +7172,10 @@
         <v>218</v>
       </c>
       <c r="E216" t="s">
-        <v>762</v>
+        <v>760</v>
       </c>
       <c r="F216" t="s">
-        <v>801</v>
+        <v>797</v>
       </c>
     </row>
     <row r="217" spans="1:6" x14ac:dyDescent="0.25">
@@ -7144,10 +7192,10 @@
         <v>219</v>
       </c>
       <c r="E217" t="s">
-        <v>762</v>
+        <v>760</v>
       </c>
       <c r="F217" t="s">
-        <v>801</v>
+        <v>797</v>
       </c>
     </row>
     <row r="218" spans="1:6" x14ac:dyDescent="0.25">
@@ -7164,10 +7212,10 @@
         <v>220</v>
       </c>
       <c r="E218" t="s">
-        <v>762</v>
+        <v>760</v>
       </c>
       <c r="F218" t="s">
-        <v>801</v>
+        <v>797</v>
       </c>
     </row>
     <row r="219" spans="1:6" x14ac:dyDescent="0.25">
@@ -7184,10 +7232,10 @@
         <v>221</v>
       </c>
       <c r="E219" t="s">
-        <v>762</v>
+        <v>760</v>
       </c>
       <c r="F219" t="s">
-        <v>801</v>
+        <v>797</v>
       </c>
     </row>
     <row r="220" spans="1:6" x14ac:dyDescent="0.25">
@@ -7204,10 +7252,10 @@
         <v>222</v>
       </c>
       <c r="E220" t="s">
-        <v>762</v>
+        <v>760</v>
       </c>
       <c r="F220" t="s">
-        <v>801</v>
+        <v>797</v>
       </c>
     </row>
     <row r="221" spans="1:6" x14ac:dyDescent="0.25">
@@ -7224,10 +7272,10 @@
         <v>223</v>
       </c>
       <c r="E221" t="s">
-        <v>762</v>
+        <v>760</v>
       </c>
       <c r="F221" t="s">
-        <v>801</v>
+        <v>797</v>
       </c>
     </row>
     <row r="222" spans="1:6" x14ac:dyDescent="0.25">
@@ -7244,10 +7292,10 @@
         <v>224</v>
       </c>
       <c r="E222" t="s">
-        <v>762</v>
+        <v>760</v>
       </c>
       <c r="F222" t="s">
-        <v>801</v>
+        <v>797</v>
       </c>
     </row>
     <row r="223" spans="1:6" x14ac:dyDescent="0.25">
@@ -7264,10 +7312,10 @@
         <v>225</v>
       </c>
       <c r="E223" t="s">
-        <v>762</v>
+        <v>760</v>
       </c>
       <c r="F223" t="s">
-        <v>801</v>
+        <v>797</v>
       </c>
     </row>
     <row r="224" spans="1:6" x14ac:dyDescent="0.25">
@@ -7284,10 +7332,10 @@
         <v>226</v>
       </c>
       <c r="E224" t="s">
-        <v>762</v>
+        <v>760</v>
       </c>
       <c r="F224" t="s">
-        <v>801</v>
+        <v>797</v>
       </c>
     </row>
     <row r="225" spans="1:6" x14ac:dyDescent="0.25">
@@ -7304,10 +7352,10 @@
         <v>227</v>
       </c>
       <c r="E225" t="s">
-        <v>762</v>
+        <v>760</v>
       </c>
       <c r="F225" t="s">
-        <v>801</v>
+        <v>797</v>
       </c>
     </row>
     <row r="226" spans="1:6" x14ac:dyDescent="0.25">
@@ -7324,10 +7372,10 @@
         <v>228</v>
       </c>
       <c r="E226" t="s">
-        <v>762</v>
+        <v>760</v>
       </c>
       <c r="F226" t="s">
-        <v>801</v>
+        <v>797</v>
       </c>
     </row>
     <row r="227" spans="1:6" x14ac:dyDescent="0.25">
@@ -7344,10 +7392,10 @@
         <v>229</v>
       </c>
       <c r="E227" t="s">
-        <v>760</v>
+        <v>817</v>
       </c>
       <c r="F227" t="s">
-        <v>770</v>
+        <v>768</v>
       </c>
     </row>
     <row r="228" spans="1:6" x14ac:dyDescent="0.25">
@@ -7364,10 +7412,10 @@
         <v>230</v>
       </c>
       <c r="E228" t="s">
-        <v>760</v>
+        <v>817</v>
       </c>
       <c r="F228" t="s">
-        <v>770</v>
+        <v>768</v>
       </c>
     </row>
     <row r="229" spans="1:6" x14ac:dyDescent="0.25">
@@ -7384,10 +7432,10 @@
         <v>231</v>
       </c>
       <c r="E229" t="s">
-        <v>760</v>
+        <v>817</v>
       </c>
       <c r="F229" t="s">
-        <v>770</v>
+        <v>768</v>
       </c>
     </row>
     <row r="230" spans="1:6" x14ac:dyDescent="0.25">
@@ -7404,10 +7452,10 @@
         <v>232</v>
       </c>
       <c r="E230" t="s">
-        <v>760</v>
+        <v>817</v>
       </c>
       <c r="F230" t="s">
-        <v>770</v>
+        <v>768</v>
       </c>
     </row>
     <row r="231" spans="1:6" x14ac:dyDescent="0.25">
@@ -7424,10 +7472,10 @@
         <v>233</v>
       </c>
       <c r="E231" t="s">
-        <v>760</v>
+        <v>817</v>
       </c>
       <c r="F231" t="s">
-        <v>770</v>
+        <v>768</v>
       </c>
     </row>
     <row r="232" spans="1:6" x14ac:dyDescent="0.25">
@@ -7444,10 +7492,10 @@
         <v>234</v>
       </c>
       <c r="E232" t="s">
-        <v>760</v>
+        <v>817</v>
       </c>
       <c r="F232" t="s">
-        <v>770</v>
+        <v>768</v>
       </c>
     </row>
     <row r="233" spans="1:6" x14ac:dyDescent="0.25">
@@ -7464,10 +7512,10 @@
         <v>235</v>
       </c>
       <c r="E233" t="s">
-        <v>760</v>
+        <v>817</v>
       </c>
       <c r="F233" t="s">
-        <v>770</v>
+        <v>768</v>
       </c>
     </row>
     <row r="234" spans="1:6" x14ac:dyDescent="0.25">
@@ -7484,10 +7532,10 @@
         <v>236</v>
       </c>
       <c r="E234" t="s">
-        <v>760</v>
+        <v>817</v>
       </c>
       <c r="F234" t="s">
-        <v>770</v>
+        <v>768</v>
       </c>
     </row>
     <row r="235" spans="1:6" x14ac:dyDescent="0.25">
@@ -7504,10 +7552,10 @@
         <v>237</v>
       </c>
       <c r="E235" t="s">
-        <v>760</v>
+        <v>817</v>
       </c>
       <c r="F235" t="s">
-        <v>770</v>
+        <v>768</v>
       </c>
     </row>
     <row r="236" spans="1:6" x14ac:dyDescent="0.25">
@@ -7524,10 +7572,10 @@
         <v>238</v>
       </c>
       <c r="E236" t="s">
-        <v>760</v>
+        <v>817</v>
       </c>
       <c r="F236" t="s">
-        <v>770</v>
+        <v>768</v>
       </c>
     </row>
     <row r="237" spans="1:6" x14ac:dyDescent="0.25">
@@ -7544,10 +7592,10 @@
         <v>239</v>
       </c>
       <c r="E237" t="s">
-        <v>760</v>
+        <v>817</v>
       </c>
       <c r="F237" t="s">
-        <v>770</v>
+        <v>768</v>
       </c>
     </row>
     <row r="238" spans="1:6" x14ac:dyDescent="0.25">
@@ -7564,10 +7612,10 @@
         <v>240</v>
       </c>
       <c r="E238" t="s">
-        <v>760</v>
+        <v>817</v>
       </c>
       <c r="F238" t="s">
-        <v>770</v>
+        <v>768</v>
       </c>
     </row>
     <row r="239" spans="1:6" x14ac:dyDescent="0.25">
@@ -7584,10 +7632,10 @@
         <v>241</v>
       </c>
       <c r="E239" t="s">
-        <v>760</v>
+        <v>817</v>
       </c>
       <c r="F239" t="s">
-        <v>770</v>
+        <v>768</v>
       </c>
     </row>
     <row r="240" spans="1:6" x14ac:dyDescent="0.25">
@@ -7604,10 +7652,10 @@
         <v>242</v>
       </c>
       <c r="E240" t="s">
-        <v>760</v>
+        <v>817</v>
       </c>
       <c r="F240" t="s">
-        <v>770</v>
+        <v>768</v>
       </c>
     </row>
     <row r="241" spans="1:6" x14ac:dyDescent="0.25">
@@ -7624,10 +7672,10 @@
         <v>243</v>
       </c>
       <c r="E241" t="s">
-        <v>760</v>
+        <v>817</v>
       </c>
       <c r="F241" t="s">
-        <v>770</v>
+        <v>768</v>
       </c>
     </row>
     <row r="242" spans="1:6" x14ac:dyDescent="0.25">
@@ -7644,10 +7692,10 @@
         <v>244</v>
       </c>
       <c r="E242" t="s">
-        <v>760</v>
+        <v>817</v>
       </c>
       <c r="F242" t="s">
-        <v>770</v>
+        <v>768</v>
       </c>
     </row>
     <row r="243" spans="1:6" x14ac:dyDescent="0.25">
@@ -7664,10 +7712,10 @@
         <v>245</v>
       </c>
       <c r="E243" t="s">
-        <v>760</v>
+        <v>817</v>
       </c>
       <c r="F243" t="s">
-        <v>770</v>
+        <v>768</v>
       </c>
     </row>
     <row r="244" spans="1:6" x14ac:dyDescent="0.25">
@@ -7684,10 +7732,10 @@
         <v>246</v>
       </c>
       <c r="E244" t="s">
-        <v>760</v>
+        <v>817</v>
       </c>
       <c r="F244" t="s">
-        <v>770</v>
+        <v>768</v>
       </c>
     </row>
     <row r="245" spans="1:6" x14ac:dyDescent="0.25">
@@ -7704,10 +7752,10 @@
         <v>247</v>
       </c>
       <c r="E245" t="s">
-        <v>760</v>
+        <v>817</v>
       </c>
       <c r="F245" t="s">
-        <v>770</v>
+        <v>768</v>
       </c>
     </row>
     <row r="246" spans="1:6" x14ac:dyDescent="0.25">
@@ -7724,10 +7772,10 @@
         <v>248</v>
       </c>
       <c r="E246" t="s">
-        <v>760</v>
+        <v>817</v>
       </c>
       <c r="F246" t="s">
-        <v>770</v>
+        <v>768</v>
       </c>
     </row>
     <row r="247" spans="1:6" x14ac:dyDescent="0.25">
@@ -7744,10 +7792,10 @@
         <v>249</v>
       </c>
       <c r="E247" t="s">
-        <v>760</v>
+        <v>817</v>
       </c>
       <c r="F247" t="s">
-        <v>770</v>
+        <v>768</v>
       </c>
     </row>
     <row r="248" spans="1:6" x14ac:dyDescent="0.25">
@@ -7764,10 +7812,10 @@
         <v>250</v>
       </c>
       <c r="E248" t="s">
-        <v>760</v>
+        <v>817</v>
       </c>
       <c r="F248" t="s">
-        <v>770</v>
+        <v>768</v>
       </c>
     </row>
     <row r="249" spans="1:6" x14ac:dyDescent="0.25">
@@ -7784,10 +7832,10 @@
         <v>251</v>
       </c>
       <c r="E249" t="s">
-        <v>760</v>
+        <v>817</v>
       </c>
       <c r="F249" t="s">
-        <v>770</v>
+        <v>768</v>
       </c>
     </row>
     <row r="250" spans="1:6" x14ac:dyDescent="0.25">
@@ -7804,10 +7852,10 @@
         <v>252</v>
       </c>
       <c r="E250" t="s">
-        <v>760</v>
+        <v>817</v>
       </c>
       <c r="F250" t="s">
-        <v>770</v>
+        <v>768</v>
       </c>
     </row>
     <row r="251" spans="1:6" x14ac:dyDescent="0.25">
@@ -7824,10 +7872,10 @@
         <v>253</v>
       </c>
       <c r="E251" t="s">
-        <v>760</v>
+        <v>817</v>
       </c>
       <c r="F251" t="s">
-        <v>770</v>
+        <v>768</v>
       </c>
     </row>
     <row r="252" spans="1:6" x14ac:dyDescent="0.25">
@@ -7844,10 +7892,10 @@
         <v>254</v>
       </c>
       <c r="E252" t="s">
-        <v>760</v>
+        <v>817</v>
       </c>
       <c r="F252" t="s">
-        <v>770</v>
+        <v>768</v>
       </c>
     </row>
     <row r="253" spans="1:6" x14ac:dyDescent="0.25">
@@ -7864,10 +7912,10 @@
         <v>255</v>
       </c>
       <c r="E253" t="s">
-        <v>760</v>
+        <v>817</v>
       </c>
       <c r="F253" t="s">
-        <v>770</v>
+        <v>768</v>
       </c>
     </row>
     <row r="254" spans="1:6" x14ac:dyDescent="0.25">
@@ -7884,10 +7932,10 @@
         <v>256</v>
       </c>
       <c r="E254" t="s">
-        <v>760</v>
+        <v>817</v>
       </c>
       <c r="F254" t="s">
-        <v>770</v>
+        <v>768</v>
       </c>
     </row>
     <row r="255" spans="1:6" x14ac:dyDescent="0.25">
@@ -7904,10 +7952,10 @@
         <v>257</v>
       </c>
       <c r="E255" t="s">
-        <v>760</v>
+        <v>817</v>
       </c>
       <c r="F255" t="s">
-        <v>770</v>
+        <v>768</v>
       </c>
     </row>
     <row r="256" spans="1:6" x14ac:dyDescent="0.25">
@@ -7924,10 +7972,10 @@
         <v>258</v>
       </c>
       <c r="E256" t="s">
-        <v>760</v>
+        <v>817</v>
       </c>
       <c r="F256" t="s">
-        <v>770</v>
+        <v>768</v>
       </c>
     </row>
     <row r="257" spans="1:6" x14ac:dyDescent="0.25">
@@ -7944,10 +7992,10 @@
         <v>259</v>
       </c>
       <c r="E257" t="s">
-        <v>760</v>
+        <v>817</v>
       </c>
       <c r="F257" t="s">
-        <v>770</v>
+        <v>768</v>
       </c>
     </row>
     <row r="258" spans="1:6" x14ac:dyDescent="0.25">
@@ -7964,10 +8012,10 @@
         <v>260</v>
       </c>
       <c r="E258" t="s">
-        <v>760</v>
+        <v>817</v>
       </c>
       <c r="F258" t="s">
-        <v>770</v>
+        <v>768</v>
       </c>
     </row>
     <row r="259" spans="1:6" x14ac:dyDescent="0.25">
@@ -7984,10 +8032,10 @@
         <v>261</v>
       </c>
       <c r="E259" t="s">
-        <v>760</v>
+        <v>817</v>
       </c>
       <c r="F259" t="s">
-        <v>770</v>
+        <v>768</v>
       </c>
     </row>
     <row r="260" spans="1:6" x14ac:dyDescent="0.25">
@@ -8004,10 +8052,10 @@
         <v>262</v>
       </c>
       <c r="E260" t="s">
-        <v>760</v>
+        <v>817</v>
       </c>
       <c r="F260" t="s">
-        <v>770</v>
+        <v>768</v>
       </c>
     </row>
     <row r="261" spans="1:6" x14ac:dyDescent="0.25">
@@ -8024,10 +8072,10 @@
         <v>263</v>
       </c>
       <c r="E261" t="s">
-        <v>760</v>
+        <v>817</v>
       </c>
       <c r="F261" t="s">
-        <v>770</v>
+        <v>768</v>
       </c>
     </row>
     <row r="262" spans="1:6" x14ac:dyDescent="0.25">
@@ -8044,10 +8092,10 @@
         <v>264</v>
       </c>
       <c r="E262" t="s">
-        <v>760</v>
+        <v>817</v>
       </c>
       <c r="F262" t="s">
-        <v>770</v>
+        <v>768</v>
       </c>
     </row>
     <row r="263" spans="1:6" x14ac:dyDescent="0.25">
@@ -8064,10 +8112,10 @@
         <v>265</v>
       </c>
       <c r="E263" t="s">
-        <v>761</v>
+        <v>817</v>
       </c>
       <c r="F263" t="s">
-        <v>771</v>
+        <v>768</v>
       </c>
     </row>
     <row r="264" spans="1:6" x14ac:dyDescent="0.25">
@@ -8084,10 +8132,10 @@
         <v>266</v>
       </c>
       <c r="E264" t="s">
-        <v>761</v>
+        <v>817</v>
       </c>
       <c r="F264" t="s">
-        <v>771</v>
+        <v>768</v>
       </c>
     </row>
     <row r="265" spans="1:6" x14ac:dyDescent="0.25">
@@ -8104,10 +8152,10 @@
         <v>267</v>
       </c>
       <c r="E265" t="s">
-        <v>761</v>
+        <v>817</v>
       </c>
       <c r="F265" t="s">
-        <v>771</v>
+        <v>768</v>
       </c>
     </row>
     <row r="266" spans="1:6" x14ac:dyDescent="0.25">
@@ -8124,10 +8172,10 @@
         <v>268</v>
       </c>
       <c r="E266" t="s">
-        <v>761</v>
+        <v>817</v>
       </c>
       <c r="F266" t="s">
-        <v>771</v>
+        <v>768</v>
       </c>
     </row>
     <row r="267" spans="1:6" x14ac:dyDescent="0.25">
@@ -8144,10 +8192,10 @@
         <v>269</v>
       </c>
       <c r="E267" t="s">
-        <v>761</v>
+        <v>817</v>
       </c>
       <c r="F267" t="s">
-        <v>771</v>
+        <v>768</v>
       </c>
     </row>
     <row r="268" spans="1:6" x14ac:dyDescent="0.25">
@@ -8164,10 +8212,10 @@
         <v>270</v>
       </c>
       <c r="E268" t="s">
-        <v>761</v>
+        <v>817</v>
       </c>
       <c r="F268" t="s">
-        <v>771</v>
+        <v>768</v>
       </c>
     </row>
     <row r="269" spans="1:6" x14ac:dyDescent="0.25">
@@ -8184,10 +8232,10 @@
         <v>271</v>
       </c>
       <c r="E269" t="s">
-        <v>761</v>
+        <v>817</v>
       </c>
       <c r="F269" t="s">
-        <v>771</v>
+        <v>768</v>
       </c>
     </row>
     <row r="270" spans="1:6" x14ac:dyDescent="0.25">
@@ -8204,10 +8252,10 @@
         <v>272</v>
       </c>
       <c r="E270" t="s">
-        <v>761</v>
+        <v>817</v>
       </c>
       <c r="F270" t="s">
-        <v>771</v>
+        <v>768</v>
       </c>
     </row>
     <row r="271" spans="1:6" x14ac:dyDescent="0.25">
@@ -8224,10 +8272,10 @@
         <v>273</v>
       </c>
       <c r="E271" t="s">
-        <v>761</v>
+        <v>817</v>
       </c>
       <c r="F271" t="s">
-        <v>771</v>
+        <v>768</v>
       </c>
     </row>
     <row r="272" spans="1:6" x14ac:dyDescent="0.25">
@@ -8244,10 +8292,10 @@
         <v>274</v>
       </c>
       <c r="E272" t="s">
-        <v>761</v>
+        <v>817</v>
       </c>
       <c r="F272" t="s">
-        <v>771</v>
+        <v>768</v>
       </c>
     </row>
     <row r="273" spans="1:6" x14ac:dyDescent="0.25">
@@ -8264,10 +8312,10 @@
         <v>275</v>
       </c>
       <c r="E273" t="s">
-        <v>761</v>
+        <v>817</v>
       </c>
       <c r="F273" t="s">
-        <v>771</v>
+        <v>768</v>
       </c>
     </row>
     <row r="274" spans="1:6" x14ac:dyDescent="0.25">
@@ -8284,10 +8332,10 @@
         <v>276</v>
       </c>
       <c r="E274" t="s">
-        <v>761</v>
+        <v>817</v>
       </c>
       <c r="F274" t="s">
-        <v>771</v>
+        <v>768</v>
       </c>
     </row>
     <row r="275" spans="1:6" x14ac:dyDescent="0.25">
@@ -8304,10 +8352,10 @@
         <v>277</v>
       </c>
       <c r="E275" t="s">
-        <v>761</v>
+        <v>817</v>
       </c>
       <c r="F275" t="s">
-        <v>771</v>
+        <v>768</v>
       </c>
     </row>
     <row r="276" spans="1:6" x14ac:dyDescent="0.25">
@@ -8324,10 +8372,10 @@
         <v>278</v>
       </c>
       <c r="E276" t="s">
-        <v>761</v>
+        <v>817</v>
       </c>
       <c r="F276" t="s">
-        <v>771</v>
+        <v>768</v>
       </c>
     </row>
     <row r="277" spans="1:6" x14ac:dyDescent="0.25">
@@ -8344,10 +8392,10 @@
         <v>279</v>
       </c>
       <c r="E277" t="s">
-        <v>761</v>
+        <v>817</v>
       </c>
       <c r="F277" t="s">
-        <v>771</v>
+        <v>768</v>
       </c>
     </row>
     <row r="278" spans="1:6" x14ac:dyDescent="0.25">
@@ -8364,10 +8412,10 @@
         <v>280</v>
       </c>
       <c r="E278" t="s">
-        <v>761</v>
+        <v>817</v>
       </c>
       <c r="F278" t="s">
-        <v>771</v>
+        <v>768</v>
       </c>
     </row>
     <row r="279" spans="1:6" x14ac:dyDescent="0.25">
@@ -8384,10 +8432,10 @@
         <v>281</v>
       </c>
       <c r="E279" t="s">
-        <v>761</v>
+        <v>817</v>
       </c>
       <c r="F279" t="s">
-        <v>771</v>
+        <v>768</v>
       </c>
     </row>
     <row r="280" spans="1:6" x14ac:dyDescent="0.25">
@@ -8404,10 +8452,10 @@
         <v>282</v>
       </c>
       <c r="E280" t="s">
-        <v>761</v>
+        <v>817</v>
       </c>
       <c r="F280" t="s">
-        <v>771</v>
+        <v>768</v>
       </c>
     </row>
     <row r="281" spans="1:6" x14ac:dyDescent="0.25">
@@ -8424,10 +8472,10 @@
         <v>283</v>
       </c>
       <c r="E281" t="s">
-        <v>761</v>
+        <v>817</v>
       </c>
       <c r="F281" t="s">
-        <v>771</v>
+        <v>768</v>
       </c>
     </row>
     <row r="282" spans="1:6" x14ac:dyDescent="0.25">
@@ -8444,10 +8492,10 @@
         <v>284</v>
       </c>
       <c r="E282" t="s">
-        <v>761</v>
+        <v>817</v>
       </c>
       <c r="F282" t="s">
-        <v>771</v>
+        <v>768</v>
       </c>
     </row>
     <row r="283" spans="1:6" x14ac:dyDescent="0.25">
@@ -8464,10 +8512,10 @@
         <v>285</v>
       </c>
       <c r="E283" t="s">
-        <v>761</v>
+        <v>817</v>
       </c>
       <c r="F283" t="s">
-        <v>771</v>
+        <v>768</v>
       </c>
     </row>
     <row r="284" spans="1:6" x14ac:dyDescent="0.25">
@@ -8484,10 +8532,10 @@
         <v>286</v>
       </c>
       <c r="E284" t="s">
-        <v>761</v>
+        <v>817</v>
       </c>
       <c r="F284" t="s">
-        <v>771</v>
+        <v>768</v>
       </c>
     </row>
     <row r="285" spans="1:6" x14ac:dyDescent="0.25">
@@ -8504,10 +8552,10 @@
         <v>287</v>
       </c>
       <c r="E285" t="s">
-        <v>761</v>
+        <v>817</v>
       </c>
       <c r="F285" t="s">
-        <v>771</v>
+        <v>768</v>
       </c>
     </row>
     <row r="286" spans="1:6" x14ac:dyDescent="0.25">
@@ -8524,10 +8572,10 @@
         <v>288</v>
       </c>
       <c r="E286" t="s">
-        <v>761</v>
+        <v>817</v>
       </c>
       <c r="F286" t="s">
-        <v>771</v>
+        <v>768</v>
       </c>
     </row>
     <row r="287" spans="1:6" x14ac:dyDescent="0.25">
@@ -8544,10 +8592,10 @@
         <v>289</v>
       </c>
       <c r="E287" t="s">
-        <v>761</v>
+        <v>817</v>
       </c>
       <c r="F287" t="s">
-        <v>771</v>
+        <v>768</v>
       </c>
     </row>
     <row r="288" spans="1:6" x14ac:dyDescent="0.25">
@@ -8564,10 +8612,10 @@
         <v>290</v>
       </c>
       <c r="E288" t="s">
-        <v>761</v>
+        <v>817</v>
       </c>
       <c r="F288" t="s">
-        <v>771</v>
+        <v>768</v>
       </c>
     </row>
     <row r="289" spans="1:6" x14ac:dyDescent="0.25">
@@ -8584,10 +8632,10 @@
         <v>291</v>
       </c>
       <c r="E289" t="s">
-        <v>761</v>
+        <v>817</v>
       </c>
       <c r="F289" t="s">
-        <v>771</v>
+        <v>768</v>
       </c>
     </row>
     <row r="290" spans="1:6" x14ac:dyDescent="0.25">
@@ -8604,10 +8652,10 @@
         <v>292</v>
       </c>
       <c r="E290" t="s">
-        <v>761</v>
+        <v>817</v>
       </c>
       <c r="F290" t="s">
-        <v>771</v>
+        <v>768</v>
       </c>
     </row>
     <row r="291" spans="1:6" x14ac:dyDescent="0.25">
@@ -8624,10 +8672,10 @@
         <v>293</v>
       </c>
       <c r="E291" t="s">
-        <v>761</v>
+        <v>817</v>
       </c>
       <c r="F291" t="s">
-        <v>771</v>
+        <v>768</v>
       </c>
     </row>
     <row r="292" spans="1:6" x14ac:dyDescent="0.25">
@@ -8644,10 +8692,10 @@
         <v>294</v>
       </c>
       <c r="E292" t="s">
-        <v>761</v>
+        <v>817</v>
       </c>
       <c r="F292" t="s">
-        <v>771</v>
+        <v>768</v>
       </c>
     </row>
     <row r="293" spans="1:6" x14ac:dyDescent="0.25">
@@ -8664,10 +8712,10 @@
         <v>295</v>
       </c>
       <c r="E293" t="s">
-        <v>761</v>
+        <v>817</v>
       </c>
       <c r="F293" t="s">
-        <v>771</v>
+        <v>768</v>
       </c>
     </row>
     <row r="294" spans="1:6" x14ac:dyDescent="0.25">
@@ -8684,10 +8732,10 @@
         <v>296</v>
       </c>
       <c r="E294" t="s">
-        <v>761</v>
+        <v>817</v>
       </c>
       <c r="F294" t="s">
-        <v>771</v>
+        <v>768</v>
       </c>
     </row>
     <row r="295" spans="1:6" x14ac:dyDescent="0.25">
@@ -8704,10 +8752,10 @@
         <v>297</v>
       </c>
       <c r="E295" t="s">
-        <v>761</v>
+        <v>817</v>
       </c>
       <c r="F295" t="s">
-        <v>771</v>
+        <v>768</v>
       </c>
     </row>
     <row r="296" spans="1:6" x14ac:dyDescent="0.25">
@@ -8724,10 +8772,10 @@
         <v>298</v>
       </c>
       <c r="E296" t="s">
-        <v>761</v>
+        <v>817</v>
       </c>
       <c r="F296" t="s">
-        <v>771</v>
+        <v>768</v>
       </c>
     </row>
     <row r="297" spans="1:6" x14ac:dyDescent="0.25">
@@ -8744,10 +8792,10 @@
         <v>299</v>
       </c>
       <c r="E297" t="s">
-        <v>761</v>
+        <v>817</v>
       </c>
       <c r="F297" t="s">
-        <v>771</v>
+        <v>768</v>
       </c>
     </row>
     <row r="298" spans="1:6" x14ac:dyDescent="0.25">
@@ -8764,10 +8812,10 @@
         <v>300</v>
       </c>
       <c r="E298" t="s">
-        <v>761</v>
+        <v>817</v>
       </c>
       <c r="F298" t="s">
-        <v>771</v>
+        <v>768</v>
       </c>
     </row>
     <row r="299" spans="1:6" x14ac:dyDescent="0.25">
@@ -8784,10 +8832,10 @@
         <v>301</v>
       </c>
       <c r="E299" t="s">
-        <v>761</v>
+        <v>817</v>
       </c>
       <c r="F299" t="s">
-        <v>771</v>
+        <v>768</v>
       </c>
     </row>
     <row r="300" spans="1:6" x14ac:dyDescent="0.25">
@@ -8804,10 +8852,10 @@
         <v>302</v>
       </c>
       <c r="E300" t="s">
-        <v>761</v>
+        <v>817</v>
       </c>
       <c r="F300" t="s">
-        <v>771</v>
+        <v>768</v>
       </c>
     </row>
     <row r="301" spans="1:6" x14ac:dyDescent="0.25">
@@ -8824,10 +8872,10 @@
         <v>303</v>
       </c>
       <c r="E301" t="s">
-        <v>761</v>
+        <v>817</v>
       </c>
       <c r="F301" t="s">
-        <v>771</v>
+        <v>768</v>
       </c>
     </row>
     <row r="302" spans="1:6" x14ac:dyDescent="0.25">
@@ -8844,10 +8892,10 @@
         <v>304</v>
       </c>
       <c r="E302" t="s">
-        <v>761</v>
+        <v>817</v>
       </c>
       <c r="F302" t="s">
-        <v>771</v>
+        <v>768</v>
       </c>
     </row>
     <row r="303" spans="1:6" x14ac:dyDescent="0.25">
@@ -8864,10 +8912,10 @@
         <v>305</v>
       </c>
       <c r="E303" t="s">
-        <v>761</v>
+        <v>817</v>
       </c>
       <c r="F303" t="s">
-        <v>771</v>
+        <v>768</v>
       </c>
     </row>
     <row r="304" spans="1:6" x14ac:dyDescent="0.25">
@@ -8884,10 +8932,10 @@
         <v>306</v>
       </c>
       <c r="E304" t="s">
-        <v>761</v>
+        <v>817</v>
       </c>
       <c r="F304" t="s">
-        <v>771</v>
+        <v>768</v>
       </c>
     </row>
     <row r="305" spans="1:6" x14ac:dyDescent="0.25">
@@ -8904,10 +8952,10 @@
         <v>307</v>
       </c>
       <c r="E305" t="s">
-        <v>761</v>
+        <v>817</v>
       </c>
       <c r="F305" t="s">
-        <v>771</v>
+        <v>768</v>
       </c>
     </row>
     <row r="306" spans="1:6" x14ac:dyDescent="0.25">
@@ -8924,10 +8972,10 @@
         <v>308</v>
       </c>
       <c r="E306" t="s">
-        <v>761</v>
+        <v>817</v>
       </c>
       <c r="F306" t="s">
-        <v>771</v>
+        <v>768</v>
       </c>
     </row>
     <row r="307" spans="1:6" x14ac:dyDescent="0.25">
@@ -8944,10 +8992,10 @@
         <v>309</v>
       </c>
       <c r="E307" t="s">
-        <v>761</v>
+        <v>817</v>
       </c>
       <c r="F307" t="s">
-        <v>771</v>
+        <v>768</v>
       </c>
     </row>
     <row r="308" spans="1:6" x14ac:dyDescent="0.25">
@@ -8964,10 +9012,10 @@
         <v>310</v>
       </c>
       <c r="E308" t="s">
-        <v>761</v>
+        <v>817</v>
       </c>
       <c r="F308" t="s">
-        <v>771</v>
+        <v>768</v>
       </c>
     </row>
     <row r="309" spans="1:6" x14ac:dyDescent="0.25">
@@ -8984,10 +9032,10 @@
         <v>311</v>
       </c>
       <c r="E309" t="s">
-        <v>761</v>
+        <v>817</v>
       </c>
       <c r="F309" t="s">
-        <v>771</v>
+        <v>768</v>
       </c>
     </row>
     <row r="310" spans="1:6" x14ac:dyDescent="0.25">
@@ -9004,10 +9052,10 @@
         <v>312</v>
       </c>
       <c r="E310" t="s">
-        <v>761</v>
+        <v>817</v>
       </c>
       <c r="F310" t="s">
-        <v>771</v>
+        <v>768</v>
       </c>
     </row>
     <row r="311" spans="1:6" x14ac:dyDescent="0.25">
@@ -9024,10 +9072,10 @@
         <v>313</v>
       </c>
       <c r="E311" t="s">
-        <v>761</v>
+        <v>817</v>
       </c>
       <c r="F311" t="s">
-        <v>771</v>
+        <v>768</v>
       </c>
     </row>
     <row r="312" spans="1:6" x14ac:dyDescent="0.25">
@@ -9044,10 +9092,10 @@
         <v>314</v>
       </c>
       <c r="E312" t="s">
-        <v>761</v>
+        <v>817</v>
       </c>
       <c r="F312" t="s">
-        <v>771</v>
+        <v>768</v>
       </c>
     </row>
     <row r="313" spans="1:6" x14ac:dyDescent="0.25">
@@ -9064,10 +9112,10 @@
         <v>315</v>
       </c>
       <c r="E313" t="s">
-        <v>761</v>
+        <v>817</v>
       </c>
       <c r="F313" t="s">
-        <v>771</v>
+        <v>768</v>
       </c>
     </row>
     <row r="314" spans="1:6" x14ac:dyDescent="0.25">
@@ -9084,10 +9132,10 @@
         <v>316</v>
       </c>
       <c r="E314" t="s">
-        <v>761</v>
+        <v>817</v>
       </c>
       <c r="F314" t="s">
-        <v>771</v>
+        <v>768</v>
       </c>
     </row>
     <row r="315" spans="1:6" x14ac:dyDescent="0.25">
@@ -9104,10 +9152,10 @@
         <v>317</v>
       </c>
       <c r="E315" t="s">
-        <v>761</v>
+        <v>817</v>
       </c>
       <c r="F315" t="s">
-        <v>771</v>
+        <v>768</v>
       </c>
     </row>
     <row r="316" spans="1:6" x14ac:dyDescent="0.25">
@@ -9124,10 +9172,10 @@
         <v>318</v>
       </c>
       <c r="E316" t="s">
-        <v>761</v>
+        <v>817</v>
       </c>
       <c r="F316" t="s">
-        <v>771</v>
+        <v>768</v>
       </c>
     </row>
     <row r="317" spans="1:6" x14ac:dyDescent="0.25">
@@ -9144,10 +9192,10 @@
         <v>319</v>
       </c>
       <c r="E317" t="s">
-        <v>761</v>
+        <v>817</v>
       </c>
       <c r="F317" t="s">
-        <v>771</v>
+        <v>768</v>
       </c>
     </row>
     <row r="318" spans="1:6" x14ac:dyDescent="0.25">
@@ -9164,10 +9212,10 @@
         <v>320</v>
       </c>
       <c r="E318" t="s">
-        <v>761</v>
+        <v>817</v>
       </c>
       <c r="F318" t="s">
-        <v>771</v>
+        <v>768</v>
       </c>
     </row>
     <row r="319" spans="1:6" x14ac:dyDescent="0.25">
@@ -9184,10 +9232,10 @@
         <v>321</v>
       </c>
       <c r="E319" t="s">
-        <v>761</v>
+        <v>817</v>
       </c>
       <c r="F319" t="s">
-        <v>771</v>
+        <v>768</v>
       </c>
     </row>
     <row r="320" spans="1:6" x14ac:dyDescent="0.25">
@@ -9204,10 +9252,10 @@
         <v>322</v>
       </c>
       <c r="E320" t="s">
-        <v>761</v>
+        <v>817</v>
       </c>
       <c r="F320" t="s">
-        <v>771</v>
+        <v>768</v>
       </c>
     </row>
     <row r="321" spans="1:6" x14ac:dyDescent="0.25">
@@ -9224,10 +9272,10 @@
         <v>323</v>
       </c>
       <c r="E321" t="s">
-        <v>761</v>
+        <v>817</v>
       </c>
       <c r="F321" t="s">
-        <v>771</v>
+        <v>768</v>
       </c>
     </row>
     <row r="322" spans="1:6" x14ac:dyDescent="0.25">
@@ -9244,10 +9292,10 @@
         <v>324</v>
       </c>
       <c r="E322" t="s">
-        <v>761</v>
+        <v>817</v>
       </c>
       <c r="F322" t="s">
-        <v>771</v>
+        <v>768</v>
       </c>
     </row>
     <row r="323" spans="1:6" x14ac:dyDescent="0.25">
@@ -9264,10 +9312,10 @@
         <v>325</v>
       </c>
       <c r="E323" t="s">
-        <v>761</v>
+        <v>817</v>
       </c>
       <c r="F323" t="s">
-        <v>771</v>
+        <v>768</v>
       </c>
     </row>
     <row r="324" spans="1:6" x14ac:dyDescent="0.25">
@@ -9284,10 +9332,10 @@
         <v>326</v>
       </c>
       <c r="E324" t="s">
-        <v>761</v>
+        <v>817</v>
       </c>
       <c r="F324" t="s">
-        <v>771</v>
+        <v>768</v>
       </c>
     </row>
     <row r="325" spans="1:6" x14ac:dyDescent="0.25">
@@ -9304,10 +9352,10 @@
         <v>327</v>
       </c>
       <c r="E325" t="s">
-        <v>761</v>
+        <v>817</v>
       </c>
       <c r="F325" t="s">
-        <v>771</v>
+        <v>768</v>
       </c>
     </row>
     <row r="326" spans="1:6" x14ac:dyDescent="0.25">
@@ -9324,10 +9372,10 @@
         <v>328</v>
       </c>
       <c r="E326" t="s">
-        <v>779</v>
+        <v>775</v>
       </c>
       <c r="F326" t="s">
-        <v>778</v>
+        <v>815</v>
       </c>
     </row>
     <row r="327" spans="1:6" x14ac:dyDescent="0.25">
@@ -9344,10 +9392,10 @@
         <v>329</v>
       </c>
       <c r="E327" t="s">
-        <v>779</v>
+        <v>775</v>
       </c>
       <c r="F327" t="s">
-        <v>778</v>
+        <v>815</v>
       </c>
     </row>
     <row r="328" spans="1:6" x14ac:dyDescent="0.25">
@@ -9364,10 +9412,10 @@
         <v>330</v>
       </c>
       <c r="E328" t="s">
-        <v>779</v>
+        <v>775</v>
       </c>
       <c r="F328" t="s">
-        <v>778</v>
+        <v>815</v>
       </c>
     </row>
     <row r="329" spans="1:6" x14ac:dyDescent="0.25">
@@ -9384,10 +9432,10 @@
         <v>331</v>
       </c>
       <c r="E329" t="s">
-        <v>779</v>
+        <v>775</v>
       </c>
       <c r="F329" t="s">
-        <v>778</v>
+        <v>815</v>
       </c>
     </row>
     <row r="330" spans="1:6" x14ac:dyDescent="0.25">
@@ -9404,10 +9452,10 @@
         <v>332</v>
       </c>
       <c r="E330" t="s">
-        <v>779</v>
+        <v>775</v>
       </c>
       <c r="F330" t="s">
-        <v>778</v>
+        <v>815</v>
       </c>
     </row>
     <row r="331" spans="1:6" x14ac:dyDescent="0.25">
@@ -9424,10 +9472,10 @@
         <v>333</v>
       </c>
       <c r="E331" t="s">
-        <v>779</v>
+        <v>775</v>
       </c>
       <c r="F331" t="s">
-        <v>778</v>
+        <v>815</v>
       </c>
     </row>
     <row r="332" spans="1:6" x14ac:dyDescent="0.25">
@@ -9444,10 +9492,10 @@
         <v>334</v>
       </c>
       <c r="E332" t="s">
-        <v>779</v>
+        <v>775</v>
       </c>
       <c r="F332" t="s">
-        <v>778</v>
+        <v>815</v>
       </c>
     </row>
     <row r="333" spans="1:6" x14ac:dyDescent="0.25">
@@ -9464,10 +9512,10 @@
         <v>335</v>
       </c>
       <c r="E333" t="s">
-        <v>779</v>
+        <v>775</v>
       </c>
       <c r="F333" t="s">
-        <v>778</v>
+        <v>815</v>
       </c>
     </row>
     <row r="334" spans="1:6" x14ac:dyDescent="0.25">
@@ -9484,10 +9532,10 @@
         <v>336</v>
       </c>
       <c r="E334" t="s">
-        <v>779</v>
+        <v>775</v>
       </c>
       <c r="F334" t="s">
-        <v>778</v>
+        <v>815</v>
       </c>
     </row>
     <row r="335" spans="1:6" x14ac:dyDescent="0.25">
@@ -9504,10 +9552,10 @@
         <v>337</v>
       </c>
       <c r="E335" t="s">
-        <v>779</v>
+        <v>775</v>
       </c>
       <c r="F335" t="s">
-        <v>778</v>
+        <v>815</v>
       </c>
     </row>
     <row r="336" spans="1:6" x14ac:dyDescent="0.25">
@@ -9524,10 +9572,10 @@
         <v>338</v>
       </c>
       <c r="E336" t="s">
-        <v>779</v>
+        <v>775</v>
       </c>
       <c r="F336" t="s">
-        <v>778</v>
+        <v>815</v>
       </c>
     </row>
     <row r="337" spans="1:6" x14ac:dyDescent="0.25">
@@ -9544,10 +9592,10 @@
         <v>339</v>
       </c>
       <c r="E337" t="s">
-        <v>779</v>
+        <v>775</v>
       </c>
       <c r="F337" t="s">
-        <v>778</v>
+        <v>815</v>
       </c>
     </row>
     <row r="338" spans="1:6" x14ac:dyDescent="0.25">
@@ -9564,10 +9612,10 @@
         <v>340</v>
       </c>
       <c r="E338" t="s">
-        <v>779</v>
+        <v>775</v>
       </c>
       <c r="F338" t="s">
-        <v>778</v>
+        <v>815</v>
       </c>
     </row>
     <row r="339" spans="1:6" x14ac:dyDescent="0.25">
@@ -9584,10 +9632,10 @@
         <v>341</v>
       </c>
       <c r="E339" t="s">
-        <v>779</v>
+        <v>775</v>
       </c>
       <c r="F339" t="s">
-        <v>778</v>
+        <v>815</v>
       </c>
     </row>
     <row r="340" spans="1:6" x14ac:dyDescent="0.25">
@@ -9604,10 +9652,10 @@
         <v>342</v>
       </c>
       <c r="E340" t="s">
-        <v>779</v>
+        <v>775</v>
       </c>
       <c r="F340" t="s">
-        <v>778</v>
+        <v>815</v>
       </c>
     </row>
     <row r="341" spans="1:6" x14ac:dyDescent="0.25">
@@ -9624,10 +9672,10 @@
         <v>343</v>
       </c>
       <c r="E341" t="s">
-        <v>779</v>
+        <v>775</v>
       </c>
       <c r="F341" t="s">
-        <v>778</v>
+        <v>815</v>
       </c>
     </row>
     <row r="342" spans="1:6" x14ac:dyDescent="0.25">
@@ -9644,10 +9692,10 @@
         <v>344</v>
       </c>
       <c r="E342" t="s">
-        <v>779</v>
+        <v>775</v>
       </c>
       <c r="F342" t="s">
-        <v>778</v>
+        <v>815</v>
       </c>
     </row>
     <row r="343" spans="1:6" x14ac:dyDescent="0.25">
@@ -9664,10 +9712,10 @@
         <v>345</v>
       </c>
       <c r="E343" t="s">
-        <v>779</v>
+        <v>775</v>
       </c>
       <c r="F343" t="s">
-        <v>778</v>
+        <v>815</v>
       </c>
     </row>
     <row r="344" spans="1:6" x14ac:dyDescent="0.25">
@@ -9684,10 +9732,10 @@
         <v>346</v>
       </c>
       <c r="E344" t="s">
-        <v>779</v>
+        <v>775</v>
       </c>
       <c r="F344" t="s">
-        <v>778</v>
+        <v>815</v>
       </c>
     </row>
     <row r="345" spans="1:6" x14ac:dyDescent="0.25">
@@ -9704,10 +9752,10 @@
         <v>347</v>
       </c>
       <c r="E345" t="s">
-        <v>779</v>
+        <v>775</v>
       </c>
       <c r="F345" t="s">
-        <v>778</v>
+        <v>815</v>
       </c>
     </row>
     <row r="346" spans="1:6" x14ac:dyDescent="0.25">
@@ -9724,10 +9772,10 @@
         <v>348</v>
       </c>
       <c r="E346" t="s">
-        <v>779</v>
+        <v>775</v>
       </c>
       <c r="F346" t="s">
-        <v>778</v>
+        <v>815</v>
       </c>
     </row>
     <row r="347" spans="1:6" x14ac:dyDescent="0.25">
@@ -9744,10 +9792,10 @@
         <v>349</v>
       </c>
       <c r="E347" t="s">
-        <v>779</v>
+        <v>775</v>
       </c>
       <c r="F347" t="s">
-        <v>778</v>
+        <v>815</v>
       </c>
     </row>
     <row r="348" spans="1:6" x14ac:dyDescent="0.25">
@@ -9764,10 +9812,10 @@
         <v>350</v>
       </c>
       <c r="E348" t="s">
-        <v>779</v>
+        <v>775</v>
       </c>
       <c r="F348" t="s">
-        <v>778</v>
+        <v>815</v>
       </c>
     </row>
     <row r="349" spans="1:6" x14ac:dyDescent="0.25">
@@ -9784,10 +9832,10 @@
         <v>351</v>
       </c>
       <c r="E349" t="s">
-        <v>779</v>
+        <v>775</v>
       </c>
       <c r="F349" t="s">
-        <v>778</v>
+        <v>815</v>
       </c>
     </row>
     <row r="350" spans="1:6" x14ac:dyDescent="0.25">
@@ -9804,10 +9852,10 @@
         <v>352</v>
       </c>
       <c r="E350" t="s">
-        <v>779</v>
+        <v>775</v>
       </c>
       <c r="F350" t="s">
-        <v>778</v>
+        <v>815</v>
       </c>
     </row>
     <row r="351" spans="1:6" x14ac:dyDescent="0.25">
@@ -9824,10 +9872,10 @@
         <v>353</v>
       </c>
       <c r="E351" t="s">
-        <v>779</v>
+        <v>775</v>
       </c>
       <c r="F351" t="s">
-        <v>778</v>
+        <v>815</v>
       </c>
     </row>
     <row r="352" spans="1:6" x14ac:dyDescent="0.25">
@@ -9844,10 +9892,10 @@
         <v>354</v>
       </c>
       <c r="E352" t="s">
-        <v>779</v>
+        <v>775</v>
       </c>
       <c r="F352" t="s">
-        <v>778</v>
+        <v>815</v>
       </c>
     </row>
     <row r="353" spans="1:6" x14ac:dyDescent="0.25">
@@ -9864,10 +9912,10 @@
         <v>355</v>
       </c>
       <c r="E353" t="s">
-        <v>763</v>
+        <v>761</v>
       </c>
       <c r="F353" t="s">
-        <v>772</v>
+        <v>769</v>
       </c>
     </row>
     <row r="354" spans="1:6" x14ac:dyDescent="0.25">
@@ -9884,10 +9932,10 @@
         <v>356</v>
       </c>
       <c r="E354" t="s">
-        <v>763</v>
+        <v>761</v>
       </c>
       <c r="F354" t="s">
-        <v>772</v>
+        <v>769</v>
       </c>
     </row>
     <row r="355" spans="1:6" x14ac:dyDescent="0.25">
@@ -9904,10 +9952,10 @@
         <v>357</v>
       </c>
       <c r="E355" t="s">
-        <v>763</v>
+        <v>761</v>
       </c>
       <c r="F355" t="s">
-        <v>772</v>
+        <v>769</v>
       </c>
     </row>
     <row r="356" spans="1:6" x14ac:dyDescent="0.25">
@@ -9924,10 +9972,10 @@
         <v>358</v>
       </c>
       <c r="E356" t="s">
-        <v>763</v>
+        <v>761</v>
       </c>
       <c r="F356" t="s">
-        <v>772</v>
+        <v>769</v>
       </c>
     </row>
     <row r="357" spans="1:6" x14ac:dyDescent="0.25">
@@ -9944,10 +9992,10 @@
         <v>359</v>
       </c>
       <c r="E357" t="s">
-        <v>763</v>
+        <v>761</v>
       </c>
       <c r="F357" t="s">
-        <v>772</v>
+        <v>769</v>
       </c>
     </row>
     <row r="358" spans="1:6" x14ac:dyDescent="0.25">
@@ -9964,10 +10012,10 @@
         <v>360</v>
       </c>
       <c r="E358" t="s">
-        <v>763</v>
+        <v>761</v>
       </c>
       <c r="F358" t="s">
-        <v>772</v>
+        <v>769</v>
       </c>
     </row>
     <row r="359" spans="1:6" x14ac:dyDescent="0.25">
@@ -9984,10 +10032,10 @@
         <v>361</v>
       </c>
       <c r="E359" t="s">
-        <v>763</v>
+        <v>761</v>
       </c>
       <c r="F359" t="s">
-        <v>772</v>
+        <v>769</v>
       </c>
     </row>
     <row r="360" spans="1:6" x14ac:dyDescent="0.25">
@@ -10004,10 +10052,10 @@
         <v>362</v>
       </c>
       <c r="E360" t="s">
-        <v>763</v>
+        <v>761</v>
       </c>
       <c r="F360" t="s">
-        <v>772</v>
+        <v>769</v>
       </c>
     </row>
     <row r="361" spans="1:6" x14ac:dyDescent="0.25">
@@ -10024,10 +10072,10 @@
         <v>363</v>
       </c>
       <c r="E361" t="s">
-        <v>763</v>
+        <v>761</v>
       </c>
       <c r="F361" t="s">
-        <v>772</v>
+        <v>769</v>
       </c>
     </row>
     <row r="362" spans="1:6" x14ac:dyDescent="0.25">
@@ -10044,10 +10092,10 @@
         <v>364</v>
       </c>
       <c r="E362" t="s">
-        <v>763</v>
+        <v>761</v>
       </c>
       <c r="F362" t="s">
-        <v>772</v>
+        <v>769</v>
       </c>
     </row>
     <row r="363" spans="1:6" x14ac:dyDescent="0.25">
@@ -10064,10 +10112,10 @@
         <v>365</v>
       </c>
       <c r="E363" t="s">
-        <v>763</v>
+        <v>761</v>
       </c>
       <c r="F363" t="s">
-        <v>772</v>
+        <v>769</v>
       </c>
     </row>
     <row r="364" spans="1:6" x14ac:dyDescent="0.25">
@@ -10084,10 +10132,10 @@
         <v>366</v>
       </c>
       <c r="E364" t="s">
-        <v>763</v>
+        <v>761</v>
       </c>
       <c r="F364" t="s">
-        <v>772</v>
+        <v>769</v>
       </c>
     </row>
     <row r="365" spans="1:6" x14ac:dyDescent="0.25">
@@ -10104,10 +10152,10 @@
         <v>367</v>
       </c>
       <c r="E365" t="s">
-        <v>763</v>
+        <v>761</v>
       </c>
       <c r="F365" t="s">
-        <v>772</v>
+        <v>769</v>
       </c>
     </row>
     <row r="366" spans="1:6" x14ac:dyDescent="0.25">
@@ -10124,10 +10172,10 @@
         <v>368</v>
       </c>
       <c r="E366" t="s">
-        <v>763</v>
+        <v>761</v>
       </c>
       <c r="F366" t="s">
-        <v>772</v>
+        <v>769</v>
       </c>
     </row>
     <row r="367" spans="1:6" x14ac:dyDescent="0.25">
@@ -10144,10 +10192,10 @@
         <v>369</v>
       </c>
       <c r="E367" t="s">
-        <v>763</v>
+        <v>761</v>
       </c>
       <c r="F367" t="s">
-        <v>772</v>
+        <v>769</v>
       </c>
     </row>
     <row r="368" spans="1:6" x14ac:dyDescent="0.25">
@@ -10164,10 +10212,10 @@
         <v>370</v>
       </c>
       <c r="E368" t="s">
-        <v>763</v>
+        <v>761</v>
       </c>
       <c r="F368" t="s">
-        <v>772</v>
+        <v>769</v>
       </c>
     </row>
     <row r="369" spans="1:6" x14ac:dyDescent="0.25">
@@ -10184,10 +10232,10 @@
         <v>371</v>
       </c>
       <c r="E369" t="s">
-        <v>763</v>
+        <v>761</v>
       </c>
       <c r="F369" t="s">
-        <v>772</v>
+        <v>769</v>
       </c>
     </row>
     <row r="370" spans="1:6" x14ac:dyDescent="0.25">
@@ -10204,10 +10252,10 @@
         <v>372</v>
       </c>
       <c r="E370" t="s">
-        <v>763</v>
+        <v>761</v>
       </c>
       <c r="F370" t="s">
-        <v>772</v>
+        <v>769</v>
       </c>
     </row>
     <row r="371" spans="1:6" x14ac:dyDescent="0.25">
@@ -10224,10 +10272,10 @@
         <v>373</v>
       </c>
       <c r="E371" t="s">
-        <v>763</v>
+        <v>761</v>
       </c>
       <c r="F371" t="s">
-        <v>772</v>
+        <v>769</v>
       </c>
     </row>
     <row r="372" spans="1:6" x14ac:dyDescent="0.25">
@@ -10244,10 +10292,10 @@
         <v>374</v>
       </c>
       <c r="E372" t="s">
-        <v>763</v>
+        <v>761</v>
       </c>
       <c r="F372" t="s">
-        <v>772</v>
+        <v>769</v>
       </c>
     </row>
     <row r="373" spans="1:6" x14ac:dyDescent="0.25">
@@ -10264,10 +10312,10 @@
         <v>375</v>
       </c>
       <c r="E373" t="s">
-        <v>763</v>
+        <v>761</v>
       </c>
       <c r="F373" t="s">
-        <v>772</v>
+        <v>769</v>
       </c>
     </row>
     <row r="374" spans="1:6" x14ac:dyDescent="0.25">
@@ -10284,10 +10332,10 @@
         <v>376</v>
       </c>
       <c r="E374" t="s">
-        <v>763</v>
+        <v>761</v>
       </c>
       <c r="F374" t="s">
-        <v>772</v>
+        <v>769</v>
       </c>
     </row>
     <row r="375" spans="1:6" x14ac:dyDescent="0.25">
@@ -10304,10 +10352,10 @@
         <v>377</v>
       </c>
       <c r="E375" t="s">
-        <v>763</v>
+        <v>761</v>
       </c>
       <c r="F375" t="s">
-        <v>772</v>
+        <v>769</v>
       </c>
     </row>
     <row r="376" spans="1:6" x14ac:dyDescent="0.25">
@@ -10324,10 +10372,10 @@
         <v>378</v>
       </c>
       <c r="E376" t="s">
-        <v>763</v>
+        <v>761</v>
       </c>
       <c r="F376" t="s">
-        <v>772</v>
+        <v>769</v>
       </c>
     </row>
     <row r="377" spans="1:6" x14ac:dyDescent="0.25">
@@ -10344,10 +10392,10 @@
         <v>379</v>
       </c>
       <c r="E377" t="s">
-        <v>763</v>
+        <v>761</v>
       </c>
       <c r="F377" t="s">
-        <v>772</v>
+        <v>769</v>
       </c>
     </row>
     <row r="378" spans="1:6" x14ac:dyDescent="0.25">
@@ -10364,10 +10412,10 @@
         <v>380</v>
       </c>
       <c r="E378" t="s">
-        <v>763</v>
+        <v>761</v>
       </c>
       <c r="F378" t="s">
-        <v>772</v>
+        <v>769</v>
       </c>
     </row>
     <row r="379" spans="1:6" x14ac:dyDescent="0.25">
@@ -10384,10 +10432,10 @@
         <v>381</v>
       </c>
       <c r="E379" t="s">
-        <v>763</v>
+        <v>761</v>
       </c>
       <c r="F379" t="s">
-        <v>772</v>
+        <v>769</v>
       </c>
     </row>
     <row r="380" spans="1:6" x14ac:dyDescent="0.25">
@@ -10404,10 +10452,10 @@
         <v>382</v>
       </c>
       <c r="E380" t="s">
-        <v>763</v>
+        <v>761</v>
       </c>
       <c r="F380" t="s">
-        <v>772</v>
+        <v>769</v>
       </c>
     </row>
     <row r="381" spans="1:6" x14ac:dyDescent="0.25">
@@ -10424,10 +10472,10 @@
         <v>383</v>
       </c>
       <c r="E381" t="s">
-        <v>763</v>
+        <v>761</v>
       </c>
       <c r="F381" t="s">
-        <v>772</v>
+        <v>769</v>
       </c>
     </row>
     <row r="382" spans="1:6" x14ac:dyDescent="0.25">
@@ -10444,10 +10492,10 @@
         <v>384</v>
       </c>
       <c r="E382" t="s">
-        <v>763</v>
+        <v>761</v>
       </c>
       <c r="F382" t="s">
-        <v>772</v>
+        <v>769</v>
       </c>
     </row>
     <row r="383" spans="1:6" x14ac:dyDescent="0.25">
@@ -10464,10 +10512,10 @@
         <v>385</v>
       </c>
       <c r="E383" t="s">
-        <v>763</v>
+        <v>761</v>
       </c>
       <c r="F383" t="s">
-        <v>772</v>
+        <v>769</v>
       </c>
     </row>
     <row r="384" spans="1:6" x14ac:dyDescent="0.25">
@@ -10484,10 +10532,10 @@
         <v>386</v>
       </c>
       <c r="E384" t="s">
-        <v>763</v>
+        <v>761</v>
       </c>
       <c r="F384" t="s">
-        <v>772</v>
+        <v>769</v>
       </c>
     </row>
     <row r="385" spans="1:6" x14ac:dyDescent="0.25">
@@ -10504,10 +10552,10 @@
         <v>387</v>
       </c>
       <c r="E385" t="s">
-        <v>763</v>
+        <v>761</v>
       </c>
       <c r="F385" t="s">
-        <v>772</v>
+        <v>769</v>
       </c>
     </row>
     <row r="386" spans="1:6" x14ac:dyDescent="0.25">
@@ -10524,10 +10572,10 @@
         <v>388</v>
       </c>
       <c r="E386" t="s">
-        <v>763</v>
+        <v>761</v>
       </c>
       <c r="F386" t="s">
-        <v>772</v>
+        <v>769</v>
       </c>
     </row>
     <row r="387" spans="1:6" x14ac:dyDescent="0.25">
@@ -10544,10 +10592,10 @@
         <v>389</v>
       </c>
       <c r="E387" t="s">
-        <v>763</v>
+        <v>761</v>
       </c>
       <c r="F387" t="s">
-        <v>772</v>
+        <v>769</v>
       </c>
     </row>
     <row r="388" spans="1:6" x14ac:dyDescent="0.25">
@@ -10564,10 +10612,10 @@
         <v>390</v>
       </c>
       <c r="E388" t="s">
-        <v>763</v>
+        <v>761</v>
       </c>
       <c r="F388" t="s">
-        <v>772</v>
+        <v>769</v>
       </c>
     </row>
     <row r="389" spans="1:6" x14ac:dyDescent="0.25">
@@ -10584,10 +10632,10 @@
         <v>391</v>
       </c>
       <c r="E389" t="s">
-        <v>763</v>
+        <v>761</v>
       </c>
       <c r="F389" t="s">
-        <v>772</v>
+        <v>769</v>
       </c>
     </row>
     <row r="390" spans="1:6" x14ac:dyDescent="0.25">
@@ -10604,10 +10652,10 @@
         <v>392</v>
       </c>
       <c r="E390" t="s">
-        <v>763</v>
+        <v>761</v>
       </c>
       <c r="F390" t="s">
-        <v>772</v>
+        <v>769</v>
       </c>
     </row>
     <row r="391" spans="1:6" x14ac:dyDescent="0.25">
@@ -10624,10 +10672,10 @@
         <v>393</v>
       </c>
       <c r="E391" t="s">
-        <v>763</v>
+        <v>761</v>
       </c>
       <c r="F391" t="s">
-        <v>772</v>
+        <v>769</v>
       </c>
     </row>
     <row r="392" spans="1:6" x14ac:dyDescent="0.25">
@@ -10644,10 +10692,10 @@
         <v>394</v>
       </c>
       <c r="E392" t="s">
-        <v>763</v>
+        <v>761</v>
       </c>
       <c r="F392" t="s">
-        <v>772</v>
+        <v>769</v>
       </c>
     </row>
     <row r="393" spans="1:6" x14ac:dyDescent="0.25">
@@ -10664,10 +10712,10 @@
         <v>395</v>
       </c>
       <c r="E393" t="s">
-        <v>763</v>
+        <v>761</v>
       </c>
       <c r="F393" t="s">
-        <v>772</v>
+        <v>769</v>
       </c>
     </row>
     <row r="394" spans="1:6" x14ac:dyDescent="0.25">
@@ -10684,10 +10732,10 @@
         <v>396</v>
       </c>
       <c r="E394" t="s">
-        <v>763</v>
+        <v>761</v>
       </c>
       <c r="F394" t="s">
-        <v>772</v>
+        <v>769</v>
       </c>
     </row>
     <row r="395" spans="1:6" x14ac:dyDescent="0.25">
@@ -10704,10 +10752,10 @@
         <v>397</v>
       </c>
       <c r="E395" t="s">
-        <v>763</v>
+        <v>761</v>
       </c>
       <c r="F395" t="s">
-        <v>772</v>
+        <v>769</v>
       </c>
     </row>
     <row r="396" spans="1:6" x14ac:dyDescent="0.25">
@@ -10724,10 +10772,10 @@
         <v>398</v>
       </c>
       <c r="E396" t="s">
-        <v>763</v>
+        <v>761</v>
       </c>
       <c r="F396" t="s">
-        <v>772</v>
+        <v>769</v>
       </c>
     </row>
     <row r="397" spans="1:6" x14ac:dyDescent="0.25">
@@ -10744,10 +10792,10 @@
         <v>399</v>
       </c>
       <c r="E397" t="s">
-        <v>763</v>
+        <v>761</v>
       </c>
       <c r="F397" t="s">
-        <v>772</v>
+        <v>769</v>
       </c>
     </row>
     <row r="398" spans="1:6" x14ac:dyDescent="0.25">
@@ -10764,10 +10812,10 @@
         <v>400</v>
       </c>
       <c r="E398" t="s">
-        <v>780</v>
+        <v>776</v>
       </c>
       <c r="F398" t="s">
-        <v>781</v>
+        <v>777</v>
       </c>
     </row>
     <row r="399" spans="1:6" x14ac:dyDescent="0.25">
@@ -10784,10 +10832,10 @@
         <v>401</v>
       </c>
       <c r="E399" t="s">
-        <v>780</v>
+        <v>776</v>
       </c>
       <c r="F399" t="s">
-        <v>781</v>
+        <v>777</v>
       </c>
     </row>
     <row r="400" spans="1:6" x14ac:dyDescent="0.25">
@@ -10804,10 +10852,10 @@
         <v>402</v>
       </c>
       <c r="E400" t="s">
-        <v>780</v>
+        <v>776</v>
       </c>
       <c r="F400" t="s">
-        <v>781</v>
+        <v>777</v>
       </c>
     </row>
     <row r="401" spans="1:6" x14ac:dyDescent="0.25">
@@ -10824,10 +10872,10 @@
         <v>403</v>
       </c>
       <c r="E401" t="s">
-        <v>780</v>
+        <v>776</v>
       </c>
       <c r="F401" t="s">
-        <v>781</v>
+        <v>777</v>
       </c>
     </row>
     <row r="402" spans="1:6" x14ac:dyDescent="0.25">
@@ -10844,10 +10892,10 @@
         <v>404</v>
       </c>
       <c r="E402" t="s">
-        <v>780</v>
+        <v>776</v>
       </c>
       <c r="F402" t="s">
-        <v>781</v>
+        <v>777</v>
       </c>
     </row>
     <row r="403" spans="1:6" x14ac:dyDescent="0.25">
@@ -10864,10 +10912,10 @@
         <v>405</v>
       </c>
       <c r="E403" t="s">
-        <v>780</v>
+        <v>776</v>
       </c>
       <c r="F403" t="s">
-        <v>781</v>
+        <v>777</v>
       </c>
     </row>
     <row r="404" spans="1:6" x14ac:dyDescent="0.25">
@@ -10884,10 +10932,10 @@
         <v>406</v>
       </c>
       <c r="E404" t="s">
-        <v>780</v>
+        <v>776</v>
       </c>
       <c r="F404" t="s">
-        <v>781</v>
+        <v>777</v>
       </c>
     </row>
     <row r="405" spans="1:6" x14ac:dyDescent="0.25">
@@ -10904,10 +10952,10 @@
         <v>407</v>
       </c>
       <c r="E405" t="s">
-        <v>780</v>
+        <v>776</v>
       </c>
       <c r="F405" t="s">
-        <v>781</v>
+        <v>777</v>
       </c>
     </row>
     <row r="406" spans="1:6" x14ac:dyDescent="0.25">
@@ -10924,10 +10972,10 @@
         <v>408</v>
       </c>
       <c r="E406" t="s">
-        <v>780</v>
+        <v>776</v>
       </c>
       <c r="F406" t="s">
-        <v>781</v>
+        <v>777</v>
       </c>
     </row>
     <row r="407" spans="1:6" x14ac:dyDescent="0.25">
@@ -10944,10 +10992,10 @@
         <v>409</v>
       </c>
       <c r="E407" t="s">
-        <v>780</v>
+        <v>776</v>
       </c>
       <c r="F407" t="s">
-        <v>781</v>
+        <v>777</v>
       </c>
     </row>
     <row r="408" spans="1:6" x14ac:dyDescent="0.25">
@@ -10964,10 +11012,10 @@
         <v>410</v>
       </c>
       <c r="E408" t="s">
-        <v>780</v>
+        <v>776</v>
       </c>
       <c r="F408" t="s">
-        <v>781</v>
+        <v>777</v>
       </c>
     </row>
     <row r="409" spans="1:6" x14ac:dyDescent="0.25">
@@ -10984,10 +11032,10 @@
         <v>411</v>
       </c>
       <c r="E409" t="s">
-        <v>780</v>
+        <v>776</v>
       </c>
       <c r="F409" t="s">
-        <v>781</v>
+        <v>777</v>
       </c>
     </row>
     <row r="410" spans="1:6" x14ac:dyDescent="0.25">
@@ -11004,10 +11052,10 @@
         <v>412</v>
       </c>
       <c r="E410" t="s">
-        <v>780</v>
+        <v>776</v>
       </c>
       <c r="F410" t="s">
-        <v>781</v>
+        <v>777</v>
       </c>
     </row>
     <row r="411" spans="1:6" x14ac:dyDescent="0.25">
@@ -11024,10 +11072,10 @@
         <v>413</v>
       </c>
       <c r="E411" t="s">
-        <v>780</v>
+        <v>776</v>
       </c>
       <c r="F411" t="s">
-        <v>781</v>
+        <v>777</v>
       </c>
     </row>
     <row r="412" spans="1:6" x14ac:dyDescent="0.25">
@@ -11044,10 +11092,10 @@
         <v>414</v>
       </c>
       <c r="E412" t="s">
-        <v>780</v>
+        <v>776</v>
       </c>
       <c r="F412" t="s">
-        <v>781</v>
+        <v>777</v>
       </c>
     </row>
     <row r="413" spans="1:6" x14ac:dyDescent="0.25">
@@ -11064,10 +11112,10 @@
         <v>415</v>
       </c>
       <c r="E413" t="s">
-        <v>780</v>
+        <v>776</v>
       </c>
       <c r="F413" t="s">
-        <v>781</v>
+        <v>777</v>
       </c>
     </row>
     <row r="414" spans="1:6" x14ac:dyDescent="0.25">
@@ -11084,10 +11132,10 @@
         <v>416</v>
       </c>
       <c r="E414" t="s">
-        <v>780</v>
+        <v>776</v>
       </c>
       <c r="F414" t="s">
-        <v>781</v>
+        <v>777</v>
       </c>
     </row>
     <row r="415" spans="1:6" x14ac:dyDescent="0.25">
@@ -11104,10 +11152,10 @@
         <v>417</v>
       </c>
       <c r="E415" t="s">
-        <v>780</v>
+        <v>776</v>
       </c>
       <c r="F415" t="s">
-        <v>781</v>
+        <v>777</v>
       </c>
     </row>
     <row r="416" spans="1:6" x14ac:dyDescent="0.25">
@@ -11124,10 +11172,10 @@
         <v>418</v>
       </c>
       <c r="E416" t="s">
-        <v>780</v>
+        <v>776</v>
       </c>
       <c r="F416" t="s">
-        <v>781</v>
+        <v>777</v>
       </c>
     </row>
     <row r="417" spans="1:6" x14ac:dyDescent="0.25">
@@ -11144,10 +11192,10 @@
         <v>419</v>
       </c>
       <c r="E417" t="s">
-        <v>780</v>
+        <v>776</v>
       </c>
       <c r="F417" t="s">
-        <v>781</v>
+        <v>777</v>
       </c>
     </row>
     <row r="418" spans="1:6" x14ac:dyDescent="0.25">
@@ -11164,10 +11212,10 @@
         <v>420</v>
       </c>
       <c r="E418" t="s">
-        <v>780</v>
+        <v>776</v>
       </c>
       <c r="F418" t="s">
-        <v>781</v>
+        <v>777</v>
       </c>
     </row>
     <row r="419" spans="1:6" x14ac:dyDescent="0.25">
@@ -11184,10 +11232,10 @@
         <v>421</v>
       </c>
       <c r="E419" t="s">
-        <v>780</v>
+        <v>776</v>
       </c>
       <c r="F419" t="s">
-        <v>781</v>
+        <v>777</v>
       </c>
     </row>
     <row r="420" spans="1:6" x14ac:dyDescent="0.25">
@@ -11204,10 +11252,10 @@
         <v>422</v>
       </c>
       <c r="E420" t="s">
-        <v>780</v>
+        <v>776</v>
       </c>
       <c r="F420" t="s">
-        <v>781</v>
+        <v>777</v>
       </c>
     </row>
     <row r="421" spans="1:6" x14ac:dyDescent="0.25">
@@ -11224,10 +11272,10 @@
         <v>423</v>
       </c>
       <c r="E421" t="s">
-        <v>780</v>
+        <v>776</v>
       </c>
       <c r="F421" t="s">
-        <v>781</v>
+        <v>777</v>
       </c>
     </row>
     <row r="422" spans="1:6" x14ac:dyDescent="0.25">
@@ -11244,10 +11292,10 @@
         <v>424</v>
       </c>
       <c r="E422" t="s">
-        <v>780</v>
+        <v>776</v>
       </c>
       <c r="F422" t="s">
-        <v>781</v>
+        <v>777</v>
       </c>
     </row>
     <row r="423" spans="1:6" x14ac:dyDescent="0.25">
@@ -11264,10 +11312,10 @@
         <v>425</v>
       </c>
       <c r="E423" t="s">
-        <v>780</v>
+        <v>776</v>
       </c>
       <c r="F423" t="s">
-        <v>781</v>
+        <v>777</v>
       </c>
     </row>
     <row r="424" spans="1:6" x14ac:dyDescent="0.25">
@@ -11284,10 +11332,10 @@
         <v>426</v>
       </c>
       <c r="E424" t="s">
-        <v>780</v>
+        <v>776</v>
       </c>
       <c r="F424" t="s">
-        <v>781</v>
+        <v>777</v>
       </c>
     </row>
     <row r="425" spans="1:6" x14ac:dyDescent="0.25">
@@ -11304,10 +11352,10 @@
         <v>427</v>
       </c>
       <c r="E425" t="s">
-        <v>764</v>
+        <v>762</v>
       </c>
       <c r="F425" t="s">
-        <v>777</v>
+        <v>774</v>
       </c>
     </row>
     <row r="426" spans="1:6" x14ac:dyDescent="0.25">
@@ -11324,10 +11372,10 @@
         <v>428</v>
       </c>
       <c r="E426" t="s">
-        <v>764</v>
+        <v>762</v>
       </c>
       <c r="F426" t="s">
-        <v>777</v>
+        <v>774</v>
       </c>
     </row>
     <row r="427" spans="1:6" x14ac:dyDescent="0.25">
@@ -11344,10 +11392,10 @@
         <v>429</v>
       </c>
       <c r="E427" t="s">
-        <v>764</v>
+        <v>762</v>
       </c>
       <c r="F427" t="s">
-        <v>777</v>
+        <v>774</v>
       </c>
     </row>
     <row r="428" spans="1:6" x14ac:dyDescent="0.25">
@@ -11364,10 +11412,10 @@
         <v>430</v>
       </c>
       <c r="E428" t="s">
-        <v>764</v>
+        <v>762</v>
       </c>
       <c r="F428" t="s">
-        <v>777</v>
+        <v>774</v>
       </c>
     </row>
     <row r="429" spans="1:6" x14ac:dyDescent="0.25">
@@ -11384,10 +11432,10 @@
         <v>431</v>
       </c>
       <c r="E429" t="s">
-        <v>764</v>
+        <v>762</v>
       </c>
       <c r="F429" t="s">
-        <v>777</v>
+        <v>774</v>
       </c>
     </row>
     <row r="430" spans="1:6" x14ac:dyDescent="0.25">
@@ -11404,10 +11452,10 @@
         <v>432</v>
       </c>
       <c r="E430" t="s">
-        <v>764</v>
+        <v>762</v>
       </c>
       <c r="F430" t="s">
-        <v>777</v>
+        <v>774</v>
       </c>
     </row>
     <row r="431" spans="1:6" x14ac:dyDescent="0.25">
@@ -11424,10 +11472,10 @@
         <v>433</v>
       </c>
       <c r="E431" t="s">
-        <v>764</v>
+        <v>762</v>
       </c>
       <c r="F431" t="s">
-        <v>777</v>
+        <v>774</v>
       </c>
     </row>
     <row r="432" spans="1:6" x14ac:dyDescent="0.25">
@@ -11444,10 +11492,10 @@
         <v>434</v>
       </c>
       <c r="E432" t="s">
-        <v>764</v>
+        <v>762</v>
       </c>
       <c r="F432" t="s">
-        <v>777</v>
+        <v>774</v>
       </c>
     </row>
     <row r="433" spans="1:6" x14ac:dyDescent="0.25">
@@ -11464,10 +11512,10 @@
         <v>435</v>
       </c>
       <c r="E433" t="s">
-        <v>764</v>
+        <v>762</v>
       </c>
       <c r="F433" t="s">
-        <v>777</v>
+        <v>774</v>
       </c>
     </row>
     <row r="434" spans="1:6" x14ac:dyDescent="0.25">
@@ -11484,10 +11532,10 @@
         <v>436</v>
       </c>
       <c r="E434" t="s">
-        <v>764</v>
+        <v>762</v>
       </c>
       <c r="F434" t="s">
-        <v>777</v>
+        <v>774</v>
       </c>
     </row>
     <row r="435" spans="1:6" x14ac:dyDescent="0.25">
@@ -11504,10 +11552,10 @@
         <v>437</v>
       </c>
       <c r="E435" t="s">
-        <v>764</v>
+        <v>762</v>
       </c>
       <c r="F435" t="s">
-        <v>777</v>
+        <v>774</v>
       </c>
     </row>
     <row r="436" spans="1:6" x14ac:dyDescent="0.25">
@@ -11524,10 +11572,10 @@
         <v>438</v>
       </c>
       <c r="E436" t="s">
-        <v>764</v>
+        <v>762</v>
       </c>
       <c r="F436" t="s">
-        <v>777</v>
+        <v>774</v>
       </c>
     </row>
     <row r="437" spans="1:6" x14ac:dyDescent="0.25">
@@ -11544,10 +11592,10 @@
         <v>439</v>
       </c>
       <c r="E437" t="s">
-        <v>764</v>
+        <v>762</v>
       </c>
       <c r="F437" t="s">
-        <v>777</v>
+        <v>774</v>
       </c>
     </row>
     <row r="438" spans="1:6" x14ac:dyDescent="0.25">
@@ -11564,10 +11612,10 @@
         <v>440</v>
       </c>
       <c r="E438" t="s">
-        <v>764</v>
+        <v>762</v>
       </c>
       <c r="F438" t="s">
-        <v>777</v>
+        <v>774</v>
       </c>
     </row>
     <row r="439" spans="1:6" x14ac:dyDescent="0.25">
@@ -11584,10 +11632,10 @@
         <v>441</v>
       </c>
       <c r="E439" t="s">
-        <v>764</v>
+        <v>762</v>
       </c>
       <c r="F439" t="s">
-        <v>777</v>
+        <v>774</v>
       </c>
     </row>
     <row r="440" spans="1:6" x14ac:dyDescent="0.25">
@@ -11604,10 +11652,10 @@
         <v>442</v>
       </c>
       <c r="E440" t="s">
-        <v>764</v>
+        <v>762</v>
       </c>
       <c r="F440" t="s">
-        <v>777</v>
+        <v>774</v>
       </c>
     </row>
     <row r="441" spans="1:6" x14ac:dyDescent="0.25">
@@ -11624,10 +11672,10 @@
         <v>443</v>
       </c>
       <c r="E441" t="s">
-        <v>764</v>
+        <v>762</v>
       </c>
       <c r="F441" t="s">
-        <v>777</v>
+        <v>774</v>
       </c>
     </row>
     <row r="442" spans="1:6" x14ac:dyDescent="0.25">
@@ -11644,10 +11692,10 @@
         <v>444</v>
       </c>
       <c r="E442" t="s">
-        <v>764</v>
+        <v>762</v>
       </c>
       <c r="F442" t="s">
-        <v>777</v>
+        <v>774</v>
       </c>
     </row>
     <row r="443" spans="1:6" x14ac:dyDescent="0.25">
@@ -11664,10 +11712,10 @@
         <v>445</v>
       </c>
       <c r="E443" t="s">
-        <v>764</v>
+        <v>762</v>
       </c>
       <c r="F443" t="s">
-        <v>777</v>
+        <v>774</v>
       </c>
     </row>
     <row r="444" spans="1:6" x14ac:dyDescent="0.25">
@@ -11684,10 +11732,10 @@
         <v>446</v>
       </c>
       <c r="E444" t="s">
-        <v>764</v>
+        <v>762</v>
       </c>
       <c r="F444" t="s">
-        <v>777</v>
+        <v>774</v>
       </c>
     </row>
     <row r="445" spans="1:6" x14ac:dyDescent="0.25">
@@ -11704,10 +11752,10 @@
         <v>447</v>
       </c>
       <c r="E445" t="s">
-        <v>764</v>
+        <v>762</v>
       </c>
       <c r="F445" t="s">
-        <v>777</v>
+        <v>774</v>
       </c>
     </row>
     <row r="446" spans="1:6" x14ac:dyDescent="0.25">
@@ -11724,10 +11772,10 @@
         <v>448</v>
       </c>
       <c r="E446" t="s">
-        <v>764</v>
+        <v>762</v>
       </c>
       <c r="F446" t="s">
-        <v>777</v>
+        <v>774</v>
       </c>
     </row>
     <row r="447" spans="1:6" x14ac:dyDescent="0.25">
@@ -11744,10 +11792,10 @@
         <v>449</v>
       </c>
       <c r="E447" t="s">
-        <v>764</v>
+        <v>762</v>
       </c>
       <c r="F447" t="s">
-        <v>777</v>
+        <v>774</v>
       </c>
     </row>
     <row r="448" spans="1:6" x14ac:dyDescent="0.25">
@@ -11764,10 +11812,10 @@
         <v>450</v>
       </c>
       <c r="E448" t="s">
-        <v>764</v>
+        <v>762</v>
       </c>
       <c r="F448" t="s">
-        <v>777</v>
+        <v>774</v>
       </c>
     </row>
     <row r="449" spans="1:6" x14ac:dyDescent="0.25">
@@ -11784,10 +11832,10 @@
         <v>451</v>
       </c>
       <c r="E449" t="s">
-        <v>764</v>
+        <v>762</v>
       </c>
       <c r="F449" t="s">
-        <v>777</v>
+        <v>774</v>
       </c>
     </row>
     <row r="450" spans="1:6" x14ac:dyDescent="0.25">
@@ -11804,10 +11852,10 @@
         <v>452</v>
       </c>
       <c r="E450" t="s">
-        <v>764</v>
+        <v>762</v>
       </c>
       <c r="F450" t="s">
-        <v>777</v>
+        <v>774</v>
       </c>
     </row>
     <row r="451" spans="1:6" x14ac:dyDescent="0.25">
@@ -11824,10 +11872,10 @@
         <v>453</v>
       </c>
       <c r="E451" t="s">
-        <v>764</v>
+        <v>762</v>
       </c>
       <c r="F451" t="s">
-        <v>777</v>
+        <v>774</v>
       </c>
     </row>
     <row r="452" spans="1:6" x14ac:dyDescent="0.25">
@@ -11844,10 +11892,10 @@
         <v>454</v>
       </c>
       <c r="E452" t="s">
-        <v>764</v>
+        <v>762</v>
       </c>
       <c r="F452" t="s">
-        <v>777</v>
+        <v>774</v>
       </c>
     </row>
     <row r="453" spans="1:6" x14ac:dyDescent="0.25">
@@ -11864,10 +11912,10 @@
         <v>455</v>
       </c>
       <c r="E453" t="s">
-        <v>764</v>
+        <v>762</v>
       </c>
       <c r="F453" t="s">
-        <v>777</v>
+        <v>774</v>
       </c>
     </row>
     <row r="454" spans="1:6" x14ac:dyDescent="0.25">
@@ -11884,10 +11932,10 @@
         <v>456</v>
       </c>
       <c r="E454" t="s">
-        <v>764</v>
+        <v>762</v>
       </c>
       <c r="F454" t="s">
-        <v>777</v>
+        <v>774</v>
       </c>
     </row>
     <row r="455" spans="1:6" x14ac:dyDescent="0.25">
@@ -11904,10 +11952,10 @@
         <v>457</v>
       </c>
       <c r="E455" t="s">
-        <v>764</v>
+        <v>762</v>
       </c>
       <c r="F455" t="s">
-        <v>777</v>
+        <v>774</v>
       </c>
     </row>
     <row r="456" spans="1:6" x14ac:dyDescent="0.25">
@@ -11924,10 +11972,10 @@
         <v>458</v>
       </c>
       <c r="E456" t="s">
-        <v>764</v>
+        <v>762</v>
       </c>
       <c r="F456" t="s">
-        <v>777</v>
+        <v>774</v>
       </c>
     </row>
     <row r="457" spans="1:6" x14ac:dyDescent="0.25">
@@ -11944,10 +11992,10 @@
         <v>459</v>
       </c>
       <c r="E457" t="s">
-        <v>764</v>
+        <v>762</v>
       </c>
       <c r="F457" t="s">
-        <v>777</v>
+        <v>774</v>
       </c>
     </row>
     <row r="458" spans="1:6" x14ac:dyDescent="0.25">
@@ -11964,10 +12012,10 @@
         <v>460</v>
       </c>
       <c r="E458" t="s">
-        <v>764</v>
+        <v>762</v>
       </c>
       <c r="F458" t="s">
-        <v>777</v>
+        <v>774</v>
       </c>
     </row>
     <row r="459" spans="1:6" x14ac:dyDescent="0.25">
@@ -11984,10 +12032,10 @@
         <v>461</v>
       </c>
       <c r="E459" t="s">
-        <v>764</v>
+        <v>762</v>
       </c>
       <c r="F459" t="s">
-        <v>777</v>
+        <v>774</v>
       </c>
     </row>
     <row r="460" spans="1:6" x14ac:dyDescent="0.25">
@@ -12004,10 +12052,10 @@
         <v>462</v>
       </c>
       <c r="E460" t="s">
-        <v>764</v>
+        <v>762</v>
       </c>
       <c r="F460" t="s">
-        <v>777</v>
+        <v>774</v>
       </c>
     </row>
     <row r="461" spans="1:6" x14ac:dyDescent="0.25">
@@ -12024,10 +12072,10 @@
         <v>463</v>
       </c>
       <c r="E461" t="s">
-        <v>764</v>
+        <v>762</v>
       </c>
       <c r="F461" t="s">
-        <v>777</v>
+        <v>774</v>
       </c>
     </row>
     <row r="462" spans="1:6" x14ac:dyDescent="0.25">
@@ -12044,10 +12092,10 @@
         <v>464</v>
       </c>
       <c r="E462" t="s">
-        <v>764</v>
+        <v>762</v>
       </c>
       <c r="F462" t="s">
-        <v>777</v>
+        <v>774</v>
       </c>
     </row>
     <row r="463" spans="1:6" x14ac:dyDescent="0.25">
@@ -12064,10 +12112,10 @@
         <v>465</v>
       </c>
       <c r="E463" t="s">
-        <v>764</v>
+        <v>762</v>
       </c>
       <c r="F463" t="s">
-        <v>777</v>
+        <v>774</v>
       </c>
     </row>
     <row r="464" spans="1:6" x14ac:dyDescent="0.25">
@@ -12084,10 +12132,10 @@
         <v>466</v>
       </c>
       <c r="E464" t="s">
-        <v>764</v>
+        <v>762</v>
       </c>
       <c r="F464" t="s">
-        <v>777</v>
+        <v>774</v>
       </c>
     </row>
     <row r="465" spans="1:6" x14ac:dyDescent="0.25">
@@ -12104,10 +12152,10 @@
         <v>467</v>
       </c>
       <c r="E465" t="s">
-        <v>764</v>
+        <v>762</v>
       </c>
       <c r="F465" t="s">
-        <v>777</v>
+        <v>774</v>
       </c>
     </row>
     <row r="466" spans="1:6" x14ac:dyDescent="0.25">
@@ -12124,10 +12172,10 @@
         <v>468</v>
       </c>
       <c r="E466" t="s">
-        <v>764</v>
+        <v>762</v>
       </c>
       <c r="F466" t="s">
-        <v>777</v>
+        <v>774</v>
       </c>
     </row>
     <row r="467" spans="1:6" x14ac:dyDescent="0.25">
@@ -12144,10 +12192,10 @@
         <v>469</v>
       </c>
       <c r="E467" t="s">
-        <v>764</v>
+        <v>762</v>
       </c>
       <c r="F467" t="s">
-        <v>777</v>
+        <v>774</v>
       </c>
     </row>
     <row r="468" spans="1:6" x14ac:dyDescent="0.25">
@@ -12164,10 +12212,10 @@
         <v>470</v>
       </c>
       <c r="E468" t="s">
-        <v>764</v>
+        <v>762</v>
       </c>
       <c r="F468" t="s">
-        <v>777</v>
+        <v>774</v>
       </c>
     </row>
     <row r="469" spans="1:6" x14ac:dyDescent="0.25">
@@ -12184,10 +12232,10 @@
         <v>471</v>
       </c>
       <c r="E469" t="s">
-        <v>764</v>
+        <v>762</v>
       </c>
       <c r="F469" t="s">
-        <v>777</v>
+        <v>774</v>
       </c>
     </row>
     <row r="470" spans="1:6" x14ac:dyDescent="0.25">
@@ -12204,10 +12252,10 @@
         <v>472</v>
       </c>
       <c r="E470" t="s">
-        <v>765</v>
+        <v>763</v>
       </c>
       <c r="F470" t="s">
-        <v>770</v>
+        <v>816</v>
       </c>
     </row>
     <row r="471" spans="1:6" x14ac:dyDescent="0.25">
@@ -12224,10 +12272,10 @@
         <v>473</v>
       </c>
       <c r="E471" t="s">
-        <v>765</v>
+        <v>763</v>
       </c>
       <c r="F471" t="s">
-        <v>770</v>
+        <v>816</v>
       </c>
     </row>
     <row r="472" spans="1:6" x14ac:dyDescent="0.25">
@@ -12244,10 +12292,10 @@
         <v>474</v>
       </c>
       <c r="E472" t="s">
-        <v>765</v>
+        <v>763</v>
       </c>
       <c r="F472" t="s">
-        <v>770</v>
+        <v>816</v>
       </c>
     </row>
     <row r="473" spans="1:6" x14ac:dyDescent="0.25">
@@ -12264,10 +12312,10 @@
         <v>475</v>
       </c>
       <c r="E473" t="s">
-        <v>765</v>
+        <v>763</v>
       </c>
       <c r="F473" t="s">
-        <v>770</v>
+        <v>816</v>
       </c>
     </row>
     <row r="474" spans="1:6" x14ac:dyDescent="0.25">
@@ -12284,10 +12332,10 @@
         <v>476</v>
       </c>
       <c r="E474" t="s">
-        <v>765</v>
+        <v>763</v>
       </c>
       <c r="F474" t="s">
-        <v>770</v>
+        <v>816</v>
       </c>
     </row>
     <row r="475" spans="1:6" x14ac:dyDescent="0.25">
@@ -12304,10 +12352,10 @@
         <v>477</v>
       </c>
       <c r="E475" t="s">
-        <v>765</v>
+        <v>763</v>
       </c>
       <c r="F475" t="s">
-        <v>770</v>
+        <v>816</v>
       </c>
     </row>
     <row r="476" spans="1:6" x14ac:dyDescent="0.25">
@@ -12324,10 +12372,10 @@
         <v>478</v>
       </c>
       <c r="E476" t="s">
-        <v>765</v>
+        <v>763</v>
       </c>
       <c r="F476" t="s">
-        <v>770</v>
+        <v>816</v>
       </c>
     </row>
     <row r="477" spans="1:6" x14ac:dyDescent="0.25">
@@ -12344,10 +12392,10 @@
         <v>479</v>
       </c>
       <c r="E477" t="s">
-        <v>765</v>
+        <v>763</v>
       </c>
       <c r="F477" t="s">
-        <v>770</v>
+        <v>816</v>
       </c>
     </row>
     <row r="478" spans="1:6" x14ac:dyDescent="0.25">
@@ -12364,10 +12412,10 @@
         <v>480</v>
       </c>
       <c r="E478" t="s">
-        <v>765</v>
+        <v>763</v>
       </c>
       <c r="F478" t="s">
-        <v>770</v>
+        <v>816</v>
       </c>
     </row>
     <row r="479" spans="1:6" x14ac:dyDescent="0.25">
@@ -12384,10 +12432,10 @@
         <v>481</v>
       </c>
       <c r="E479" t="s">
-        <v>765</v>
+        <v>763</v>
       </c>
       <c r="F479" t="s">
-        <v>770</v>
+        <v>816</v>
       </c>
     </row>
     <row r="480" spans="1:6" x14ac:dyDescent="0.25">
@@ -12404,10 +12452,10 @@
         <v>482</v>
       </c>
       <c r="E480" t="s">
-        <v>765</v>
+        <v>763</v>
       </c>
       <c r="F480" t="s">
-        <v>770</v>
+        <v>816</v>
       </c>
     </row>
     <row r="481" spans="1:6" x14ac:dyDescent="0.25">
@@ -12424,10 +12472,10 @@
         <v>483</v>
       </c>
       <c r="E481" t="s">
-        <v>765</v>
+        <v>763</v>
       </c>
       <c r="F481" t="s">
-        <v>770</v>
+        <v>816</v>
       </c>
     </row>
     <row r="482" spans="1:6" x14ac:dyDescent="0.25">
@@ -12444,10 +12492,10 @@
         <v>484</v>
       </c>
       <c r="E482" t="s">
-        <v>765</v>
+        <v>763</v>
       </c>
       <c r="F482" t="s">
-        <v>770</v>
+        <v>816</v>
       </c>
     </row>
     <row r="483" spans="1:6" x14ac:dyDescent="0.25">
@@ -12464,10 +12512,10 @@
         <v>485</v>
       </c>
       <c r="E483" t="s">
-        <v>765</v>
+        <v>763</v>
       </c>
       <c r="F483" t="s">
-        <v>770</v>
+        <v>816</v>
       </c>
     </row>
     <row r="484" spans="1:6" x14ac:dyDescent="0.25">
@@ -12484,10 +12532,10 @@
         <v>486</v>
       </c>
       <c r="E484" t="s">
-        <v>765</v>
+        <v>763</v>
       </c>
       <c r="F484" t="s">
-        <v>770</v>
+        <v>816</v>
       </c>
     </row>
     <row r="485" spans="1:6" x14ac:dyDescent="0.25">
@@ -12504,10 +12552,10 @@
         <v>487</v>
       </c>
       <c r="E485" t="s">
-        <v>765</v>
+        <v>763</v>
       </c>
       <c r="F485" t="s">
-        <v>770</v>
+        <v>816</v>
       </c>
     </row>
     <row r="486" spans="1:6" x14ac:dyDescent="0.25">
@@ -12524,10 +12572,10 @@
         <v>488</v>
       </c>
       <c r="E486" t="s">
-        <v>765</v>
+        <v>763</v>
       </c>
       <c r="F486" t="s">
-        <v>770</v>
+        <v>816</v>
       </c>
     </row>
     <row r="487" spans="1:6" x14ac:dyDescent="0.25">
@@ -12544,10 +12592,10 @@
         <v>489</v>
       </c>
       <c r="E487" t="s">
-        <v>765</v>
+        <v>763</v>
       </c>
       <c r="F487" t="s">
-        <v>770</v>
+        <v>816</v>
       </c>
     </row>
     <row r="488" spans="1:6" x14ac:dyDescent="0.25">
@@ -12564,10 +12612,10 @@
         <v>490</v>
       </c>
       <c r="E488" t="s">
-        <v>764</v>
+        <v>762</v>
       </c>
       <c r="F488" t="s">
-        <v>777</v>
+        <v>774</v>
       </c>
     </row>
     <row r="489" spans="1:6" x14ac:dyDescent="0.25">
@@ -12584,10 +12632,10 @@
         <v>491</v>
       </c>
       <c r="E489" t="s">
-        <v>764</v>
+        <v>762</v>
       </c>
       <c r="F489" t="s">
-        <v>777</v>
+        <v>774</v>
       </c>
     </row>
     <row r="490" spans="1:6" x14ac:dyDescent="0.25">
@@ -12604,10 +12652,10 @@
         <v>492</v>
       </c>
       <c r="E490" t="s">
-        <v>764</v>
+        <v>762</v>
       </c>
       <c r="F490" t="s">
-        <v>777</v>
+        <v>774</v>
       </c>
     </row>
     <row r="491" spans="1:6" x14ac:dyDescent="0.25">
@@ -12624,10 +12672,10 @@
         <v>493</v>
       </c>
       <c r="E491" t="s">
-        <v>764</v>
+        <v>762</v>
       </c>
       <c r="F491" t="s">
-        <v>777</v>
+        <v>774</v>
       </c>
     </row>
     <row r="492" spans="1:6" x14ac:dyDescent="0.25">
@@ -12644,10 +12692,10 @@
         <v>494</v>
       </c>
       <c r="E492" t="s">
-        <v>764</v>
+        <v>762</v>
       </c>
       <c r="F492" t="s">
-        <v>777</v>
+        <v>774</v>
       </c>
     </row>
     <row r="493" spans="1:6" x14ac:dyDescent="0.25">
@@ -12664,10 +12712,10 @@
         <v>495</v>
       </c>
       <c r="E493" t="s">
-        <v>764</v>
+        <v>762</v>
       </c>
       <c r="F493" t="s">
-        <v>777</v>
+        <v>774</v>
       </c>
     </row>
     <row r="494" spans="1:6" x14ac:dyDescent="0.25">
@@ -12684,10 +12732,10 @@
         <v>496</v>
       </c>
       <c r="E494" t="s">
-        <v>764</v>
+        <v>762</v>
       </c>
       <c r="F494" t="s">
-        <v>777</v>
+        <v>774</v>
       </c>
     </row>
     <row r="495" spans="1:6" x14ac:dyDescent="0.25">
@@ -12704,10 +12752,10 @@
         <v>497</v>
       </c>
       <c r="E495" t="s">
-        <v>764</v>
+        <v>762</v>
       </c>
       <c r="F495" t="s">
-        <v>777</v>
+        <v>774</v>
       </c>
     </row>
     <row r="496" spans="1:6" x14ac:dyDescent="0.25">
@@ -12724,10 +12772,10 @@
         <v>498</v>
       </c>
       <c r="E496" t="s">
-        <v>764</v>
+        <v>762</v>
       </c>
       <c r="F496" t="s">
-        <v>777</v>
+        <v>774</v>
       </c>
     </row>
     <row r="497" spans="1:6" x14ac:dyDescent="0.25">
@@ -12744,10 +12792,10 @@
         <v>499</v>
       </c>
       <c r="E497" t="s">
-        <v>766</v>
+        <v>764</v>
       </c>
       <c r="F497" t="s">
-        <v>773</v>
+        <v>770</v>
       </c>
     </row>
     <row r="498" spans="1:6" x14ac:dyDescent="0.25">
@@ -12764,10 +12812,10 @@
         <v>500</v>
       </c>
       <c r="E498" t="s">
-        <v>766</v>
+        <v>764</v>
       </c>
       <c r="F498" t="s">
-        <v>773</v>
+        <v>770</v>
       </c>
     </row>
     <row r="499" spans="1:6" x14ac:dyDescent="0.25">
@@ -12784,10 +12832,10 @@
         <v>501</v>
       </c>
       <c r="E499" t="s">
-        <v>766</v>
+        <v>764</v>
       </c>
       <c r="F499" t="s">
-        <v>773</v>
+        <v>770</v>
       </c>
     </row>
     <row r="500" spans="1:6" x14ac:dyDescent="0.25">
@@ -12804,10 +12852,10 @@
         <v>502</v>
       </c>
       <c r="E500" t="s">
-        <v>766</v>
+        <v>764</v>
       </c>
       <c r="F500" t="s">
-        <v>773</v>
+        <v>770</v>
       </c>
     </row>
     <row r="501" spans="1:6" x14ac:dyDescent="0.25">
@@ -12824,10 +12872,10 @@
         <v>503</v>
       </c>
       <c r="E501" t="s">
-        <v>766</v>
+        <v>764</v>
       </c>
       <c r="F501" t="s">
-        <v>773</v>
+        <v>770</v>
       </c>
     </row>
     <row r="502" spans="1:6" x14ac:dyDescent="0.25">
@@ -12844,10 +12892,10 @@
         <v>504</v>
       </c>
       <c r="E502" t="s">
-        <v>766</v>
+        <v>764</v>
       </c>
       <c r="F502" t="s">
-        <v>773</v>
+        <v>770</v>
       </c>
     </row>
     <row r="503" spans="1:6" x14ac:dyDescent="0.25">
@@ -12864,10 +12912,10 @@
         <v>505</v>
       </c>
       <c r="E503" t="s">
-        <v>766</v>
+        <v>764</v>
       </c>
       <c r="F503" t="s">
-        <v>773</v>
+        <v>770</v>
       </c>
     </row>
     <row r="504" spans="1:6" x14ac:dyDescent="0.25">
@@ -12884,10 +12932,10 @@
         <v>506</v>
       </c>
       <c r="E504" t="s">
-        <v>766</v>
+        <v>764</v>
       </c>
       <c r="F504" t="s">
-        <v>773</v>
+        <v>770</v>
       </c>
     </row>
     <row r="505" spans="1:6" x14ac:dyDescent="0.25">
@@ -12904,10 +12952,10 @@
         <v>507</v>
       </c>
       <c r="E505" t="s">
-        <v>766</v>
+        <v>764</v>
       </c>
       <c r="F505" t="s">
-        <v>773</v>
+        <v>770</v>
       </c>
     </row>
     <row r="506" spans="1:6" x14ac:dyDescent="0.25">
@@ -12924,10 +12972,10 @@
         <v>508</v>
       </c>
       <c r="E506" t="s">
-        <v>766</v>
+        <v>764</v>
       </c>
       <c r="F506" t="s">
-        <v>773</v>
+        <v>770</v>
       </c>
     </row>
     <row r="507" spans="1:6" x14ac:dyDescent="0.25">
@@ -12944,10 +12992,10 @@
         <v>509</v>
       </c>
       <c r="E507" t="s">
-        <v>766</v>
+        <v>764</v>
       </c>
       <c r="F507" t="s">
-        <v>773</v>
+        <v>770</v>
       </c>
     </row>
     <row r="508" spans="1:6" x14ac:dyDescent="0.25">
@@ -12964,10 +13012,10 @@
         <v>510</v>
       </c>
       <c r="E508" t="s">
-        <v>766</v>
+        <v>764</v>
       </c>
       <c r="F508" t="s">
-        <v>773</v>
+        <v>770</v>
       </c>
     </row>
     <row r="509" spans="1:6" x14ac:dyDescent="0.25">
@@ -12984,10 +13032,10 @@
         <v>511</v>
       </c>
       <c r="E509" t="s">
-        <v>766</v>
+        <v>764</v>
       </c>
       <c r="F509" t="s">
-        <v>773</v>
+        <v>770</v>
       </c>
     </row>
     <row r="510" spans="1:6" x14ac:dyDescent="0.25">
@@ -13004,10 +13052,10 @@
         <v>512</v>
       </c>
       <c r="E510" t="s">
-        <v>766</v>
+        <v>764</v>
       </c>
       <c r="F510" t="s">
-        <v>773</v>
+        <v>770</v>
       </c>
     </row>
     <row r="511" spans="1:6" x14ac:dyDescent="0.25">
@@ -13024,10 +13072,10 @@
         <v>513</v>
       </c>
       <c r="E511" t="s">
-        <v>766</v>
+        <v>764</v>
       </c>
       <c r="F511" t="s">
-        <v>773</v>
+        <v>770</v>
       </c>
     </row>
     <row r="512" spans="1:6" x14ac:dyDescent="0.25">
@@ -13044,10 +13092,10 @@
         <v>514</v>
       </c>
       <c r="E512" t="s">
-        <v>766</v>
+        <v>764</v>
       </c>
       <c r="F512" t="s">
-        <v>773</v>
+        <v>770</v>
       </c>
     </row>
     <row r="513" spans="1:6" x14ac:dyDescent="0.25">
@@ -13064,10 +13112,10 @@
         <v>515</v>
       </c>
       <c r="E513" t="s">
-        <v>766</v>
+        <v>764</v>
       </c>
       <c r="F513" t="s">
-        <v>773</v>
+        <v>770</v>
       </c>
     </row>
     <row r="514" spans="1:6" x14ac:dyDescent="0.25">
@@ -13084,10 +13132,10 @@
         <v>516</v>
       </c>
       <c r="E514" t="s">
-        <v>766</v>
+        <v>764</v>
       </c>
       <c r="F514" t="s">
-        <v>773</v>
+        <v>770</v>
       </c>
     </row>
     <row r="515" spans="1:6" x14ac:dyDescent="0.25">
@@ -13104,10 +13152,10 @@
         <v>517</v>
       </c>
       <c r="E515" t="s">
-        <v>766</v>
+        <v>764</v>
       </c>
       <c r="F515" t="s">
-        <v>773</v>
+        <v>770</v>
       </c>
     </row>
     <row r="516" spans="1:6" x14ac:dyDescent="0.25">
@@ -13124,10 +13172,10 @@
         <v>518</v>
       </c>
       <c r="E516" t="s">
-        <v>766</v>
+        <v>764</v>
       </c>
       <c r="F516" t="s">
-        <v>773</v>
+        <v>770</v>
       </c>
     </row>
     <row r="517" spans="1:6" x14ac:dyDescent="0.25">
@@ -13144,10 +13192,10 @@
         <v>519</v>
       </c>
       <c r="E517" t="s">
-        <v>766</v>
+        <v>764</v>
       </c>
       <c r="F517" t="s">
-        <v>773</v>
+        <v>770</v>
       </c>
     </row>
     <row r="518" spans="1:6" x14ac:dyDescent="0.25">
@@ -13164,10 +13212,10 @@
         <v>520</v>
       </c>
       <c r="E518" t="s">
-        <v>766</v>
+        <v>764</v>
       </c>
       <c r="F518" t="s">
-        <v>773</v>
+        <v>770</v>
       </c>
     </row>
     <row r="519" spans="1:6" x14ac:dyDescent="0.25">
@@ -13184,10 +13232,10 @@
         <v>521</v>
       </c>
       <c r="E519" t="s">
-        <v>766</v>
+        <v>764</v>
       </c>
       <c r="F519" t="s">
-        <v>773</v>
+        <v>770</v>
       </c>
     </row>
     <row r="520" spans="1:6" x14ac:dyDescent="0.25">
@@ -13204,10 +13252,10 @@
         <v>522</v>
       </c>
       <c r="E520" t="s">
-        <v>766</v>
+        <v>764</v>
       </c>
       <c r="F520" t="s">
-        <v>773</v>
+        <v>770</v>
       </c>
     </row>
     <row r="521" spans="1:6" x14ac:dyDescent="0.25">
@@ -13224,10 +13272,10 @@
         <v>523</v>
       </c>
       <c r="E521" t="s">
-        <v>766</v>
+        <v>764</v>
       </c>
       <c r="F521" t="s">
-        <v>773</v>
+        <v>770</v>
       </c>
     </row>
     <row r="522" spans="1:6" x14ac:dyDescent="0.25">
@@ -13244,10 +13292,10 @@
         <v>524</v>
       </c>
       <c r="E522" t="s">
-        <v>766</v>
+        <v>764</v>
       </c>
       <c r="F522" t="s">
-        <v>773</v>
+        <v>770</v>
       </c>
     </row>
     <row r="523" spans="1:6" x14ac:dyDescent="0.25">
@@ -13264,10 +13312,10 @@
         <v>525</v>
       </c>
       <c r="E523" t="s">
-        <v>766</v>
+        <v>764</v>
       </c>
       <c r="F523" t="s">
-        <v>773</v>
+        <v>770</v>
       </c>
     </row>
     <row r="524" spans="1:6" x14ac:dyDescent="0.25">
@@ -13284,10 +13332,10 @@
         <v>526</v>
       </c>
       <c r="E524" t="s">
-        <v>766</v>
+        <v>764</v>
       </c>
       <c r="F524" t="s">
-        <v>773</v>
+        <v>770</v>
       </c>
     </row>
     <row r="525" spans="1:6" x14ac:dyDescent="0.25">
@@ -13304,10 +13352,10 @@
         <v>527</v>
       </c>
       <c r="E525" t="s">
-        <v>766</v>
+        <v>764</v>
       </c>
       <c r="F525" t="s">
-        <v>773</v>
+        <v>770</v>
       </c>
     </row>
     <row r="526" spans="1:6" x14ac:dyDescent="0.25">
@@ -13324,10 +13372,10 @@
         <v>528</v>
       </c>
       <c r="E526" t="s">
-        <v>766</v>
+        <v>764</v>
       </c>
       <c r="F526" t="s">
-        <v>773</v>
+        <v>770</v>
       </c>
     </row>
     <row r="527" spans="1:6" x14ac:dyDescent="0.25">
@@ -13344,10 +13392,10 @@
         <v>529</v>
       </c>
       <c r="E527" t="s">
-        <v>766</v>
+        <v>764</v>
       </c>
       <c r="F527" t="s">
-        <v>773</v>
+        <v>770</v>
       </c>
     </row>
     <row r="528" spans="1:6" x14ac:dyDescent="0.25">
@@ -13364,10 +13412,10 @@
         <v>530</v>
       </c>
       <c r="E528" t="s">
-        <v>766</v>
+        <v>764</v>
       </c>
       <c r="F528" t="s">
-        <v>773</v>
+        <v>770</v>
       </c>
     </row>
     <row r="529" spans="1:6" x14ac:dyDescent="0.25">
@@ -13384,10 +13432,10 @@
         <v>531</v>
       </c>
       <c r="E529" t="s">
-        <v>766</v>
+        <v>764</v>
       </c>
       <c r="F529" t="s">
-        <v>773</v>
+        <v>770</v>
       </c>
     </row>
     <row r="530" spans="1:6" x14ac:dyDescent="0.25">
@@ -13404,10 +13452,10 @@
         <v>532</v>
       </c>
       <c r="E530" t="s">
-        <v>766</v>
+        <v>764</v>
       </c>
       <c r="F530" t="s">
-        <v>773</v>
+        <v>770</v>
       </c>
     </row>
     <row r="531" spans="1:6" x14ac:dyDescent="0.25">
@@ -13424,10 +13472,10 @@
         <v>533</v>
       </c>
       <c r="E531" t="s">
-        <v>766</v>
+        <v>764</v>
       </c>
       <c r="F531" t="s">
-        <v>773</v>
+        <v>770</v>
       </c>
     </row>
     <row r="532" spans="1:6" x14ac:dyDescent="0.25">
@@ -13444,10 +13492,10 @@
         <v>534</v>
       </c>
       <c r="E532" t="s">
-        <v>766</v>
+        <v>764</v>
       </c>
       <c r="F532" t="s">
-        <v>773</v>
+        <v>770</v>
       </c>
     </row>
     <row r="533" spans="1:6" x14ac:dyDescent="0.25">
@@ -13464,10 +13512,10 @@
         <v>535</v>
       </c>
       <c r="E533" t="s">
-        <v>799</v>
+        <v>795</v>
       </c>
       <c r="F533" t="s">
-        <v>800</v>
+        <v>796</v>
       </c>
     </row>
     <row r="534" spans="1:6" x14ac:dyDescent="0.25">
@@ -13484,10 +13532,10 @@
         <v>536</v>
       </c>
       <c r="E534" t="s">
-        <v>799</v>
+        <v>795</v>
       </c>
       <c r="F534" t="s">
-        <v>800</v>
+        <v>796</v>
       </c>
     </row>
     <row r="535" spans="1:6" x14ac:dyDescent="0.25">
@@ -13504,10 +13552,10 @@
         <v>537</v>
       </c>
       <c r="E535" t="s">
-        <v>799</v>
+        <v>795</v>
       </c>
       <c r="F535" t="s">
-        <v>800</v>
+        <v>796</v>
       </c>
     </row>
     <row r="536" spans="1:6" x14ac:dyDescent="0.25">
@@ -13524,10 +13572,10 @@
         <v>538</v>
       </c>
       <c r="E536" t="s">
-        <v>799</v>
+        <v>795</v>
       </c>
       <c r="F536" t="s">
-        <v>800</v>
+        <v>796</v>
       </c>
     </row>
     <row r="537" spans="1:6" x14ac:dyDescent="0.25">
@@ -13544,10 +13592,10 @@
         <v>539</v>
       </c>
       <c r="E537" t="s">
-        <v>799</v>
+        <v>795</v>
       </c>
       <c r="F537" t="s">
-        <v>800</v>
+        <v>796</v>
       </c>
     </row>
     <row r="538" spans="1:6" x14ac:dyDescent="0.25">
@@ -13564,10 +13612,10 @@
         <v>540</v>
       </c>
       <c r="E538" t="s">
-        <v>799</v>
+        <v>795</v>
       </c>
       <c r="F538" t="s">
-        <v>800</v>
+        <v>796</v>
       </c>
     </row>
     <row r="539" spans="1:6" x14ac:dyDescent="0.25">
@@ -13584,10 +13632,10 @@
         <v>541</v>
       </c>
       <c r="E539" t="s">
-        <v>799</v>
+        <v>795</v>
       </c>
       <c r="F539" t="s">
-        <v>800</v>
+        <v>796</v>
       </c>
     </row>
     <row r="540" spans="1:6" x14ac:dyDescent="0.25">
@@ -13604,10 +13652,10 @@
         <v>542</v>
       </c>
       <c r="E540" t="s">
-        <v>799</v>
+        <v>795</v>
       </c>
       <c r="F540" t="s">
-        <v>800</v>
+        <v>796</v>
       </c>
     </row>
     <row r="541" spans="1:6" x14ac:dyDescent="0.25">
@@ -13624,10 +13672,10 @@
         <v>543</v>
       </c>
       <c r="E541" t="s">
-        <v>799</v>
+        <v>795</v>
       </c>
       <c r="F541" t="s">
-        <v>800</v>
+        <v>796</v>
       </c>
     </row>
     <row r="542" spans="1:6" x14ac:dyDescent="0.25">
@@ -13644,10 +13692,10 @@
         <v>544</v>
       </c>
       <c r="E542" t="s">
-        <v>799</v>
+        <v>795</v>
       </c>
       <c r="F542" t="s">
-        <v>800</v>
+        <v>796</v>
       </c>
     </row>
     <row r="543" spans="1:6" x14ac:dyDescent="0.25">
@@ -13664,10 +13712,10 @@
         <v>545</v>
       </c>
       <c r="E543" t="s">
-        <v>799</v>
+        <v>795</v>
       </c>
       <c r="F543" t="s">
-        <v>800</v>
+        <v>796</v>
       </c>
     </row>
     <row r="544" spans="1:6" x14ac:dyDescent="0.25">
@@ -13684,10 +13732,10 @@
         <v>546</v>
       </c>
       <c r="E544" t="s">
-        <v>799</v>
+        <v>795</v>
       </c>
       <c r="F544" t="s">
-        <v>800</v>
+        <v>796</v>
       </c>
     </row>
     <row r="545" spans="1:6" x14ac:dyDescent="0.25">
@@ -13704,10 +13752,10 @@
         <v>547</v>
       </c>
       <c r="E545" t="s">
-        <v>799</v>
+        <v>795</v>
       </c>
       <c r="F545" t="s">
-        <v>800</v>
+        <v>796</v>
       </c>
     </row>
     <row r="546" spans="1:6" x14ac:dyDescent="0.25">
@@ -13724,10 +13772,10 @@
         <v>548</v>
       </c>
       <c r="E546" t="s">
-        <v>799</v>
+        <v>795</v>
       </c>
       <c r="F546" t="s">
-        <v>800</v>
+        <v>796</v>
       </c>
     </row>
     <row r="547" spans="1:6" x14ac:dyDescent="0.25">
@@ -13744,10 +13792,10 @@
         <v>549</v>
       </c>
       <c r="E547" t="s">
-        <v>799</v>
+        <v>795</v>
       </c>
       <c r="F547" t="s">
-        <v>800</v>
+        <v>796</v>
       </c>
     </row>
     <row r="548" spans="1:6" x14ac:dyDescent="0.25">
@@ -13764,10 +13812,10 @@
         <v>550</v>
       </c>
       <c r="E548" t="s">
-        <v>799</v>
+        <v>795</v>
       </c>
       <c r="F548" t="s">
-        <v>800</v>
+        <v>796</v>
       </c>
     </row>
     <row r="549" spans="1:6" x14ac:dyDescent="0.25">
@@ -13784,10 +13832,10 @@
         <v>551</v>
       </c>
       <c r="E549" t="s">
-        <v>799</v>
+        <v>795</v>
       </c>
       <c r="F549" t="s">
-        <v>800</v>
+        <v>796</v>
       </c>
     </row>
     <row r="550" spans="1:6" x14ac:dyDescent="0.25">
@@ -13804,10 +13852,10 @@
         <v>552</v>
       </c>
       <c r="E550" t="s">
-        <v>799</v>
+        <v>795</v>
       </c>
       <c r="F550" t="s">
-        <v>800</v>
+        <v>796</v>
       </c>
     </row>
     <row r="551" spans="1:6" x14ac:dyDescent="0.25">
@@ -13824,10 +13872,10 @@
         <v>553</v>
       </c>
       <c r="E551" t="s">
-        <v>799</v>
+        <v>795</v>
       </c>
       <c r="F551" t="s">
-        <v>800</v>
+        <v>796</v>
       </c>
     </row>
     <row r="552" spans="1:6" x14ac:dyDescent="0.25">
@@ -13844,10 +13892,10 @@
         <v>554</v>
       </c>
       <c r="E552" t="s">
-        <v>799</v>
+        <v>795</v>
       </c>
       <c r="F552" t="s">
-        <v>800</v>
+        <v>796</v>
       </c>
     </row>
     <row r="553" spans="1:6" x14ac:dyDescent="0.25">
@@ -13864,10 +13912,10 @@
         <v>555</v>
       </c>
       <c r="E553" t="s">
-        <v>799</v>
+        <v>795</v>
       </c>
       <c r="F553" t="s">
-        <v>800</v>
+        <v>796</v>
       </c>
     </row>
     <row r="554" spans="1:6" x14ac:dyDescent="0.25">
@@ -13884,10 +13932,10 @@
         <v>556</v>
       </c>
       <c r="E554" t="s">
-        <v>799</v>
+        <v>795</v>
       </c>
       <c r="F554" t="s">
-        <v>800</v>
+        <v>796</v>
       </c>
     </row>
     <row r="555" spans="1:6" x14ac:dyDescent="0.25">
@@ -13904,10 +13952,10 @@
         <v>557</v>
       </c>
       <c r="E555" t="s">
-        <v>799</v>
+        <v>795</v>
       </c>
       <c r="F555" t="s">
-        <v>800</v>
+        <v>796</v>
       </c>
     </row>
     <row r="556" spans="1:6" x14ac:dyDescent="0.25">
@@ -13924,10 +13972,10 @@
         <v>558</v>
       </c>
       <c r="E556" t="s">
-        <v>799</v>
+        <v>795</v>
       </c>
       <c r="F556" t="s">
-        <v>800</v>
+        <v>796</v>
       </c>
     </row>
     <row r="557" spans="1:6" x14ac:dyDescent="0.25">
@@ -13944,10 +13992,10 @@
         <v>559</v>
       </c>
       <c r="E557" t="s">
-        <v>799</v>
+        <v>795</v>
       </c>
       <c r="F557" t="s">
-        <v>800</v>
+        <v>796</v>
       </c>
     </row>
     <row r="558" spans="1:6" x14ac:dyDescent="0.25">
@@ -13964,10 +14012,10 @@
         <v>560</v>
       </c>
       <c r="E558" t="s">
-        <v>799</v>
+        <v>795</v>
       </c>
       <c r="F558" t="s">
-        <v>800</v>
+        <v>796</v>
       </c>
     </row>
     <row r="559" spans="1:6" x14ac:dyDescent="0.25">
@@ -13984,10 +14032,10 @@
         <v>561</v>
       </c>
       <c r="E559" t="s">
-        <v>799</v>
+        <v>795</v>
       </c>
       <c r="F559" t="s">
-        <v>800</v>
+        <v>796</v>
       </c>
     </row>
     <row r="560" spans="1:6" x14ac:dyDescent="0.25">
@@ -14004,10 +14052,10 @@
         <v>562</v>
       </c>
       <c r="E560" t="s">
-        <v>799</v>
+        <v>795</v>
       </c>
       <c r="F560" t="s">
-        <v>800</v>
+        <v>796</v>
       </c>
     </row>
     <row r="561" spans="1:6" x14ac:dyDescent="0.25">
@@ -14024,10 +14072,10 @@
         <v>563</v>
       </c>
       <c r="E561" t="s">
-        <v>799</v>
+        <v>795</v>
       </c>
       <c r="F561" t="s">
-        <v>800</v>
+        <v>796</v>
       </c>
     </row>
     <row r="562" spans="1:6" x14ac:dyDescent="0.25">
@@ -14044,10 +14092,10 @@
         <v>564</v>
       </c>
       <c r="E562" t="s">
-        <v>799</v>
+        <v>795</v>
       </c>
       <c r="F562" t="s">
-        <v>800</v>
+        <v>796</v>
       </c>
     </row>
     <row r="563" spans="1:6" x14ac:dyDescent="0.25">
@@ -14064,10 +14112,10 @@
         <v>565</v>
       </c>
       <c r="E563" t="s">
-        <v>799</v>
+        <v>795</v>
       </c>
       <c r="F563" t="s">
-        <v>800</v>
+        <v>796</v>
       </c>
     </row>
     <row r="564" spans="1:6" x14ac:dyDescent="0.25">
@@ -14084,10 +14132,10 @@
         <v>566</v>
       </c>
       <c r="E564" t="s">
-        <v>799</v>
+        <v>795</v>
       </c>
       <c r="F564" t="s">
-        <v>800</v>
+        <v>796</v>
       </c>
     </row>
     <row r="565" spans="1:6" x14ac:dyDescent="0.25">
@@ -14104,10 +14152,10 @@
         <v>567</v>
       </c>
       <c r="E565" t="s">
-        <v>799</v>
+        <v>795</v>
       </c>
       <c r="F565" t="s">
-        <v>800</v>
+        <v>796</v>
       </c>
     </row>
     <row r="566" spans="1:6" x14ac:dyDescent="0.25">
@@ -14124,10 +14172,10 @@
         <v>568</v>
       </c>
       <c r="E566" t="s">
-        <v>799</v>
+        <v>795</v>
       </c>
       <c r="F566" t="s">
-        <v>800</v>
+        <v>796</v>
       </c>
     </row>
     <row r="567" spans="1:6" x14ac:dyDescent="0.25">
@@ -14144,10 +14192,10 @@
         <v>569</v>
       </c>
       <c r="E567" t="s">
-        <v>799</v>
+        <v>795</v>
       </c>
       <c r="F567" t="s">
-        <v>800</v>
+        <v>796</v>
       </c>
     </row>
     <row r="568" spans="1:6" x14ac:dyDescent="0.25">
@@ -14164,10 +14212,10 @@
         <v>570</v>
       </c>
       <c r="E568" t="s">
-        <v>799</v>
+        <v>795</v>
       </c>
       <c r="F568" t="s">
-        <v>800</v>
+        <v>796</v>
       </c>
     </row>
     <row r="569" spans="1:6" x14ac:dyDescent="0.25">
@@ -14184,10 +14232,10 @@
         <v>571</v>
       </c>
       <c r="E569" t="s">
-        <v>799</v>
+        <v>795</v>
       </c>
       <c r="F569" t="s">
-        <v>800</v>
+        <v>796</v>
       </c>
     </row>
     <row r="570" spans="1:6" x14ac:dyDescent="0.25">
@@ -14204,10 +14252,10 @@
         <v>572</v>
       </c>
       <c r="E570" t="s">
-        <v>799</v>
+        <v>795</v>
       </c>
       <c r="F570" t="s">
-        <v>800</v>
+        <v>796</v>
       </c>
     </row>
     <row r="571" spans="1:6" x14ac:dyDescent="0.25">
@@ -14224,10 +14272,10 @@
         <v>573</v>
       </c>
       <c r="E571" t="s">
-        <v>799</v>
+        <v>795</v>
       </c>
       <c r="F571" t="s">
-        <v>800</v>
+        <v>796</v>
       </c>
     </row>
     <row r="572" spans="1:6" x14ac:dyDescent="0.25">
@@ -14244,10 +14292,10 @@
         <v>574</v>
       </c>
       <c r="E572" t="s">
-        <v>799</v>
+        <v>795</v>
       </c>
       <c r="F572" t="s">
-        <v>800</v>
+        <v>796</v>
       </c>
     </row>
     <row r="573" spans="1:6" x14ac:dyDescent="0.25">
@@ -14264,10 +14312,10 @@
         <v>575</v>
       </c>
       <c r="E573" t="s">
-        <v>799</v>
+        <v>795</v>
       </c>
       <c r="F573" t="s">
-        <v>800</v>
+        <v>796</v>
       </c>
     </row>
     <row r="574" spans="1:6" x14ac:dyDescent="0.25">
@@ -14284,10 +14332,10 @@
         <v>576</v>
       </c>
       <c r="E574" t="s">
-        <v>799</v>
+        <v>795</v>
       </c>
       <c r="F574" t="s">
-        <v>800</v>
+        <v>796</v>
       </c>
     </row>
     <row r="575" spans="1:6" x14ac:dyDescent="0.25">
@@ -14304,10 +14352,10 @@
         <v>577</v>
       </c>
       <c r="E575" t="s">
-        <v>799</v>
+        <v>795</v>
       </c>
       <c r="F575" t="s">
-        <v>800</v>
+        <v>796</v>
       </c>
     </row>
     <row r="576" spans="1:6" x14ac:dyDescent="0.25">
@@ -14324,10 +14372,10 @@
         <v>578</v>
       </c>
       <c r="E576" t="s">
-        <v>799</v>
+        <v>795</v>
       </c>
       <c r="F576" t="s">
-        <v>800</v>
+        <v>796</v>
       </c>
     </row>
     <row r="577" spans="1:6" x14ac:dyDescent="0.25">
@@ -14344,10 +14392,10 @@
         <v>579</v>
       </c>
       <c r="E577" t="s">
-        <v>799</v>
+        <v>795</v>
       </c>
       <c r="F577" t="s">
-        <v>800</v>
+        <v>796</v>
       </c>
     </row>
     <row r="578" spans="1:6" x14ac:dyDescent="0.25">
@@ -14364,10 +14412,10 @@
         <v>580</v>
       </c>
       <c r="E578" t="s">
-        <v>799</v>
+        <v>795</v>
       </c>
       <c r="F578" t="s">
-        <v>800</v>
+        <v>796</v>
       </c>
     </row>
     <row r="579" spans="1:6" x14ac:dyDescent="0.25">
@@ -14384,10 +14432,10 @@
         <v>581</v>
       </c>
       <c r="E579" t="s">
-        <v>799</v>
+        <v>795</v>
       </c>
       <c r="F579" t="s">
-        <v>800</v>
+        <v>796</v>
       </c>
     </row>
     <row r="580" spans="1:6" x14ac:dyDescent="0.25">
@@ -14404,10 +14452,10 @@
         <v>582</v>
       </c>
       <c r="E580" t="s">
-        <v>799</v>
+        <v>795</v>
       </c>
       <c r="F580" t="s">
-        <v>800</v>
+        <v>796</v>
       </c>
     </row>
     <row r="581" spans="1:6" x14ac:dyDescent="0.25">
@@ -14424,10 +14472,10 @@
         <v>583</v>
       </c>
       <c r="E581" t="s">
-        <v>799</v>
+        <v>795</v>
       </c>
       <c r="F581" t="s">
-        <v>800</v>
+        <v>796</v>
       </c>
     </row>
     <row r="582" spans="1:6" x14ac:dyDescent="0.25">
@@ -14444,10 +14492,10 @@
         <v>584</v>
       </c>
       <c r="E582" t="s">
-        <v>799</v>
+        <v>795</v>
       </c>
       <c r="F582" t="s">
-        <v>800</v>
+        <v>796</v>
       </c>
     </row>
     <row r="583" spans="1:6" x14ac:dyDescent="0.25">
@@ -14464,10 +14512,10 @@
         <v>585</v>
       </c>
       <c r="E583" t="s">
-        <v>799</v>
+        <v>795</v>
       </c>
       <c r="F583" t="s">
-        <v>800</v>
+        <v>796</v>
       </c>
     </row>
     <row r="584" spans="1:6" x14ac:dyDescent="0.25">
@@ -14484,10 +14532,10 @@
         <v>586</v>
       </c>
       <c r="E584" t="s">
-        <v>799</v>
+        <v>795</v>
       </c>
       <c r="F584" t="s">
-        <v>800</v>
+        <v>796</v>
       </c>
     </row>
     <row r="585" spans="1:6" x14ac:dyDescent="0.25">
@@ -14504,10 +14552,10 @@
         <v>587</v>
       </c>
       <c r="E585" t="s">
-        <v>799</v>
+        <v>795</v>
       </c>
       <c r="F585" t="s">
-        <v>800</v>
+        <v>796</v>
       </c>
     </row>
     <row r="586" spans="1:6" x14ac:dyDescent="0.25">
@@ -14524,10 +14572,10 @@
         <v>588</v>
       </c>
       <c r="E586" t="s">
-        <v>799</v>
+        <v>795</v>
       </c>
       <c r="F586" t="s">
-        <v>800</v>
+        <v>796</v>
       </c>
     </row>
     <row r="587" spans="1:6" x14ac:dyDescent="0.25">
@@ -14544,10 +14592,10 @@
         <v>589</v>
       </c>
       <c r="E587" t="s">
-        <v>799</v>
+        <v>795</v>
       </c>
       <c r="F587" t="s">
-        <v>800</v>
+        <v>796</v>
       </c>
     </row>
     <row r="588" spans="1:6" x14ac:dyDescent="0.25">
@@ -14564,10 +14612,10 @@
         <v>590</v>
       </c>
       <c r="E588" t="s">
-        <v>799</v>
+        <v>795</v>
       </c>
       <c r="F588" t="s">
-        <v>800</v>
+        <v>796</v>
       </c>
     </row>
     <row r="589" spans="1:6" x14ac:dyDescent="0.25">
@@ -14584,10 +14632,10 @@
         <v>591</v>
       </c>
       <c r="E589" t="s">
-        <v>799</v>
+        <v>795</v>
       </c>
       <c r="F589" t="s">
-        <v>800</v>
+        <v>796</v>
       </c>
     </row>
     <row r="590" spans="1:6" x14ac:dyDescent="0.25">
@@ -14604,10 +14652,10 @@
         <v>592</v>
       </c>
       <c r="E590" t="s">
-        <v>799</v>
+        <v>795</v>
       </c>
       <c r="F590" t="s">
-        <v>800</v>
+        <v>796</v>
       </c>
     </row>
     <row r="591" spans="1:6" x14ac:dyDescent="0.25">
@@ -14624,10 +14672,10 @@
         <v>593</v>
       </c>
       <c r="E591" t="s">
-        <v>799</v>
+        <v>795</v>
       </c>
       <c r="F591" t="s">
-        <v>800</v>
+        <v>796</v>
       </c>
     </row>
     <row r="592" spans="1:6" x14ac:dyDescent="0.25">
@@ -14644,10 +14692,10 @@
         <v>594</v>
       </c>
       <c r="E592" t="s">
-        <v>799</v>
+        <v>795</v>
       </c>
       <c r="F592" t="s">
-        <v>800</v>
+        <v>796</v>
       </c>
     </row>
     <row r="593" spans="1:6" x14ac:dyDescent="0.25">
@@ -14664,10 +14712,10 @@
         <v>595</v>
       </c>
       <c r="E593" t="s">
-        <v>799</v>
+        <v>795</v>
       </c>
       <c r="F593" t="s">
-        <v>800</v>
+        <v>796</v>
       </c>
     </row>
     <row r="594" spans="1:6" x14ac:dyDescent="0.25">
@@ -14684,10 +14732,10 @@
         <v>596</v>
       </c>
       <c r="E594" t="s">
-        <v>799</v>
+        <v>795</v>
       </c>
       <c r="F594" t="s">
-        <v>800</v>
+        <v>796</v>
       </c>
     </row>
     <row r="595" spans="1:6" x14ac:dyDescent="0.25">
@@ -14704,10 +14752,10 @@
         <v>597</v>
       </c>
       <c r="E595" t="s">
-        <v>799</v>
+        <v>795</v>
       </c>
       <c r="F595" t="s">
-        <v>800</v>
+        <v>796</v>
       </c>
     </row>
     <row r="596" spans="1:6" x14ac:dyDescent="0.25">
@@ -14724,10 +14772,10 @@
         <v>598</v>
       </c>
       <c r="E596" t="s">
-        <v>799</v>
+        <v>795</v>
       </c>
       <c r="F596" t="s">
-        <v>800</v>
+        <v>796</v>
       </c>
     </row>
     <row r="597" spans="1:6" x14ac:dyDescent="0.25">
@@ -14744,10 +14792,10 @@
         <v>599</v>
       </c>
       <c r="E597" t="s">
-        <v>799</v>
+        <v>795</v>
       </c>
       <c r="F597" t="s">
-        <v>800</v>
+        <v>796</v>
       </c>
     </row>
     <row r="598" spans="1:6" x14ac:dyDescent="0.25">
@@ -14764,10 +14812,10 @@
         <v>600</v>
       </c>
       <c r="E598" t="s">
-        <v>799</v>
+        <v>795</v>
       </c>
       <c r="F598" t="s">
-        <v>800</v>
+        <v>796</v>
       </c>
     </row>
     <row r="599" spans="1:6" x14ac:dyDescent="0.25">
@@ -14784,10 +14832,10 @@
         <v>601</v>
       </c>
       <c r="E599" t="s">
-        <v>799</v>
+        <v>795</v>
       </c>
       <c r="F599" t="s">
-        <v>800</v>
+        <v>796</v>
       </c>
     </row>
     <row r="600" spans="1:6" x14ac:dyDescent="0.25">
@@ -14804,10 +14852,10 @@
         <v>602</v>
       </c>
       <c r="E600" t="s">
-        <v>799</v>
+        <v>795</v>
       </c>
       <c r="F600" t="s">
-        <v>800</v>
+        <v>796</v>
       </c>
     </row>
     <row r="601" spans="1:6" x14ac:dyDescent="0.25">
@@ -14824,10 +14872,10 @@
         <v>603</v>
       </c>
       <c r="E601" t="s">
-        <v>799</v>
+        <v>795</v>
       </c>
       <c r="F601" t="s">
-        <v>800</v>
+        <v>796</v>
       </c>
     </row>
     <row r="602" spans="1:6" x14ac:dyDescent="0.25">
@@ -14844,10 +14892,10 @@
         <v>604</v>
       </c>
       <c r="E602" t="s">
-        <v>799</v>
+        <v>795</v>
       </c>
       <c r="F602" t="s">
-        <v>800</v>
+        <v>796</v>
       </c>
     </row>
     <row r="603" spans="1:6" x14ac:dyDescent="0.25">
@@ -14864,10 +14912,10 @@
         <v>605</v>
       </c>
       <c r="E603" t="s">
-        <v>799</v>
+        <v>795</v>
       </c>
       <c r="F603" t="s">
-        <v>800</v>
+        <v>796</v>
       </c>
     </row>
     <row r="604" spans="1:6" x14ac:dyDescent="0.25">
@@ -14884,10 +14932,10 @@
         <v>606</v>
       </c>
       <c r="E604" t="s">
-        <v>799</v>
+        <v>795</v>
       </c>
       <c r="F604" t="s">
-        <v>800</v>
+        <v>796</v>
       </c>
     </row>
     <row r="605" spans="1:6" x14ac:dyDescent="0.25">
@@ -14904,10 +14952,10 @@
         <v>607</v>
       </c>
       <c r="E605" t="s">
-        <v>767</v>
+        <v>765</v>
       </c>
       <c r="F605" t="s">
-        <v>776</v>
+        <v>773</v>
       </c>
     </row>
     <row r="606" spans="1:6" x14ac:dyDescent="0.25">
@@ -14924,10 +14972,10 @@
         <v>608</v>
       </c>
       <c r="E606" t="s">
-        <v>767</v>
+        <v>765</v>
       </c>
       <c r="F606" t="s">
-        <v>776</v>
+        <v>773</v>
       </c>
     </row>
     <row r="607" spans="1:6" x14ac:dyDescent="0.25">
@@ -14944,10 +14992,10 @@
         <v>609</v>
       </c>
       <c r="E607" t="s">
-        <v>767</v>
+        <v>765</v>
       </c>
       <c r="F607" t="s">
-        <v>776</v>
+        <v>773</v>
       </c>
     </row>
     <row r="608" spans="1:6" x14ac:dyDescent="0.25">
@@ -14964,10 +15012,10 @@
         <v>610</v>
       </c>
       <c r="E608" t="s">
-        <v>767</v>
+        <v>765</v>
       </c>
       <c r="F608" t="s">
-        <v>776</v>
+        <v>773</v>
       </c>
     </row>
     <row r="609" spans="1:6" x14ac:dyDescent="0.25">
@@ -14984,10 +15032,10 @@
         <v>611</v>
       </c>
       <c r="E609" t="s">
-        <v>767</v>
+        <v>765</v>
       </c>
       <c r="F609" t="s">
-        <v>776</v>
+        <v>773</v>
       </c>
     </row>
     <row r="610" spans="1:6" x14ac:dyDescent="0.25">
@@ -15004,10 +15052,10 @@
         <v>612</v>
       </c>
       <c r="E610" t="s">
-        <v>767</v>
+        <v>765</v>
       </c>
       <c r="F610" t="s">
-        <v>776</v>
+        <v>773</v>
       </c>
     </row>
     <row r="611" spans="1:6" x14ac:dyDescent="0.25">
@@ -15024,10 +15072,10 @@
         <v>613</v>
       </c>
       <c r="E611" t="s">
-        <v>767</v>
+        <v>765</v>
       </c>
       <c r="F611" t="s">
-        <v>776</v>
+        <v>773</v>
       </c>
     </row>
     <row r="612" spans="1:6" x14ac:dyDescent="0.25">
@@ -15044,10 +15092,10 @@
         <v>614</v>
       </c>
       <c r="E612" t="s">
-        <v>767</v>
+        <v>765</v>
       </c>
       <c r="F612" t="s">
-        <v>776</v>
+        <v>773</v>
       </c>
     </row>
     <row r="613" spans="1:6" x14ac:dyDescent="0.25">
@@ -15064,10 +15112,10 @@
         <v>615</v>
       </c>
       <c r="E613" t="s">
-        <v>767</v>
+        <v>765</v>
       </c>
       <c r="F613" t="s">
-        <v>776</v>
+        <v>773</v>
       </c>
     </row>
     <row r="614" spans="1:6" x14ac:dyDescent="0.25">
@@ -15084,10 +15132,10 @@
         <v>616</v>
       </c>
       <c r="E614" t="s">
-        <v>767</v>
+        <v>765</v>
       </c>
       <c r="F614" t="s">
-        <v>776</v>
+        <v>773</v>
       </c>
     </row>
     <row r="615" spans="1:6" x14ac:dyDescent="0.25">
@@ -15104,10 +15152,10 @@
         <v>617</v>
       </c>
       <c r="E615" t="s">
-        <v>767</v>
+        <v>765</v>
       </c>
       <c r="F615" t="s">
-        <v>776</v>
+        <v>773</v>
       </c>
     </row>
     <row r="616" spans="1:6" x14ac:dyDescent="0.25">
@@ -15124,10 +15172,10 @@
         <v>618</v>
       </c>
       <c r="E616" t="s">
-        <v>767</v>
+        <v>765</v>
       </c>
       <c r="F616" t="s">
-        <v>776</v>
+        <v>773</v>
       </c>
     </row>
     <row r="617" spans="1:6" x14ac:dyDescent="0.25">
@@ -15144,10 +15192,10 @@
         <v>619</v>
       </c>
       <c r="E617" t="s">
-        <v>767</v>
+        <v>765</v>
       </c>
       <c r="F617" t="s">
-        <v>776</v>
+        <v>773</v>
       </c>
     </row>
     <row r="618" spans="1:6" x14ac:dyDescent="0.25">
@@ -15164,10 +15212,10 @@
         <v>620</v>
       </c>
       <c r="E618" t="s">
-        <v>767</v>
+        <v>765</v>
       </c>
       <c r="F618" t="s">
-        <v>776</v>
+        <v>773</v>
       </c>
     </row>
     <row r="619" spans="1:6" x14ac:dyDescent="0.25">
@@ -15184,10 +15232,10 @@
         <v>621</v>
       </c>
       <c r="E619" t="s">
-        <v>767</v>
+        <v>765</v>
       </c>
       <c r="F619" t="s">
-        <v>776</v>
+        <v>773</v>
       </c>
     </row>
     <row r="620" spans="1:6" x14ac:dyDescent="0.25">
@@ -15204,10 +15252,10 @@
         <v>622</v>
       </c>
       <c r="E620" t="s">
-        <v>767</v>
+        <v>765</v>
       </c>
       <c r="F620" t="s">
-        <v>776</v>
+        <v>773</v>
       </c>
     </row>
     <row r="621" spans="1:6" x14ac:dyDescent="0.25">
@@ -15224,10 +15272,10 @@
         <v>623</v>
       </c>
       <c r="E621" t="s">
-        <v>767</v>
+        <v>765</v>
       </c>
       <c r="F621" t="s">
-        <v>776</v>
+        <v>773</v>
       </c>
     </row>
     <row r="622" spans="1:6" x14ac:dyDescent="0.25">
@@ -15244,10 +15292,10 @@
         <v>624</v>
       </c>
       <c r="E622" t="s">
-        <v>767</v>
+        <v>765</v>
       </c>
       <c r="F622" t="s">
-        <v>776</v>
+        <v>773</v>
       </c>
     </row>
     <row r="623" spans="1:6" x14ac:dyDescent="0.25">
@@ -15264,10 +15312,10 @@
         <v>625</v>
       </c>
       <c r="E623" t="s">
-        <v>767</v>
+        <v>765</v>
       </c>
       <c r="F623" t="s">
-        <v>776</v>
+        <v>773</v>
       </c>
     </row>
     <row r="624" spans="1:6" x14ac:dyDescent="0.25">
@@ -15284,10 +15332,10 @@
         <v>626</v>
       </c>
       <c r="E624" t="s">
-        <v>767</v>
+        <v>765</v>
       </c>
       <c r="F624" t="s">
-        <v>776</v>
+        <v>773</v>
       </c>
     </row>
     <row r="625" spans="1:6" x14ac:dyDescent="0.25">
@@ -15304,10 +15352,10 @@
         <v>627</v>
       </c>
       <c r="E625" t="s">
-        <v>767</v>
+        <v>765</v>
       </c>
       <c r="F625" t="s">
-        <v>776</v>
+        <v>773</v>
       </c>
     </row>
     <row r="626" spans="1:6" x14ac:dyDescent="0.25">
@@ -15324,10 +15372,10 @@
         <v>628</v>
       </c>
       <c r="E626" t="s">
-        <v>767</v>
+        <v>765</v>
       </c>
       <c r="F626" t="s">
-        <v>776</v>
+        <v>773</v>
       </c>
     </row>
     <row r="627" spans="1:6" x14ac:dyDescent="0.25">
@@ -15344,10 +15392,10 @@
         <v>629</v>
       </c>
       <c r="E627" t="s">
-        <v>767</v>
+        <v>765</v>
       </c>
       <c r="F627" t="s">
-        <v>776</v>
+        <v>773</v>
       </c>
     </row>
     <row r="628" spans="1:6" x14ac:dyDescent="0.25">
@@ -15364,10 +15412,10 @@
         <v>630</v>
       </c>
       <c r="E628" t="s">
-        <v>767</v>
+        <v>765</v>
       </c>
       <c r="F628" t="s">
-        <v>776</v>
+        <v>773</v>
       </c>
     </row>
     <row r="629" spans="1:6" x14ac:dyDescent="0.25">
@@ -15384,10 +15432,10 @@
         <v>631</v>
       </c>
       <c r="E629" t="s">
-        <v>767</v>
+        <v>765</v>
       </c>
       <c r="F629" t="s">
-        <v>776</v>
+        <v>773</v>
       </c>
     </row>
     <row r="630" spans="1:6" x14ac:dyDescent="0.25">
@@ -15404,10 +15452,10 @@
         <v>632</v>
       </c>
       <c r="E630" t="s">
-        <v>767</v>
+        <v>765</v>
       </c>
       <c r="F630" t="s">
-        <v>776</v>
+        <v>773</v>
       </c>
     </row>
     <row r="631" spans="1:6" x14ac:dyDescent="0.25">
@@ -15424,10 +15472,10 @@
         <v>633</v>
       </c>
       <c r="E631" t="s">
-        <v>767</v>
+        <v>765</v>
       </c>
       <c r="F631" t="s">
-        <v>776</v>
+        <v>773</v>
       </c>
     </row>
     <row r="632" spans="1:6" x14ac:dyDescent="0.25">
@@ -15444,10 +15492,10 @@
         <v>634</v>
       </c>
       <c r="E632" t="s">
-        <v>767</v>
+        <v>765</v>
       </c>
       <c r="F632" t="s">
-        <v>776</v>
+        <v>773</v>
       </c>
     </row>
     <row r="633" spans="1:6" x14ac:dyDescent="0.25">
@@ -15464,10 +15512,10 @@
         <v>635</v>
       </c>
       <c r="E633" t="s">
-        <v>767</v>
+        <v>765</v>
       </c>
       <c r="F633" t="s">
-        <v>776</v>
+        <v>773</v>
       </c>
     </row>
     <row r="634" spans="1:6" x14ac:dyDescent="0.25">
@@ -15484,10 +15532,10 @@
         <v>636</v>
       </c>
       <c r="E634" t="s">
-        <v>767</v>
+        <v>765</v>
       </c>
       <c r="F634" t="s">
-        <v>776</v>
+        <v>773</v>
       </c>
     </row>
     <row r="635" spans="1:6" x14ac:dyDescent="0.25">
@@ -15504,10 +15552,10 @@
         <v>637</v>
       </c>
       <c r="E635" t="s">
-        <v>767</v>
+        <v>765</v>
       </c>
       <c r="F635" t="s">
-        <v>776</v>
+        <v>773</v>
       </c>
     </row>
     <row r="636" spans="1:6" x14ac:dyDescent="0.25">
@@ -15524,10 +15572,10 @@
         <v>638</v>
       </c>
       <c r="E636" t="s">
-        <v>767</v>
+        <v>765</v>
       </c>
       <c r="F636" t="s">
-        <v>776</v>
+        <v>773</v>
       </c>
     </row>
     <row r="637" spans="1:6" x14ac:dyDescent="0.25">
@@ -15544,10 +15592,10 @@
         <v>639</v>
       </c>
       <c r="E637" t="s">
-        <v>767</v>
+        <v>765</v>
       </c>
       <c r="F637" t="s">
-        <v>776</v>
+        <v>773</v>
       </c>
     </row>
     <row r="638" spans="1:6" x14ac:dyDescent="0.25">
@@ -15564,10 +15612,10 @@
         <v>640</v>
       </c>
       <c r="E638" t="s">
-        <v>767</v>
+        <v>765</v>
       </c>
       <c r="F638" t="s">
-        <v>776</v>
+        <v>773</v>
       </c>
     </row>
     <row r="639" spans="1:6" x14ac:dyDescent="0.25">
@@ -15584,10 +15632,10 @@
         <v>641</v>
       </c>
       <c r="E639" t="s">
-        <v>767</v>
+        <v>765</v>
       </c>
       <c r="F639" t="s">
-        <v>776</v>
+        <v>773</v>
       </c>
     </row>
     <row r="640" spans="1:6" x14ac:dyDescent="0.25">
@@ -15604,10 +15652,10 @@
         <v>642</v>
       </c>
       <c r="E640" t="s">
-        <v>767</v>
+        <v>765</v>
       </c>
       <c r="F640" t="s">
-        <v>776</v>
+        <v>773</v>
       </c>
     </row>
     <row r="641" spans="1:6" x14ac:dyDescent="0.25">
@@ -15624,10 +15672,10 @@
         <v>643</v>
       </c>
       <c r="E641" t="s">
-        <v>767</v>
+        <v>765</v>
       </c>
       <c r="F641" t="s">
-        <v>776</v>
+        <v>773</v>
       </c>
     </row>
     <row r="642" spans="1:6" x14ac:dyDescent="0.25">
@@ -15644,10 +15692,10 @@
         <v>644</v>
       </c>
       <c r="E642" t="s">
-        <v>767</v>
+        <v>765</v>
       </c>
       <c r="F642" t="s">
-        <v>776</v>
+        <v>773</v>
       </c>
     </row>
     <row r="643" spans="1:6" x14ac:dyDescent="0.25">
@@ -15664,10 +15712,10 @@
         <v>645</v>
       </c>
       <c r="E643" t="s">
-        <v>767</v>
+        <v>765</v>
       </c>
       <c r="F643" t="s">
-        <v>776</v>
+        <v>773</v>
       </c>
     </row>
     <row r="644" spans="1:6" x14ac:dyDescent="0.25">
@@ -15684,10 +15732,10 @@
         <v>646</v>
       </c>
       <c r="E644" t="s">
-        <v>767</v>
+        <v>765</v>
       </c>
       <c r="F644" t="s">
-        <v>776</v>
+        <v>773</v>
       </c>
     </row>
     <row r="645" spans="1:6" x14ac:dyDescent="0.25">
@@ -15704,10 +15752,10 @@
         <v>647</v>
       </c>
       <c r="E645" t="s">
-        <v>767</v>
+        <v>765</v>
       </c>
       <c r="F645" t="s">
-        <v>776</v>
+        <v>773</v>
       </c>
     </row>
     <row r="646" spans="1:6" x14ac:dyDescent="0.25">
@@ -15724,10 +15772,10 @@
         <v>648</v>
       </c>
       <c r="E646" t="s">
-        <v>767</v>
+        <v>765</v>
       </c>
       <c r="F646" t="s">
-        <v>776</v>
+        <v>773</v>
       </c>
     </row>
     <row r="647" spans="1:6" x14ac:dyDescent="0.25">
@@ -15744,10 +15792,10 @@
         <v>649</v>
       </c>
       <c r="E647" t="s">
-        <v>767</v>
+        <v>765</v>
       </c>
       <c r="F647" t="s">
-        <v>776</v>
+        <v>773</v>
       </c>
     </row>
     <row r="648" spans="1:6" x14ac:dyDescent="0.25">
@@ -15764,10 +15812,10 @@
         <v>650</v>
       </c>
       <c r="E648" t="s">
-        <v>767</v>
+        <v>765</v>
       </c>
       <c r="F648" t="s">
-        <v>776</v>
+        <v>773</v>
       </c>
     </row>
     <row r="649" spans="1:6" x14ac:dyDescent="0.25">
@@ -15784,10 +15832,10 @@
         <v>651</v>
       </c>
       <c r="E649" t="s">
-        <v>767</v>
+        <v>765</v>
       </c>
       <c r="F649" t="s">
-        <v>776</v>
+        <v>773</v>
       </c>
     </row>
     <row r="650" spans="1:6" x14ac:dyDescent="0.25">
@@ -15804,10 +15852,10 @@
         <v>652</v>
       </c>
       <c r="E650" t="s">
-        <v>768</v>
+        <v>766</v>
       </c>
       <c r="F650" t="s">
-        <v>774</v>
+        <v>771</v>
       </c>
     </row>
     <row r="651" spans="1:6" x14ac:dyDescent="0.25">
@@ -15824,10 +15872,10 @@
         <v>653</v>
       </c>
       <c r="E651" t="s">
-        <v>768</v>
+        <v>766</v>
       </c>
       <c r="F651" t="s">
-        <v>774</v>
+        <v>771</v>
       </c>
     </row>
     <row r="652" spans="1:6" x14ac:dyDescent="0.25">
@@ -15844,10 +15892,10 @@
         <v>654</v>
       </c>
       <c r="E652" t="s">
-        <v>768</v>
+        <v>766</v>
       </c>
       <c r="F652" t="s">
-        <v>774</v>
+        <v>771</v>
       </c>
     </row>
     <row r="653" spans="1:6" x14ac:dyDescent="0.25">
@@ -15864,10 +15912,10 @@
         <v>655</v>
       </c>
       <c r="E653" t="s">
-        <v>768</v>
+        <v>766</v>
       </c>
       <c r="F653" t="s">
-        <v>774</v>
+        <v>771</v>
       </c>
     </row>
     <row r="654" spans="1:6" x14ac:dyDescent="0.25">
@@ -15884,10 +15932,10 @@
         <v>656</v>
       </c>
       <c r="E654" t="s">
-        <v>768</v>
+        <v>766</v>
       </c>
       <c r="F654" t="s">
-        <v>774</v>
+        <v>771</v>
       </c>
     </row>
     <row r="655" spans="1:6" x14ac:dyDescent="0.25">
@@ -15904,10 +15952,10 @@
         <v>657</v>
       </c>
       <c r="E655" t="s">
-        <v>768</v>
+        <v>766</v>
       </c>
       <c r="F655" t="s">
-        <v>774</v>
+        <v>771</v>
       </c>
     </row>
     <row r="656" spans="1:6" x14ac:dyDescent="0.25">
@@ -15924,10 +15972,10 @@
         <v>658</v>
       </c>
       <c r="E656" t="s">
-        <v>768</v>
+        <v>766</v>
       </c>
       <c r="F656" t="s">
-        <v>774</v>
+        <v>771</v>
       </c>
     </row>
     <row r="657" spans="1:6" x14ac:dyDescent="0.25">
@@ -15944,10 +15992,10 @@
         <v>659</v>
       </c>
       <c r="E657" t="s">
-        <v>768</v>
+        <v>766</v>
       </c>
       <c r="F657" t="s">
-        <v>774</v>
+        <v>771</v>
       </c>
     </row>
     <row r="658" spans="1:6" x14ac:dyDescent="0.25">
@@ -15964,10 +16012,10 @@
         <v>660</v>
       </c>
       <c r="E658" t="s">
-        <v>768</v>
+        <v>766</v>
       </c>
       <c r="F658" t="s">
-        <v>774</v>
+        <v>771</v>
       </c>
     </row>
     <row r="659" spans="1:6" x14ac:dyDescent="0.25">
@@ -15984,10 +16032,10 @@
         <v>661</v>
       </c>
       <c r="E659" t="s">
-        <v>768</v>
+        <v>766</v>
       </c>
       <c r="F659" t="s">
-        <v>774</v>
+        <v>771</v>
       </c>
     </row>
     <row r="660" spans="1:6" x14ac:dyDescent="0.25">
@@ -16004,10 +16052,10 @@
         <v>662</v>
       </c>
       <c r="E660" t="s">
-        <v>768</v>
+        <v>766</v>
       </c>
       <c r="F660" t="s">
-        <v>774</v>
+        <v>771</v>
       </c>
     </row>
     <row r="661" spans="1:6" x14ac:dyDescent="0.25">
@@ -16024,10 +16072,10 @@
         <v>663</v>
       </c>
       <c r="E661" t="s">
-        <v>768</v>
+        <v>766</v>
       </c>
       <c r="F661" t="s">
-        <v>774</v>
+        <v>771</v>
       </c>
     </row>
     <row r="662" spans="1:6" x14ac:dyDescent="0.25">
@@ -16044,10 +16092,10 @@
         <v>664</v>
       </c>
       <c r="E662" t="s">
-        <v>768</v>
+        <v>766</v>
       </c>
       <c r="F662" t="s">
-        <v>774</v>
+        <v>771</v>
       </c>
     </row>
     <row r="663" spans="1:6" x14ac:dyDescent="0.25">
@@ -16064,10 +16112,10 @@
         <v>665</v>
       </c>
       <c r="E663" t="s">
-        <v>768</v>
+        <v>766</v>
       </c>
       <c r="F663" t="s">
-        <v>774</v>
+        <v>771</v>
       </c>
     </row>
     <row r="664" spans="1:6" x14ac:dyDescent="0.25">
@@ -16084,10 +16132,10 @@
         <v>666</v>
       </c>
       <c r="E664" t="s">
-        <v>768</v>
+        <v>766</v>
       </c>
       <c r="F664" t="s">
-        <v>774</v>
+        <v>771</v>
       </c>
     </row>
     <row r="665" spans="1:6" x14ac:dyDescent="0.25">
@@ -16104,10 +16152,10 @@
         <v>667</v>
       </c>
       <c r="E665" t="s">
-        <v>768</v>
+        <v>766</v>
       </c>
       <c r="F665" t="s">
-        <v>774</v>
+        <v>771</v>
       </c>
     </row>
     <row r="666" spans="1:6" x14ac:dyDescent="0.25">
@@ -16124,10 +16172,10 @@
         <v>668</v>
       </c>
       <c r="E666" t="s">
-        <v>768</v>
+        <v>766</v>
       </c>
       <c r="F666" t="s">
-        <v>774</v>
+        <v>771</v>
       </c>
     </row>
     <row r="667" spans="1:6" x14ac:dyDescent="0.25">
@@ -16144,10 +16192,10 @@
         <v>669</v>
       </c>
       <c r="E667" t="s">
-        <v>768</v>
+        <v>766</v>
       </c>
       <c r="F667" t="s">
-        <v>774</v>
+        <v>771</v>
       </c>
     </row>
     <row r="668" spans="1:6" x14ac:dyDescent="0.25">
@@ -16164,10 +16212,10 @@
         <v>670</v>
       </c>
       <c r="E668" t="s">
-        <v>779</v>
+        <v>775</v>
       </c>
       <c r="F668" t="s">
-        <v>778</v>
+        <v>815</v>
       </c>
     </row>
     <row r="669" spans="1:6" x14ac:dyDescent="0.25">
@@ -16184,10 +16232,10 @@
         <v>671</v>
       </c>
       <c r="E669" t="s">
-        <v>779</v>
+        <v>775</v>
       </c>
       <c r="F669" t="s">
-        <v>778</v>
+        <v>815</v>
       </c>
     </row>
     <row r="670" spans="1:6" x14ac:dyDescent="0.25">
@@ -16204,10 +16252,10 @@
         <v>672</v>
       </c>
       <c r="E670" t="s">
-        <v>779</v>
+        <v>775</v>
       </c>
       <c r="F670" t="s">
-        <v>778</v>
+        <v>815</v>
       </c>
     </row>
     <row r="671" spans="1:6" x14ac:dyDescent="0.25">
@@ -16224,10 +16272,10 @@
         <v>673</v>
       </c>
       <c r="E671" t="s">
-        <v>779</v>
+        <v>775</v>
       </c>
       <c r="F671" t="s">
-        <v>778</v>
+        <v>815</v>
       </c>
     </row>
     <row r="672" spans="1:6" x14ac:dyDescent="0.25">
@@ -16244,10 +16292,10 @@
         <v>674</v>
       </c>
       <c r="E672" t="s">
-        <v>779</v>
+        <v>775</v>
       </c>
       <c r="F672" t="s">
-        <v>778</v>
+        <v>815</v>
       </c>
     </row>
     <row r="673" spans="1:6" x14ac:dyDescent="0.25">
@@ -16264,10 +16312,10 @@
         <v>675</v>
       </c>
       <c r="E673" t="s">
-        <v>779</v>
+        <v>775</v>
       </c>
       <c r="F673" t="s">
-        <v>778</v>
+        <v>815</v>
       </c>
     </row>
     <row r="674" spans="1:6" x14ac:dyDescent="0.25">
@@ -16284,10 +16332,10 @@
         <v>676</v>
       </c>
       <c r="E674" t="s">
-        <v>799</v>
+        <v>795</v>
       </c>
       <c r="F674" t="s">
-        <v>800</v>
+        <v>796</v>
       </c>
     </row>
     <row r="675" spans="1:6" x14ac:dyDescent="0.25">
@@ -16304,10 +16352,10 @@
         <v>677</v>
       </c>
       <c r="E675" t="s">
-        <v>799</v>
+        <v>795</v>
       </c>
       <c r="F675" t="s">
-        <v>800</v>
+        <v>796</v>
       </c>
     </row>
     <row r="676" spans="1:6" x14ac:dyDescent="0.25">
@@ -16324,10 +16372,10 @@
         <v>678</v>
       </c>
       <c r="E676" t="s">
-        <v>799</v>
+        <v>795</v>
       </c>
       <c r="F676" t="s">
-        <v>800</v>
+        <v>796</v>
       </c>
     </row>
     <row r="677" spans="1:6" x14ac:dyDescent="0.25">
@@ -16344,10 +16392,10 @@
         <v>679</v>
       </c>
       <c r="E677" t="s">
-        <v>799</v>
+        <v>795</v>
       </c>
       <c r="F677" t="s">
-        <v>800</v>
+        <v>796</v>
       </c>
     </row>
     <row r="678" spans="1:6" x14ac:dyDescent="0.25">
@@ -16364,10 +16412,10 @@
         <v>680</v>
       </c>
       <c r="E678" t="s">
-        <v>799</v>
+        <v>795</v>
       </c>
       <c r="F678" t="s">
-        <v>800</v>
+        <v>796</v>
       </c>
     </row>
     <row r="679" spans="1:6" x14ac:dyDescent="0.25">
@@ -16384,10 +16432,10 @@
         <v>681</v>
       </c>
       <c r="E679" t="s">
-        <v>799</v>
+        <v>795</v>
       </c>
       <c r="F679" t="s">
-        <v>800</v>
+        <v>796</v>
       </c>
     </row>
     <row r="680" spans="1:6" x14ac:dyDescent="0.25">
@@ -16395,19 +16443,19 @@
         <v>537</v>
       </c>
       <c r="B680" t="s">
-        <v>782</v>
+        <v>778</v>
       </c>
       <c r="C680">
         <v>50537</v>
       </c>
       <c r="D680" t="s">
-        <v>783</v>
+        <v>779</v>
       </c>
       <c r="E680" t="s">
-        <v>775</v>
+        <v>772</v>
       </c>
       <c r="F680" t="s">
-        <v>769</v>
+        <v>767</v>
       </c>
     </row>
     <row r="681" spans="1:6" x14ac:dyDescent="0.25">
@@ -16415,19 +16463,19 @@
         <v>537</v>
       </c>
       <c r="B681" t="s">
-        <v>782</v>
+        <v>778</v>
       </c>
       <c r="C681">
         <v>40537</v>
       </c>
       <c r="D681" t="s">
-        <v>784</v>
+        <v>780</v>
       </c>
       <c r="E681" t="s">
-        <v>775</v>
+        <v>772</v>
       </c>
       <c r="F681" t="s">
-        <v>769</v>
+        <v>767</v>
       </c>
     </row>
     <row r="682" spans="1:6" x14ac:dyDescent="0.25">
@@ -16435,19 +16483,19 @@
         <v>537</v>
       </c>
       <c r="B682" t="s">
-        <v>782</v>
+        <v>778</v>
       </c>
       <c r="C682">
         <v>451537</v>
       </c>
       <c r="D682" t="s">
-        <v>785</v>
+        <v>781</v>
       </c>
       <c r="E682" t="s">
-        <v>775</v>
+        <v>772</v>
       </c>
       <c r="F682" t="s">
-        <v>769</v>
+        <v>767</v>
       </c>
     </row>
     <row r="683" spans="1:6" x14ac:dyDescent="0.25">
@@ -16455,19 +16503,19 @@
         <v>537</v>
       </c>
       <c r="B683" t="s">
-        <v>782</v>
+        <v>778</v>
       </c>
       <c r="C683">
         <v>452537</v>
       </c>
       <c r="D683" t="s">
-        <v>786</v>
+        <v>782</v>
       </c>
       <c r="E683" t="s">
-        <v>775</v>
+        <v>772</v>
       </c>
       <c r="F683" t="s">
-        <v>769</v>
+        <v>767</v>
       </c>
     </row>
     <row r="684" spans="1:6" x14ac:dyDescent="0.25">
@@ -16475,19 +16523,19 @@
         <v>537</v>
       </c>
       <c r="B684" t="s">
-        <v>782</v>
+        <v>778</v>
       </c>
       <c r="C684">
         <v>453537</v>
       </c>
       <c r="D684" t="s">
-        <v>787</v>
+        <v>783</v>
       </c>
       <c r="E684" t="s">
-        <v>775</v>
+        <v>772</v>
       </c>
       <c r="F684" t="s">
-        <v>769</v>
+        <v>767</v>
       </c>
     </row>
     <row r="685" spans="1:6" x14ac:dyDescent="0.25">
@@ -16495,19 +16543,19 @@
         <v>537</v>
       </c>
       <c r="B685" t="s">
-        <v>782</v>
+        <v>778</v>
       </c>
       <c r="C685">
         <v>421537</v>
       </c>
       <c r="D685" t="s">
-        <v>788</v>
+        <v>784</v>
       </c>
       <c r="E685" t="s">
-        <v>775</v>
+        <v>772</v>
       </c>
       <c r="F685" t="s">
-        <v>769</v>
+        <v>767</v>
       </c>
     </row>
     <row r="686" spans="1:6" x14ac:dyDescent="0.25">
@@ -16515,19 +16563,19 @@
         <v>537</v>
       </c>
       <c r="B686" t="s">
-        <v>782</v>
+        <v>778</v>
       </c>
       <c r="C686">
         <v>422537</v>
       </c>
       <c r="D686" t="s">
-        <v>789</v>
+        <v>785</v>
       </c>
       <c r="E686" t="s">
-        <v>775</v>
+        <v>772</v>
       </c>
       <c r="F686" t="s">
-        <v>769</v>
+        <v>767</v>
       </c>
     </row>
     <row r="687" spans="1:6" x14ac:dyDescent="0.25">
@@ -16535,19 +16583,19 @@
         <v>537</v>
       </c>
       <c r="B687" t="s">
-        <v>782</v>
+        <v>778</v>
       </c>
       <c r="C687">
         <v>423537</v>
       </c>
       <c r="D687" t="s">
-        <v>790</v>
+        <v>786</v>
       </c>
       <c r="E687" t="s">
-        <v>775</v>
+        <v>772</v>
       </c>
       <c r="F687" t="s">
-        <v>769</v>
+        <v>767</v>
       </c>
     </row>
     <row r="688" spans="1:6" x14ac:dyDescent="0.25">
@@ -16555,19 +16603,19 @@
         <v>54</v>
       </c>
       <c r="B688" t="s">
-        <v>798</v>
+        <v>794</v>
       </c>
       <c r="C688">
         <v>5054</v>
       </c>
       <c r="D688" t="s">
-        <v>791</v>
+        <v>787</v>
       </c>
       <c r="E688" t="s">
-        <v>780</v>
+        <v>776</v>
       </c>
       <c r="F688" t="s">
-        <v>781</v>
+        <v>777</v>
       </c>
     </row>
     <row r="689" spans="1:6" x14ac:dyDescent="0.25">
@@ -16575,19 +16623,19 @@
         <v>54</v>
       </c>
       <c r="B689" t="s">
-        <v>798</v>
+        <v>794</v>
       </c>
       <c r="C689">
         <v>4054</v>
       </c>
       <c r="D689" t="s">
-        <v>792</v>
+        <v>788</v>
       </c>
       <c r="E689" t="s">
-        <v>780</v>
+        <v>776</v>
       </c>
       <c r="F689" t="s">
-        <v>781</v>
+        <v>777</v>
       </c>
     </row>
     <row r="690" spans="1:6" x14ac:dyDescent="0.25">
@@ -16595,19 +16643,19 @@
         <v>54</v>
       </c>
       <c r="B690" t="s">
-        <v>798</v>
+        <v>794</v>
       </c>
       <c r="C690">
         <v>45154</v>
       </c>
       <c r="D690" t="s">
-        <v>793</v>
+        <v>789</v>
       </c>
       <c r="E690" t="s">
-        <v>780</v>
+        <v>776</v>
       </c>
       <c r="F690" t="s">
-        <v>781</v>
+        <v>777</v>
       </c>
     </row>
     <row r="691" spans="1:6" x14ac:dyDescent="0.25">
@@ -16615,19 +16663,19 @@
         <v>54</v>
       </c>
       <c r="B691" t="s">
-        <v>798</v>
+        <v>794</v>
       </c>
       <c r="C691">
         <v>45254</v>
       </c>
       <c r="D691" t="s">
-        <v>794</v>
+        <v>790</v>
       </c>
       <c r="E691" t="s">
-        <v>780</v>
+        <v>776</v>
       </c>
       <c r="F691" t="s">
-        <v>781</v>
+        <v>777</v>
       </c>
     </row>
     <row r="692" spans="1:6" x14ac:dyDescent="0.25">
@@ -16635,19 +16683,19 @@
         <v>54</v>
       </c>
       <c r="B692" t="s">
-        <v>798</v>
+        <v>794</v>
       </c>
       <c r="C692">
         <v>45354</v>
       </c>
       <c r="D692" t="s">
-        <v>795</v>
+        <v>791</v>
       </c>
       <c r="E692" t="s">
-        <v>780</v>
+        <v>776</v>
       </c>
       <c r="F692" t="s">
-        <v>781</v>
+        <v>777</v>
       </c>
     </row>
     <row r="693" spans="1:6" x14ac:dyDescent="0.25">
@@ -16655,19 +16703,19 @@
         <v>54</v>
       </c>
       <c r="B693" t="s">
-        <v>798</v>
+        <v>794</v>
       </c>
       <c r="C693">
         <v>42154</v>
       </c>
       <c r="D693" t="s">
-        <v>796</v>
+        <v>792</v>
       </c>
       <c r="E693" t="s">
-        <v>780</v>
+        <v>776</v>
       </c>
       <c r="F693" t="s">
-        <v>781</v>
+        <v>777</v>
       </c>
     </row>
     <row r="694" spans="1:6" x14ac:dyDescent="0.25">
@@ -16675,23 +16723,323 @@
         <v>54</v>
       </c>
       <c r="B694" t="s">
-        <v>798</v>
+        <v>794</v>
       </c>
       <c r="C694">
         <v>42154</v>
       </c>
       <c r="D694" t="s">
-        <v>797</v>
+        <v>793</v>
       </c>
       <c r="E694" t="s">
-        <v>780</v>
+        <v>776</v>
       </c>
       <c r="F694" t="s">
-        <v>781</v>
+        <v>777</v>
+      </c>
+    </row>
+    <row r="695" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A695">
+        <v>538</v>
+      </c>
+      <c r="B695" t="s">
+        <v>798</v>
+      </c>
+      <c r="C695">
+        <v>50538</v>
+      </c>
+      <c r="D695" t="s">
+        <v>800</v>
+      </c>
+      <c r="E695" t="s">
+        <v>772</v>
+      </c>
+      <c r="F695" t="s">
+        <v>767</v>
+      </c>
+    </row>
+    <row r="696" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A696">
+        <v>538</v>
+      </c>
+      <c r="B696" t="s">
+        <v>798</v>
+      </c>
+      <c r="C696">
+        <v>40538</v>
+      </c>
+      <c r="D696" t="s">
+        <v>801</v>
+      </c>
+      <c r="E696" t="s">
+        <v>772</v>
+      </c>
+      <c r="F696" t="s">
+        <v>767</v>
+      </c>
+    </row>
+    <row r="697" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A697">
+        <v>538</v>
+      </c>
+      <c r="B697" t="s">
+        <v>798</v>
+      </c>
+      <c r="C697">
+        <v>451538</v>
+      </c>
+      <c r="D697" t="s">
+        <v>802</v>
+      </c>
+      <c r="E697" t="s">
+        <v>772</v>
+      </c>
+      <c r="F697" t="s">
+        <v>767</v>
+      </c>
+    </row>
+    <row r="698" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A698">
+        <v>538</v>
+      </c>
+      <c r="B698" t="s">
+        <v>798</v>
+      </c>
+      <c r="C698">
+        <v>452538</v>
+      </c>
+      <c r="D698" t="s">
+        <v>803</v>
+      </c>
+      <c r="E698" t="s">
+        <v>772</v>
+      </c>
+      <c r="F698" t="s">
+        <v>767</v>
+      </c>
+    </row>
+    <row r="699" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A699">
+        <v>538</v>
+      </c>
+      <c r="B699" t="s">
+        <v>798</v>
+      </c>
+      <c r="C699">
+        <v>453538</v>
+      </c>
+      <c r="D699" t="s">
+        <v>804</v>
+      </c>
+      <c r="E699" t="s">
+        <v>772</v>
+      </c>
+      <c r="F699" t="s">
+        <v>767</v>
+      </c>
+    </row>
+    <row r="700" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A700">
+        <v>538</v>
+      </c>
+      <c r="B700" t="s">
+        <v>798</v>
+      </c>
+      <c r="C700">
+        <v>421538</v>
+      </c>
+      <c r="D700" t="s">
+        <v>805</v>
+      </c>
+      <c r="E700" t="s">
+        <v>772</v>
+      </c>
+      <c r="F700" t="s">
+        <v>767</v>
+      </c>
+    </row>
+    <row r="701" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A701">
+        <v>538</v>
+      </c>
+      <c r="B701" t="s">
+        <v>798</v>
+      </c>
+      <c r="C701">
+        <v>422538</v>
+      </c>
+      <c r="D701" t="s">
+        <v>806</v>
+      </c>
+      <c r="E701" t="s">
+        <v>772</v>
+      </c>
+      <c r="F701" t="s">
+        <v>767</v>
+      </c>
+    </row>
+    <row r="702" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A702">
+        <v>538</v>
+      </c>
+      <c r="B702" t="s">
+        <v>798</v>
+      </c>
+      <c r="C702">
+        <v>423538</v>
+      </c>
+      <c r="D702" t="s">
+        <v>807</v>
+      </c>
+      <c r="E702" t="s">
+        <v>772</v>
+      </c>
+      <c r="F702" t="s">
+        <v>767</v>
+      </c>
+    </row>
+    <row r="703" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A703">
+        <v>55</v>
+      </c>
+      <c r="B703" t="s">
+        <v>799</v>
+      </c>
+      <c r="C703">
+        <v>5055</v>
+      </c>
+      <c r="D703" t="s">
+        <v>808</v>
+      </c>
+      <c r="E703" t="s">
+        <v>776</v>
+      </c>
+      <c r="F703" t="s">
+        <v>777</v>
+      </c>
+    </row>
+    <row r="704" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A704">
+        <v>55</v>
+      </c>
+      <c r="B704" t="s">
+        <v>799</v>
+      </c>
+      <c r="C704">
+        <v>4055</v>
+      </c>
+      <c r="D704" t="s">
+        <v>809</v>
+      </c>
+      <c r="E704" t="s">
+        <v>776</v>
+      </c>
+      <c r="F704" t="s">
+        <v>777</v>
+      </c>
+    </row>
+    <row r="705" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A705">
+        <v>55</v>
+      </c>
+      <c r="B705" t="s">
+        <v>799</v>
+      </c>
+      <c r="C705">
+        <v>45155</v>
+      </c>
+      <c r="D705" t="s">
+        <v>810</v>
+      </c>
+      <c r="E705" t="s">
+        <v>776</v>
+      </c>
+      <c r="F705" t="s">
+        <v>777</v>
+      </c>
+    </row>
+    <row r="706" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A706">
+        <v>55</v>
+      </c>
+      <c r="B706" t="s">
+        <v>799</v>
+      </c>
+      <c r="C706">
+        <v>45255</v>
+      </c>
+      <c r="D706" t="s">
+        <v>811</v>
+      </c>
+      <c r="E706" t="s">
+        <v>776</v>
+      </c>
+      <c r="F706" t="s">
+        <v>777</v>
+      </c>
+    </row>
+    <row r="707" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A707">
+        <v>55</v>
+      </c>
+      <c r="B707" t="s">
+        <v>799</v>
+      </c>
+      <c r="C707">
+        <v>45355</v>
+      </c>
+      <c r="D707" t="s">
+        <v>812</v>
+      </c>
+      <c r="E707" t="s">
+        <v>776</v>
+      </c>
+      <c r="F707" t="s">
+        <v>777</v>
+      </c>
+    </row>
+    <row r="708" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A708">
+        <v>55</v>
+      </c>
+      <c r="B708" t="s">
+        <v>799</v>
+      </c>
+      <c r="C708">
+        <v>42155</v>
+      </c>
+      <c r="D708" t="s">
+        <v>813</v>
+      </c>
+      <c r="E708" t="s">
+        <v>776</v>
+      </c>
+      <c r="F708" t="s">
+        <v>777</v>
+      </c>
+    </row>
+    <row r="709" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A709">
+        <v>55</v>
+      </c>
+      <c r="B709" t="s">
+        <v>799</v>
+      </c>
+      <c r="C709">
+        <v>42155</v>
+      </c>
+      <c r="D709" t="s">
+        <v>814</v>
+      </c>
+      <c r="E709" t="s">
+        <v>776</v>
+      </c>
+      <c r="F709" t="s">
+        <v>777</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:F694" xr:uid="{2D9567B5-8E48-47DC-894B-1D36F3C8AF52}"/>
+  <autoFilter ref="A1:F709" xr:uid="{2D9567B5-8E48-47DC-894B-1D36F3C8AF52}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>